--- a/Technology/Hardware/Tesla.xlsx
+++ b/Technology/Hardware/Tesla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8ADA3A-D90F-0B43-AEF5-1F7B0643C85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456AB585-E42D-D843-B30F-68AB98C36C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="164">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -525,9 +525,6 @@
     <t>Equity Value</t>
   </si>
   <si>
-    <t>Shares</t>
-  </si>
-  <si>
     <t>Intrinsic Value</t>
   </si>
   <si>
@@ -556,18 +553,28 @@
   </si>
   <si>
     <t>Vehicle Deliveries YoY</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Shares (No dilution)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -730,7 +737,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -894,12 +901,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -936,9 +952,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -990,12 +1003,6 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,6 +1027,31 @@
     <xf numFmtId="167" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1044,6 +1076,8 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2330,13 +2364,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>364.07299999999998</v>
+    <v>314.66640000000001</v>
     <v>101.81</v>
-    <v>2.0164</v>
-    <v>2.09</v>
-    <v>1.2822999999999999E-2</v>
-    <v>-7.0000000000000007E-2</v>
-    <v>-4.2400000000000001E-4</v>
+    <v>1.9987999999999999</v>
+    <v>1.57</v>
+    <v>8.5840000000000014E-3</v>
+    <v>0.03</v>
+    <v>1.6259999999999999E-4</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
     <v>127855</v>
@@ -2344,25 +2378,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>166</v>
+    <v>186.78</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45037.999998113279</v>
+    <v>45071.999967430471</v>
     <v>0</v>
-    <v>161.32079999999999</v>
-    <v>523190400000</v>
+    <v>180.58</v>
+    <v>584678402880</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>164.8</v>
-    <v>47.986699999999999</v>
-    <v>162.99</v>
-    <v>165.08</v>
-    <v>165.01</v>
-    <v>3169314000</v>
+    <v>186.54</v>
+    <v>54.3108</v>
+    <v>182.9</v>
+    <v>184.47</v>
+    <v>184.5</v>
+    <v>3169504000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>123538954</v>
-    <v>131565047</v>
+    <v>96870719</v>
+    <v>125742180</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -2527,9 +2561,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2950,19 +2984,18 @@
   <dimension ref="A1:Z120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T101" sqref="T101"/>
+      <selection pane="bottomRight" activeCell="R96" sqref="R96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="17" width="15" customWidth="1"/>
-    <col min="18" max="20" width="18.83203125" customWidth="1"/>
-    <col min="21" max="22" width="19" customWidth="1"/>
-    <col min="23" max="26" width="21.1640625" customWidth="1"/>
+    <col min="18" max="23" width="21" customWidth="1"/>
+    <col min="24" max="26" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="22" thickBot="1" x14ac:dyDescent="0.3">
@@ -3103,7 +3136,7 @@
     </row>
     <row r="3" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3143,7 +3176,7 @@
       <c r="Q3" s="20">
         <v>1313851</v>
       </c>
-      <c r="R3" s="61">
+      <c r="R3" s="58">
         <f>422875*4</f>
         <v>1691500</v>
       </c>
@@ -3158,7 +3191,7 @@
     </row>
     <row r="4" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15" t="e">
@@ -3229,10 +3262,10 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
     </row>
     <row r="5" spans="1:26" ht="40" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -3287,30 +3320,30 @@
         <v>81462000000</v>
       </c>
       <c r="R5" s="17">
-        <v>102000000000</v>
+        <v>99748000000</v>
       </c>
       <c r="S5" s="17">
-        <v>132300000000</v>
+        <v>128400000000</v>
       </c>
       <c r="T5" s="17">
-        <v>152800000000</v>
+        <v>156700000000</v>
       </c>
       <c r="U5" s="17">
-        <v>164500000000</v>
+        <v>163400000000</v>
       </c>
       <c r="V5" s="17">
-        <v>210100000000</v>
-      </c>
-      <c r="W5" s="42" t="s">
+        <v>197900000000</v>
+      </c>
+      <c r="W5" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="X5" s="43" t="s">
+      <c r="X5" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="43" t="s">
+      <c r="Y5" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="Z5" s="43" t="s">
+      <c r="Z5" s="60" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3381,37 +3414,37 @@
       </c>
       <c r="R6" s="18">
         <f t="shared" ref="R6" si="14">(R5/Q5)-1</f>
-        <v>0.25211755174191652</v>
+        <v>0.22447276030541841</v>
       </c>
       <c r="S6" s="18">
         <f t="shared" ref="S6" si="15">(S5/R5)-1</f>
-        <v>0.29705882352941182</v>
+        <v>0.28724385451337375</v>
       </c>
       <c r="T6" s="18">
         <f t="shared" ref="T6" si="16">(T5/S5)-1</f>
-        <v>0.15495086923658352</v>
+        <v>0.22040498442367595</v>
       </c>
       <c r="U6" s="18">
         <f>(U5/T5)-1</f>
-        <v>7.6570680628272214E-2</v>
+        <v>4.2756860242501693E-2</v>
       </c>
       <c r="V6" s="18">
         <f t="shared" ref="V6" si="17">(V5/U5)-1</f>
-        <v>0.27720364741641346</v>
-      </c>
-      <c r="W6" s="44">
+        <v>0.21113831089351276</v>
+      </c>
+      <c r="W6" s="43">
         <f>(Q6+P6+O6)/3</f>
         <v>0.50111045549806821</v>
       </c>
-      <c r="X6" s="44">
+      <c r="X6" s="43">
         <f>(Q22+P22+O22)/3</f>
         <v>1.0471441765542473</v>
       </c>
-      <c r="Y6" s="44">
+      <c r="Y6" s="43">
         <f>(Q31+P31+O31)/3</f>
         <v>2.1577121717940262</v>
       </c>
-      <c r="Z6" s="44">
+      <c r="Z6" s="43">
         <f>(Q107+P107+O107)/3</f>
         <v>1.083547133260981</v>
       </c>
@@ -3521,16 +3554,16 @@
       <c r="Q8" s="10">
         <v>20853000000</v>
       </c>
-      <c r="W8" s="42" t="s">
+      <c r="W8" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="X8" s="43" t="s">
+      <c r="X8" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="Y8" s="43" t="s">
+      <c r="Y8" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="Z8" s="43" t="s">
+      <c r="Z8" s="42" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3586,19 +3619,19 @@
       <c r="Q9" s="2">
         <v>0.25600000000000001</v>
       </c>
-      <c r="W9" s="44">
+      <c r="W9" s="43">
         <f>Q9</f>
         <v>0.25600000000000001</v>
       </c>
-      <c r="X9" s="45">
+      <c r="X9" s="44">
         <f>Q23</f>
         <v>0.21640000000000001</v>
       </c>
-      <c r="Y9" s="45">
+      <c r="Y9" s="44">
         <f>Q32</f>
         <v>0.15409999999999999</v>
       </c>
-      <c r="Z9" s="45">
+      <c r="Z9" s="44">
         <f>Q108/Q5</f>
         <v>9.281628243843755E-2</v>
       </c>
@@ -3724,16 +3757,16 @@
         <f t="shared" si="18"/>
         <v>3.7747661486337188E-2</v>
       </c>
-      <c r="W11" s="42" t="s">
+      <c r="W11" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="X11" s="43" t="s">
+      <c r="X11" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="Y11" s="43" t="s">
+      <c r="Y11" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="Z11" s="43" t="s">
+      <c r="Z11" s="42" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3789,19 +3822,19 @@
       <c r="Q12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W12" s="44">
+      <c r="W12" s="43">
         <f>Q11</f>
         <v>3.7747661486337188E-2</v>
       </c>
-      <c r="X12" s="45">
+      <c r="X12" s="44">
         <f>Q15</f>
         <v>4.8439763325231394E-2</v>
       </c>
-      <c r="Y12" s="45">
+      <c r="Y12" s="44">
         <f>Q82</f>
         <v>1.9150033144288134E-2</v>
       </c>
-      <c r="Z12" s="45">
+      <c r="Z12" s="44">
         <f>Q91</f>
         <v>8.7930568854189678E-2</v>
       </c>
@@ -3911,16 +3944,16 @@
       <c r="Q14" s="1">
         <v>3946000000</v>
       </c>
-      <c r="W14" s="42" t="s">
+      <c r="W14" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="X14" s="43" t="s">
+      <c r="X14" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="Y14" s="43" t="s">
+      <c r="Y14" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="Z14" s="43" t="s">
+      <c r="Z14" s="42" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3992,19 +4025,19 @@
         <f t="shared" ref="Q15" si="32">Q14/Q5</f>
         <v>4.8439763325231394E-2</v>
       </c>
-      <c r="W15" s="44">
+      <c r="W15" s="43">
         <f>Q30/Q74</f>
         <v>0.28086972083035078</v>
       </c>
-      <c r="X15" s="45">
+      <c r="X15" s="44">
         <f>Q30/Q56</f>
         <v>0.1524933809419709</v>
       </c>
-      <c r="Y15" s="45">
+      <c r="Y15" s="44">
         <f>Q24/(Q74+Q58+Q63)</f>
         <v>0.28567244733594127</v>
       </c>
-      <c r="Z15" s="24">
+      <c r="Z15" s="68">
         <f>Q69/Q74</f>
         <v>0.83269953471725122</v>
       </c>
@@ -4114,17 +4147,17 @@
       <c r="Q17" s="1">
         <v>7197000000</v>
       </c>
-      <c r="W17" s="42" t="s">
+      <c r="W17" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="X17" s="43" t="s">
+      <c r="X17" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y17" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="Y17" s="43" t="s">
+      <c r="Z17" s="42" t="s">
         <v>158</v>
-      </c>
-      <c r="Z17" s="43" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4183,17 +4216,17 @@
         <f>(Q37+P37+O37+N37+M37)/5</f>
         <v>6.5503438863175154E-2</v>
       </c>
-      <c r="X18" s="46">
+      <c r="X18" s="66">
         <f>Y102/Q5</f>
-        <v>6.4225086543419021</v>
-      </c>
-      <c r="Y18" s="46">
+        <v>7.177314611475289</v>
+      </c>
+      <c r="Y18" s="66">
         <f>Y102/Q30</f>
-        <v>41.668556865243708</v>
-      </c>
-      <c r="Z18" s="47">
+        <v>46.565658082191781</v>
+      </c>
+      <c r="Z18" s="67">
         <f>Y102/Q108</f>
-        <v>69.195926464753342</v>
+        <v>77.328184483533917</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4301,8 +4334,14 @@
       <c r="Q20" s="1">
         <v>3747000000</v>
       </c>
-      <c r="W20" s="42" t="s">
-        <v>160</v>
+      <c r="W20" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="X20" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y20" s="42" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -4357,9 +4396,32 @@
       <c r="Q21" s="10">
         <v>17626000000</v>
       </c>
-      <c r="W21" s="48">
+      <c r="R21" s="62">
+        <v>18236000000</v>
+      </c>
+      <c r="S21" s="62">
+        <v>25803000000</v>
+      </c>
+      <c r="T21" s="62">
+        <v>32948000000</v>
+      </c>
+      <c r="U21" s="62">
+        <v>37600000000</v>
+      </c>
+      <c r="V21" s="62">
+        <v>40390000000</v>
+      </c>
+      <c r="W21" s="45">
         <f>Q42-Q58-Q63</f>
         <v>19086000000</v>
+      </c>
+      <c r="X21" s="66">
+        <f>Y102/R5</f>
+        <v>5.8615551477723864</v>
+      </c>
+      <c r="Y21" s="69">
+        <f>Y102/R30</f>
+        <v>48.869809669007019</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4427,6 +4489,26 @@
         <f t="shared" ref="Q22" si="44">(Q21/P21)-1</f>
         <v>0.85536842105263156</v>
       </c>
+      <c r="R22" s="18">
+        <f t="shared" ref="R22" si="45">(R21/Q21)-1</f>
+        <v>3.4607965505503158E-2</v>
+      </c>
+      <c r="S22" s="18">
+        <f t="shared" ref="S22" si="46">(S21/R21)-1</f>
+        <v>0.4149484536082475</v>
+      </c>
+      <c r="T22" s="18">
+        <f t="shared" ref="T22" si="47">(T21/S21)-1</f>
+        <v>0.27690578614889749</v>
+      </c>
+      <c r="U22" s="18">
+        <f t="shared" ref="U22" si="48">(U21/T21)-1</f>
+        <v>0.14119218161952163</v>
+      </c>
+      <c r="V22" s="18">
+        <f t="shared" ref="V22" si="49">(V21/U21)-1</f>
+        <v>7.4202127659574568E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -4480,6 +4562,26 @@
       <c r="Q23" s="2">
         <v>0.21640000000000001</v>
       </c>
+      <c r="R23" s="63">
+        <f>R21/R5</f>
+        <v>0.18282070818462526</v>
+      </c>
+      <c r="S23" s="63">
+        <f t="shared" ref="S23:V23" si="50">S21/S5</f>
+        <v>0.20095794392523364</v>
+      </c>
+      <c r="T23" s="63">
+        <f t="shared" si="50"/>
+        <v>0.21026164645820039</v>
+      </c>
+      <c r="U23" s="63">
+        <f t="shared" si="50"/>
+        <v>0.23011015911872704</v>
+      </c>
+      <c r="V23" s="63">
+        <f t="shared" si="50"/>
+        <v>0.20409297625063164</v>
+      </c>
     </row>
     <row r="24" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -4850,6 +4952,21 @@
       </c>
       <c r="Q30" s="11">
         <v>12556000000</v>
+      </c>
+      <c r="R30" s="64">
+        <v>11964000000</v>
+      </c>
+      <c r="S30" s="64">
+        <v>16507000000</v>
+      </c>
+      <c r="T30" s="64">
+        <v>21154000000</v>
+      </c>
+      <c r="U30" s="64">
+        <v>23893000000</v>
+      </c>
+      <c r="V30" s="64">
+        <v>26482000000</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -4870,52 +4987,72 @@
         <v>1.7687118765697885</v>
       </c>
       <c r="F31" s="15">
-        <f t="shared" ref="F31" si="45">(F30/E30)-1</f>
+        <f t="shared" ref="F31" si="51">(F30/E30)-1</f>
         <v>0.64850837177958631</v>
       </c>
       <c r="G31" s="15">
-        <f t="shared" ref="G31" si="46">(G30/F30)-1</f>
+        <f t="shared" ref="G31" si="52">(G30/F30)-1</f>
         <v>0.55737369846429585</v>
       </c>
       <c r="H31" s="15">
-        <f t="shared" ref="H31" si="47">(H30/G30)-1</f>
+        <f t="shared" ref="H31" si="53">(H30/G30)-1</f>
         <v>-0.81319643726985236</v>
       </c>
       <c r="I31" s="15">
-        <f t="shared" ref="I31" si="48">(I30/H30)-1</f>
+        <f t="shared" ref="I31" si="54">(I30/H30)-1</f>
         <v>2.972761909908936</v>
       </c>
       <c r="J31" s="15">
-        <f t="shared" ref="J31" si="49">(J30/I30)-1</f>
+        <f t="shared" ref="J31" si="55">(J30/I30)-1</f>
         <v>2.0222520745476804</v>
       </c>
       <c r="K31" s="15">
-        <f t="shared" ref="K31" si="50">(K30/J30)-1</f>
+        <f t="shared" ref="K31" si="56">(K30/J30)-1</f>
         <v>-0.24052874936843327</v>
       </c>
       <c r="L31" s="15">
-        <f t="shared" ref="L31" si="51">(L30/K30)-1</f>
+        <f t="shared" ref="L31" si="57">(L30/K30)-1</f>
         <v>1.9061480425654231</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" ref="M31" si="52">(M30/L30)-1</f>
+        <f t="shared" ref="M31" si="58">(M30/L30)-1</f>
         <v>-0.50234985214642602</v>
       </c>
       <c r="N31" s="15">
-        <f t="shared" ref="N31" si="53">(N30/M30)-1</f>
+        <f t="shared" ref="N31" si="59">(N30/M30)-1</f>
         <v>-0.11688561824665933</v>
       </c>
       <c r="O31" s="15">
-        <f t="shared" ref="O31" si="54">(O30/N30)-1</f>
+        <f t="shared" ref="O31" si="60">(O30/N30)-1</f>
         <v>-1.8004640371229699</v>
       </c>
       <c r="P31" s="15">
-        <f t="shared" ref="P31" si="55">(P30/O30)-1</f>
+        <f t="shared" ref="P31" si="61">(P30/O30)-1</f>
         <v>6.9985507246376812</v>
       </c>
       <c r="Q31" s="15">
-        <f t="shared" ref="Q31" si="56">(Q30/P30)-1</f>
+        <f t="shared" ref="Q31" si="62">(Q30/P30)-1</f>
         <v>1.2750498278673672</v>
+      </c>
+      <c r="R31" s="18">
+        <f t="shared" ref="R31" si="63">(R30/Q30)-1</f>
+        <v>-4.7148773494743557E-2</v>
+      </c>
+      <c r="S31" s="18">
+        <f t="shared" ref="S31" si="64">(S30/R30)-1</f>
+        <v>0.37972250083584091</v>
+      </c>
+      <c r="T31" s="18">
+        <f t="shared" ref="T31" si="65">(T30/S30)-1</f>
+        <v>0.28151693221057728</v>
+      </c>
+      <c r="U31" s="18">
+        <f t="shared" ref="U31" si="66">(U30/T30)-1</f>
+        <v>0.12947905833412121</v>
+      </c>
+      <c r="V31" s="18">
+        <f t="shared" ref="V31" si="67">(V30/U30)-1</f>
+        <v>0.10835809651362327</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4970,8 +5107,28 @@
       <c r="Q32" s="2">
         <v>0.15409999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R32" s="63">
+        <f>R30/R5</f>
+        <v>0.11994225448129286</v>
+      </c>
+      <c r="S32" s="63">
+        <f t="shared" ref="S32:V32" si="68">S30/S5</f>
+        <v>0.12855919003115265</v>
+      </c>
+      <c r="T32" s="63">
+        <f t="shared" si="68"/>
+        <v>0.13499680918953413</v>
+      </c>
+      <c r="U32" s="63">
+        <f t="shared" si="68"/>
+        <v>0.14622399020807833</v>
+      </c>
+      <c r="V32" s="63">
+        <f t="shared" si="68"/>
+        <v>0.13381505811015665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>24</v>
       </c>
@@ -5023,8 +5180,23 @@
       <c r="Q33" s="12">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R33" s="65">
+        <v>3.77</v>
+      </c>
+      <c r="S33" s="65">
+        <v>5.21</v>
+      </c>
+      <c r="T33" s="65">
+        <v>6.67</v>
+      </c>
+      <c r="U33" s="65">
+        <v>7.54</v>
+      </c>
+      <c r="V33" s="65">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>25</v>
       </c>
@@ -5077,7 +5249,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>26</v>
       </c>
@@ -5130,7 +5302,7 @@
         <v>2958000000</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>27</v>
       </c>
@@ -5183,73 +5355,73 @@
         <v>3387000000</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="25">
+      <c r="C37" s="24">
         <f>(C36-B36)/B36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="25">
-        <f t="shared" ref="D37:G37" si="57">(D36-C36)/C36</f>
+      <c r="D37" s="24">
+        <f t="shared" ref="D37:G37" si="69">(D36-C36)/C36</f>
         <v>-0.4301044964424558</v>
       </c>
-      <c r="E37" s="25">
-        <f t="shared" si="57"/>
+      <c r="E37" s="24">
+        <f t="shared" si="69"/>
         <v>-0.34720316487324726</v>
       </c>
-      <c r="F37" s="25">
-        <f t="shared" si="57"/>
+      <c r="F37" s="24">
+        <f t="shared" si="69"/>
         <v>0.97934100790677103</v>
       </c>
-      <c r="G37" s="25">
-        <f t="shared" si="57"/>
+      <c r="G37" s="24">
+        <f t="shared" si="69"/>
         <v>6.9332275712189653E-2</v>
       </c>
-      <c r="H37" s="25">
-        <f t="shared" ref="H37" si="58">(H36-G36)/G36</f>
+      <c r="H37" s="24">
+        <f t="shared" ref="H37" si="70">(H36-G36)/G36</f>
         <v>0.11245563535757203</v>
       </c>
-      <c r="I37" s="25">
-        <f t="shared" ref="I37" si="59">(I36-H36)/H36</f>
+      <c r="I37" s="24">
+        <f t="shared" ref="I37" si="71">(I36-H36)/H36</f>
         <v>4.3141491027541216E-2</v>
       </c>
-      <c r="J37" s="25">
-        <f t="shared" ref="J37" si="60">(J36-I36)/I36</f>
+      <c r="J37" s="24">
+        <f t="shared" ref="J37" si="72">(J36-I36)/I36</f>
         <v>2.9131513249259472E-2</v>
       </c>
-      <c r="K37" s="25">
-        <f t="shared" ref="K37" si="61">(K36-J36)/J36</f>
+      <c r="K37" s="24">
+        <f t="shared" ref="K37" si="73">(K36-J36)/J36</f>
         <v>0.12488104709754919</v>
       </c>
-      <c r="L37" s="25">
-        <f t="shared" ref="L37" si="62">(L36-K36)/K36</f>
+      <c r="L37" s="24">
+        <f t="shared" ref="L37" si="74">(L36-K36)/K36</f>
         <v>0.14940504257620726</v>
       </c>
-      <c r="M37" s="25">
-        <f t="shared" ref="M37" si="63">(M36-L36)/L36</f>
+      <c r="M37" s="24">
+        <f t="shared" ref="M37" si="75">(M36-L36)/L36</f>
         <v>2.8758792939103994E-2</v>
       </c>
-      <c r="N37" s="25">
-        <f t="shared" ref="N37" si="64">(N36-M36)/M36</f>
+      <c r="N37" s="24">
+        <f t="shared" ref="N37" si="76">(N36-M36)/M36</f>
         <v>3.7970971998240725E-2</v>
       </c>
-      <c r="O37" s="25">
-        <f t="shared" ref="O37" si="65">(O36-N36)/N36</f>
+      <c r="O37" s="24">
+        <f t="shared" ref="O37" si="77">(O36-N36)/N36</f>
         <v>8.4745762711864403E-2</v>
       </c>
-      <c r="P37" s="25">
-        <f t="shared" ref="P37" si="66">(P36-O36)/O36</f>
+      <c r="P37" s="24">
+        <f t="shared" ref="P37" si="78">(P36-O36)/O36</f>
         <v>0.17604166666666668</v>
       </c>
-      <c r="Q37" s="25">
-        <f t="shared" ref="Q37" si="67">(Q36-P36)/P36</f>
+      <c r="Q37" s="24">
+        <f t="shared" ref="Q37" si="79">(Q36-P36)/P36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>28</v>
       </c>
@@ -5302,7 +5474,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>29</v>
       </c>
@@ -5355,7 +5527,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>30</v>
       </c>
@@ -5408,7 +5580,7 @@
         <v>16253000000</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>31</v>
       </c>
@@ -5461,7 +5633,7 @@
         <v>5932000000</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>32</v>
       </c>
@@ -5514,7 +5686,7 @@
         <v>22185000000</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>33</v>
       </c>
@@ -5567,7 +5739,7 @@
         <v>2952000000</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>34</v>
       </c>
@@ -5620,7 +5792,7 @@
         <v>12839000000</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>35</v>
       </c>
@@ -5673,7 +5845,7 @@
         <v>2941000000</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
@@ -5726,7 +5898,7 @@
         <v>40917000000</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>37</v>
       </c>
@@ -5779,7 +5951,7 @@
         <v>36635000000</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>38</v>
       </c>
@@ -7594,59 +7766,59 @@
         <v>2.9643196309862976E-2</v>
       </c>
       <c r="D82" s="15">
-        <f t="shared" ref="D82:Q82" si="68">D81/D5</f>
+        <f t="shared" ref="D82:Q82" si="80">D81/D5</f>
         <v>1.2810090849807491E-2</v>
       </c>
       <c r="E82" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>0.1812170218597958</v>
       </c>
       <c r="F82" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>0.14403991343602196</v>
       </c>
       <c r="G82" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>0.12134125094372496</v>
       </c>
       <c r="H82" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>4.0097919240961989E-2</v>
       </c>
       <c r="I82" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>4.8930137858324715E-2</v>
       </c>
       <c r="J82" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>4.8936672413047375E-2</v>
       </c>
       <c r="K82" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>4.7745528227182005E-2</v>
       </c>
       <c r="L82" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>3.9694692063808476E-2</v>
       </c>
       <c r="M82" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>3.4901199686803219E-2</v>
       </c>
       <c r="N82" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>3.6536740174139472E-2</v>
       </c>
       <c r="O82" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>5.498477929984779E-2</v>
       </c>
       <c r="P82" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>3.9406944986344131E-2</v>
       </c>
       <c r="Q82" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>1.9150033144288134E-2</v>
       </c>
     </row>
@@ -7755,10 +7927,10 @@
       <c r="Q84" s="1">
         <v>-1124000000</v>
       </c>
-      <c r="X84" s="68" t="s">
+      <c r="X84" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="Y84" s="69"/>
+      <c r="Y84" s="77"/>
     </row>
     <row r="85" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7812,10 +7984,10 @@
       <c r="Q85" s="1">
         <v>-6465000000</v>
       </c>
-      <c r="X85" s="66" t="s">
+      <c r="X85" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="Y85" s="67"/>
+      <c r="Y85" s="75"/>
     </row>
     <row r="86" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -7869,10 +8041,10 @@
       <c r="Q86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X86" s="50" t="s">
+      <c r="X86" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="Y86" s="51">
+      <c r="Y86" s="48">
         <f>Q19</f>
         <v>191000000</v>
       </c>
@@ -7929,10 +8101,10 @@
       <c r="Q87" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X87" s="50" t="s">
+      <c r="X87" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="Y87" s="51">
+      <c r="Y87" s="48">
         <f>Q58</f>
         <v>1502000000</v>
       </c>
@@ -7989,10 +8161,10 @@
       <c r="Q88" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X88" s="50" t="s">
+      <c r="X88" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="Y88" s="51">
+      <c r="Y88" s="48">
         <f>Q63</f>
         <v>1597000000</v>
       </c>
@@ -8049,10 +8221,10 @@
       <c r="Q89" s="10">
         <v>14724000000</v>
       </c>
-      <c r="X89" s="52" t="s">
+      <c r="X89" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="Y89" s="53">
+      <c r="Y89" s="50">
         <f>Y86/(Y87+Y88)</f>
         <v>6.1632784769280413E-2</v>
       </c>
@@ -8109,10 +8281,10 @@
       <c r="Q90" s="1">
         <v>-7163000000</v>
       </c>
-      <c r="X90" s="50" t="s">
+      <c r="X90" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="Y90" s="51">
+      <c r="Y90" s="48">
         <f>Q29</f>
         <v>1132000000</v>
       </c>
@@ -8126,69 +8298,69 @@
         <v>134.27397260273972</v>
       </c>
       <c r="C91" s="15">
-        <f t="shared" ref="C91:Q91" si="69">(-1*C90)/C5</f>
+        <f t="shared" ref="C91:Q91" si="81">(-1*C90)/C5</f>
         <v>0.65323565323565325</v>
       </c>
       <c r="D91" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>0.10616117131039904</v>
       </c>
       <c r="E91" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>0.34436887548824779</v>
       </c>
       <c r="F91" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>0.96892901557955757</v>
       </c>
       <c r="G91" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>0.57888572700698837</v>
       </c>
       <c r="H91" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>0.13122648368807288</v>
       </c>
       <c r="I91" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>0.303244854544022</v>
       </c>
       <c r="J91" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>0.4040632472612008</v>
       </c>
       <c r="K91" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>0.2057776910492545</v>
       </c>
       <c r="L91" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>0.34709077520223025</v>
       </c>
       <c r="M91" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>0.10807916848156408</v>
       </c>
       <c r="N91" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>5.8263487671901704E-2</v>
       </c>
       <c r="O91" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>0.10248604769152714</v>
       </c>
       <c r="P91" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>0.12102632703491073</v>
       </c>
       <c r="Q91" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>8.7930568854189678E-2</v>
       </c>
-      <c r="X91" s="50" t="s">
+      <c r="X91" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Y91" s="51">
+      <c r="Y91" s="48">
         <f>Q27</f>
         <v>13719000000</v>
       </c>
@@ -8245,10 +8417,10 @@
       <c r="Q92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X92" s="52" t="s">
+      <c r="X92" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="Y92" s="53">
+      <c r="Y92" s="50">
         <f>Y90/Y91</f>
         <v>8.2513302718857054E-2</v>
       </c>
@@ -8305,10 +8477,10 @@
       <c r="Q93" s="1">
         <v>-5835000000</v>
       </c>
-      <c r="X93" s="54" t="s">
+      <c r="X93" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="Y93" s="55">
+      <c r="Y93" s="52">
         <f>Y89*(1-Y92)</f>
         <v>5.6547260142206617E-2</v>
       </c>
@@ -8365,10 +8537,10 @@
       <c r="Q94" s="1">
         <v>22000000</v>
       </c>
-      <c r="X94" s="66" t="s">
+      <c r="X94" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="Y94" s="67"/>
+      <c r="Y94" s="75"/>
     </row>
     <row r="95" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -8422,10 +8594,10 @@
       <c r="Q95" s="1">
         <v>1003000000</v>
       </c>
-      <c r="X95" s="50" t="s">
+      <c r="X95" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="Y95" s="56">
+      <c r="Y95" s="53">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -8481,12 +8653,12 @@
       <c r="Q96" s="10">
         <v>-11973000000</v>
       </c>
-      <c r="X96" s="50" t="s">
+      <c r="X96" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="Y96" s="57" cm="1">
+      <c r="Y96" s="54" cm="1">
         <f t="array" ref="Y96">_FV(A1,"Beta")</f>
-        <v>2.0164</v>
+        <v>1.9987999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8541,10 +8713,10 @@
       <c r="Q97" s="1">
         <v>-3866000000</v>
       </c>
-      <c r="X97" s="50" t="s">
+      <c r="X97" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="Y97" s="56">
+      <c r="Y97" s="53">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -8600,12 +8772,12 @@
       <c r="Q98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X98" s="54" t="s">
+      <c r="X98" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="Y98" s="55">
+      <c r="Y98" s="52">
         <f>(Y95)+((Y96)*(Y97-Y95))</f>
-        <v>0.12775602000000003</v>
+        <v>0.12699833999999999</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -8660,10 +8832,10 @@
       <c r="Q99" s="20">
         <v>0</v>
       </c>
-      <c r="X99" s="66" t="s">
+      <c r="X99" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="Y99" s="67"/>
+      <c r="Y99" s="75"/>
     </row>
     <row r="100" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -8717,10 +8889,10 @@
       <c r="Q100" s="20">
         <v>0</v>
       </c>
-      <c r="X100" s="50" t="s">
+      <c r="X100" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="Y100" s="51">
+      <c r="Y100" s="48">
         <f>Y87+Y88</f>
         <v>3099000000</v>
       </c>
@@ -8777,12 +8949,12 @@
       <c r="Q101" s="1">
         <v>339000000</v>
       </c>
-      <c r="X101" s="52" t="s">
+      <c r="X101" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="Y101" s="53">
+      <c r="Y101" s="50">
         <f>Y100/Y104</f>
-        <v>5.8883952441375412E-3</v>
+        <v>5.2724041190006215E-3</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8837,12 +9009,12 @@
       <c r="Q102" s="10">
         <v>-3527000000</v>
       </c>
-      <c r="X102" s="50" t="s">
+      <c r="X102" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="Y102" s="37" cm="1">
+      <c r="Y102" s="36" cm="1">
         <f t="array" ref="Y102">+_FV(A1,"Market cap",TRUE)</f>
-        <v>523190400000</v>
+        <v>584678402880</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8897,12 +9069,12 @@
       <c r="Q103" s="1">
         <v>-444000000</v>
       </c>
-      <c r="X103" s="52" t="s">
+      <c r="X103" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="Y103" s="53">
+      <c r="Y103" s="50">
         <f>Y102/Y104</f>
-        <v>0.99411160475586247</v>
+        <v>0.99472759588099935</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8957,12 +9129,12 @@
       <c r="Q104" s="10">
         <v>-1220000000</v>
       </c>
-      <c r="X104" s="54" t="s">
+      <c r="X104" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="Y104" s="58">
+      <c r="Y104" s="55">
         <f>Y100+Y102</f>
-        <v>526289400000</v>
+        <v>587777402880</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9017,10 +9189,10 @@
       <c r="Q105" s="1">
         <v>18144000000</v>
       </c>
-      <c r="X105" s="66" t="s">
+      <c r="X105" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="Y105" s="67"/>
+      <c r="Y105" s="75"/>
     </row>
     <row r="106" spans="1:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
@@ -9079,7 +9251,7 @@
       </c>
       <c r="Y106" s="21">
         <f>(Y101*Y93)+(Y103*Y98)</f>
-        <v>0.12733671467711247</v>
+        <v>0.12662689343636971</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -9088,75 +9260,85 @@
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="15">
-        <f t="shared" ref="C107:Q107" si="70">(C108/B108)-1</f>
+        <f t="shared" ref="C107:Q107" si="82">(C108/B108)-1</f>
         <v>-1.9424380837982591E-2</v>
       </c>
       <c r="D107" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>0.49429418780825896</v>
       </c>
       <c r="E107" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>0.81233752925821667</v>
       </c>
       <c r="F107" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>0.85846922985358876</v>
       </c>
       <c r="G107" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>0.61823160187023629</v>
       </c>
       <c r="H107" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>-0.98767091027470322</v>
       </c>
       <c r="I107" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>163.88314606741574</v>
       </c>
       <c r="J107" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>1.1021249544889029</v>
       </c>
       <c r="K107" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>-0.27556870149290369</v>
       </c>
       <c r="L107" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>1.6478348142939332</v>
       </c>
       <c r="M107" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>-0.94647185616251828</v>
       </c>
       <c r="N107" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>-5.3659850077126388</v>
       </c>
       <c r="O107" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>1.790289256198347</v>
       </c>
       <c r="P107" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>0.28952239911144018</v>
       </c>
       <c r="Q107" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>1.1708297444731555</v>
       </c>
-      <c r="R107" s="15"/>
-      <c r="S107" s="15"/>
-      <c r="T107" s="15"/>
-      <c r="U107" s="15"/>
-      <c r="V107" s="15"/>
+      <c r="R107" s="78">
+        <v>10176000000</v>
+      </c>
+      <c r="S107" s="78">
+        <v>16939000000</v>
+      </c>
+      <c r="T107" s="78">
+        <v>22882000000</v>
+      </c>
+      <c r="U107" s="78">
+        <v>25693000000</v>
+      </c>
+      <c r="V107" s="78">
+        <v>28392000000</v>
+      </c>
       <c r="W107" s="15"/>
-      <c r="X107" s="62" t="s">
+      <c r="X107" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="Y107" s="63"/>
+      <c r="Y107" s="71"/>
     </row>
     <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
@@ -9210,171 +9392,171 @@
       <c r="Q108" s="1">
         <v>7561000000</v>
       </c>
-      <c r="R108" s="26">
+      <c r="R108" s="25">
         <f>Q108*(1+$Y$108)</f>
-        <v>9160758758.0140381</v>
-      </c>
-      <c r="S108" s="26">
-        <f t="shared" ref="S108:V108" si="71">R108*(1+$Y$108)</f>
-        <v>11098994977.189644</v>
-      </c>
-      <c r="T108" s="26">
-        <f t="shared" si="71"/>
-        <v>13447323825.214106</v>
-      </c>
-      <c r="U108" s="26">
-        <f t="shared" si="71"/>
-        <v>16292512829.477709</v>
-      </c>
-      <c r="V108" s="26">
-        <f t="shared" si="71"/>
-        <v>19739687818.105278</v>
-      </c>
-      <c r="W108" s="27" t="s">
+        <v>9052054560.1663418</v>
+      </c>
+      <c r="S108" s="25">
+        <f t="shared" ref="S108:V108" si="83">R108*(1+$Y$108)</f>
+        <v>10837150080.707348</v>
+      </c>
+      <c r="T108" s="25">
+        <f t="shared" si="83"/>
+        <v>12974272425.244543</v>
+      </c>
+      <c r="U108" s="25">
+        <f t="shared" si="83"/>
+        <v>15532842464.19459</v>
+      </c>
+      <c r="V108" s="25">
+        <f t="shared" si="83"/>
+        <v>18595971096.463169</v>
+      </c>
+      <c r="W108" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="X108" s="28" t="s">
+      <c r="X108" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="Y108" s="29">
+      <c r="Y108" s="28">
         <f>(SUM(R6:V6)/5)</f>
-        <v>0.21158031451051951</v>
+        <v>0.1972033540756965</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R109" s="27"/>
-      <c r="S109" s="27"/>
-      <c r="T109" s="27"/>
-      <c r="U109" s="27"/>
-      <c r="V109" s="30">
-        <f>V108*(1+Y109)/(Y110-Y109)</f>
-        <v>197711838584.97504</v>
-      </c>
-      <c r="W109" s="31" t="s">
+      <c r="R109" s="26"/>
+      <c r="S109" s="26"/>
+      <c r="T109" s="26"/>
+      <c r="U109" s="26"/>
+      <c r="V109" s="79">
+        <f>V107*(1+Y109)/(Y110-Y109)</f>
+        <v>286359240314.87903</v>
+      </c>
+      <c r="W109" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="X109" s="32" t="s">
+      <c r="X109" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="Y109" s="33">
+      <c r="Y109" s="32">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R110" s="30">
-        <f t="shared" ref="R110:T110" si="72">R109+R108</f>
-        <v>9160758758.0140381</v>
-      </c>
-      <c r="S110" s="30">
-        <f t="shared" si="72"/>
-        <v>11098994977.189644</v>
-      </c>
-      <c r="T110" s="30">
-        <f t="shared" si="72"/>
-        <v>13447323825.214106</v>
-      </c>
-      <c r="U110" s="30">
+      <c r="R110" s="29">
+        <f t="shared" ref="R110:T110" si="84">R109+R108</f>
+        <v>9052054560.1663418</v>
+      </c>
+      <c r="S110" s="29">
+        <f t="shared" si="84"/>
+        <v>10837150080.707348</v>
+      </c>
+      <c r="T110" s="29">
+        <f t="shared" si="84"/>
+        <v>12974272425.244543</v>
+      </c>
+      <c r="U110" s="29">
         <f>U109+U108</f>
-        <v>16292512829.477709</v>
-      </c>
-      <c r="V110" s="30">
-        <f>V109+V108</f>
-        <v>217451526403.08032</v>
-      </c>
-      <c r="W110" s="31" t="s">
+        <v>15532842464.19459</v>
+      </c>
+      <c r="V110" s="79">
+        <f>V109+V107</f>
+        <v>314751240314.87903</v>
+      </c>
+      <c r="W110" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="X110" s="34" t="s">
+      <c r="X110" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="Y110" s="35">
+      <c r="Y110" s="34">
         <f>Y106</f>
-        <v>0.12733671467711247</v>
+        <v>0.12662689343636971</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R111" s="64" t="s">
+      <c r="R111" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="S111" s="65"/>
+      <c r="S111" s="73"/>
     </row>
     <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R112" s="36" t="s">
+      <c r="R112" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="S112" s="37">
+      <c r="S112" s="36">
         <f>NPV(Y110,R110,S110,T110,U110,V110)</f>
-        <v>155757134062.43439</v>
+        <v>208693742545.63837</v>
       </c>
     </row>
     <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R113" s="36" t="s">
+      <c r="R113" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="S113" s="37">
+      <c r="S113" s="36">
         <f>Q42</f>
         <v>22185000000</v>
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R114" s="36" t="s">
+      <c r="R114" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="S114" s="37">
+      <c r="S114" s="36">
         <f>Y100</f>
         <v>3099000000</v>
       </c>
     </row>
     <row r="115" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R115" s="36" t="s">
+      <c r="R115" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="S115" s="37">
+      <c r="S115" s="36">
         <f>S112+S113-S114</f>
-        <v>174843134062.43439</v>
-      </c>
-    </row>
-    <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R116" s="36" t="s">
+        <v>227779742545.63837</v>
+      </c>
+    </row>
+    <row r="116" spans="18:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R116" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="S116" s="46" cm="1">
+        <f t="array" ref="S116">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>3169504000</v>
+      </c>
+    </row>
+    <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R117" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="S116" s="49">
-        <f>Q36*(1+(5*W18))</f>
-        <v>4496300737.147871</v>
-      </c>
-    </row>
-    <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R117" s="38" t="s">
+      <c r="S117" s="57">
+        <f>S115/S116</f>
+        <v>71.866053030896438</v>
+      </c>
+    </row>
+    <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R118" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="S117" s="60">
-        <f>S115/S116</f>
-        <v>38.885996352046121</v>
-      </c>
-    </row>
-    <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R118" s="36" t="s">
+      <c r="S118" s="56" cm="1">
+        <f t="array" ref="S118">_FV(A1,"Price",TRUE)</f>
+        <v>184.47</v>
+      </c>
+    </row>
+    <row r="119" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R119" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="S118" s="59" cm="1">
-        <f t="array" ref="S118">_FV(A1,"Price",TRUE)</f>
-        <v>165.08</v>
-      </c>
-    </row>
-    <row r="119" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R119" s="39" t="s">
+      <c r="S119" s="39">
+        <f>S117/S118-1</f>
+        <v>-0.61041875084893782</v>
+      </c>
+    </row>
+    <row r="120" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R120" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="S119" s="40">
-        <f>S117/S118-1</f>
-        <v>-0.76444150501547059</v>
-      </c>
-    </row>
-    <row r="120" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R120" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="S120" s="41" t="str">
+      <c r="S120" s="40" t="str">
         <f>IF(S117&gt;S118,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/Tesla.xlsx
+++ b/Technology/Hardware/Tesla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456AB585-E42D-D843-B30F-68AB98C36C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41AA001-A484-3C4B-81A6-019CA8D2BA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="165">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -562,6 +562,9 @@
   </si>
   <si>
     <t>Shares (No dilution)</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
   </si>
 </sst>
 </file>
@@ -1052,6 +1055,8 @@
     <xf numFmtId="169" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1076,8 +1081,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2366,11 +2369,11 @@
     <v>Powered by Refinitiv</v>
     <v>314.66640000000001</v>
     <v>101.81</v>
-    <v>1.9987999999999999</v>
-    <v>1.57</v>
-    <v>8.5840000000000014E-3</v>
-    <v>0.03</v>
-    <v>1.6259999999999999E-4</v>
+    <v>2.0110000000000001</v>
+    <v>7.99</v>
+    <v>4.1363000000000004E-2</v>
+    <v>0.43</v>
+    <v>2.1379999999999997E-3</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
     <v>127855</v>
@@ -2378,25 +2381,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>186.78</v>
+    <v>204.48</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45071.999967430471</v>
+    <v>45076.999970705467</v>
     <v>0</v>
-    <v>180.58</v>
-    <v>584678402880</v>
+    <v>197.53</v>
+    <v>637577424640</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>186.54</v>
-    <v>54.3108</v>
-    <v>182.9</v>
-    <v>184.47</v>
-    <v>184.5</v>
+    <v>200.1</v>
+    <v>56.872199999999999</v>
+    <v>193.17</v>
+    <v>201.16</v>
+    <v>201.59</v>
     <v>3169504000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>96870719</v>
-    <v>125742180</v>
+    <v>128818746</v>
+    <v>122719078</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -2561,9 +2564,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2984,10 +2987,10 @@
   <dimension ref="A1:Z120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R96" sqref="R96"/>
+      <selection pane="bottomRight" activeCell="O117" sqref="O117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4218,15 +4221,15 @@
       </c>
       <c r="X18" s="66">
         <f>Y102/Q5</f>
-        <v>7.177314611475289</v>
+        <v>7.8266851371191475</v>
       </c>
       <c r="Y18" s="66">
         <f>Y102/Q30</f>
-        <v>46.565658082191781</v>
+        <v>50.778705371137306</v>
       </c>
       <c r="Z18" s="67">
         <f>Y102/Q108</f>
-        <v>77.328184483533917</v>
+        <v>84.32448414759952</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4343,6 +4346,9 @@
       <c r="Y20" s="42" t="s">
         <v>162</v>
       </c>
+      <c r="Z20" s="42" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="21" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -4417,11 +4423,15 @@
       </c>
       <c r="X21" s="66">
         <f>Y102/R5</f>
-        <v>5.8615551477723864</v>
+        <v>6.391881788507038</v>
       </c>
       <c r="Y21" s="69">
         <f>Y102/R30</f>
-        <v>48.869809669007019</v>
+        <v>53.291326031427616</v>
+      </c>
+      <c r="Z21" s="67">
+        <f>Y102/R107</f>
+        <v>62.655014213836481</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -7927,10 +7937,10 @@
       <c r="Q84" s="1">
         <v>-1124000000</v>
       </c>
-      <c r="X84" s="76" t="s">
+      <c r="X84" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="Y84" s="77"/>
+      <c r="Y84" s="79"/>
     </row>
     <row r="85" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7984,10 +7994,10 @@
       <c r="Q85" s="1">
         <v>-6465000000</v>
       </c>
-      <c r="X85" s="74" t="s">
+      <c r="X85" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="Y85" s="75"/>
+      <c r="Y85" s="77"/>
     </row>
     <row r="86" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -8537,10 +8547,10 @@
       <c r="Q94" s="1">
         <v>22000000</v>
       </c>
-      <c r="X94" s="74" t="s">
+      <c r="X94" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="Y94" s="75"/>
+      <c r="Y94" s="77"/>
     </row>
     <row r="95" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -8658,7 +8668,7 @@
       </c>
       <c r="Y96" s="54" cm="1">
         <f t="array" ref="Y96">_FV(A1,"Beta")</f>
-        <v>1.9987999999999999</v>
+        <v>2.0110000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8777,7 +8787,7 @@
       </c>
       <c r="Y98" s="52">
         <f>(Y95)+((Y96)*(Y97-Y95))</f>
-        <v>0.12699833999999999</v>
+        <v>0.12752355000000001</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -8832,10 +8842,10 @@
       <c r="Q99" s="20">
         <v>0</v>
       </c>
-      <c r="X99" s="74" t="s">
+      <c r="X99" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="Y99" s="75"/>
+      <c r="Y99" s="77"/>
     </row>
     <row r="100" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -8954,7 +8964,7 @@
       </c>
       <c r="Y101" s="50">
         <f>Y100/Y104</f>
-        <v>5.2724041190006215E-3</v>
+        <v>4.8370751299945947E-3</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9014,7 +9024,7 @@
       </c>
       <c r="Y102" s="36" cm="1">
         <f t="array" ref="Y102">+_FV(A1,"Market cap",TRUE)</f>
-        <v>584678402880</v>
+        <v>637577424640</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9074,7 +9084,7 @@
       </c>
       <c r="Y103" s="50">
         <f>Y102/Y104</f>
-        <v>0.99472759588099935</v>
+        <v>0.99516292487000546</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9134,7 +9144,7 @@
       </c>
       <c r="Y104" s="55">
         <f>Y100+Y102</f>
-        <v>587777402880</v>
+        <v>640676424640</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9189,10 +9199,10 @@
       <c r="Q105" s="1">
         <v>18144000000</v>
       </c>
-      <c r="X105" s="74" t="s">
+      <c r="X105" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="Y105" s="75"/>
+      <c r="Y105" s="77"/>
     </row>
     <row r="106" spans="1:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
@@ -9251,7 +9261,7 @@
       </c>
       <c r="Y106" s="21">
         <f>(Y101*Y93)+(Y103*Y98)</f>
-        <v>0.12662689343636971</v>
+        <v>0.12718023235350961</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -9319,26 +9329,26 @@
         <f t="shared" si="82"/>
         <v>1.1708297444731555</v>
       </c>
-      <c r="R107" s="78">
+      <c r="R107" s="70">
         <v>10176000000</v>
       </c>
-      <c r="S107" s="78">
+      <c r="S107" s="70">
         <v>16939000000</v>
       </c>
-      <c r="T107" s="78">
+      <c r="T107" s="70">
         <v>22882000000</v>
       </c>
-      <c r="U107" s="78">
+      <c r="U107" s="70">
         <v>25693000000</v>
       </c>
-      <c r="V107" s="78">
+      <c r="V107" s="70">
         <v>28392000000</v>
       </c>
       <c r="W107" s="15"/>
-      <c r="X107" s="70" t="s">
+      <c r="X107" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="Y107" s="71"/>
+      <c r="Y107" s="73"/>
     </row>
     <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
@@ -9428,9 +9438,9 @@
       <c r="S109" s="26"/>
       <c r="T109" s="26"/>
       <c r="U109" s="26"/>
-      <c r="V109" s="79">
+      <c r="V109" s="71">
         <f>V107*(1+Y109)/(Y110-Y109)</f>
-        <v>286359240314.87903</v>
+        <v>284808512661.40643</v>
       </c>
       <c r="W109" s="30" t="s">
         <v>144</v>
@@ -9459,9 +9469,9 @@
         <f>U109+U108</f>
         <v>15532842464.19459</v>
       </c>
-      <c r="V110" s="79">
+      <c r="V110" s="71">
         <f>V109+V107</f>
-        <v>314751240314.87903</v>
+        <v>313200512661.40643</v>
       </c>
       <c r="W110" s="30" t="s">
         <v>134</v>
@@ -9471,14 +9481,14 @@
       </c>
       <c r="Y110" s="34">
         <f>Y106</f>
-        <v>0.12662689343636971</v>
+        <v>0.12718023235350961</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R111" s="72" t="s">
+      <c r="R111" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="S111" s="73"/>
+      <c r="S111" s="75"/>
     </row>
     <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="R112" s="35" t="s">
@@ -9486,7 +9496,7 @@
       </c>
       <c r="S112" s="36">
         <f>NPV(Y110,R110,S110,T110,U110,V110)</f>
-        <v>208693742545.63837</v>
+        <v>207371676709.81702</v>
       </c>
     </row>
     <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9513,7 +9523,7 @@
       </c>
       <c r="S115" s="36">
         <f>S112+S113-S114</f>
-        <v>227779742545.63837</v>
+        <v>226457676709.81702</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -9531,7 +9541,7 @@
       </c>
       <c r="S117" s="57">
         <f>S115/S116</f>
-        <v>71.866053030896438</v>
+        <v>71.448932296604454</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9540,7 +9550,7 @@
       </c>
       <c r="S118" s="56" cm="1">
         <f t="array" ref="S118">_FV(A1,"Price",TRUE)</f>
-        <v>184.47</v>
+        <v>201.16</v>
       </c>
     </row>
     <row r="119" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9549,7 +9559,7 @@
       </c>
       <c r="S119" s="39">
         <f>S117/S118-1</f>
-        <v>-0.61041875084893782</v>
+        <v>-0.64481540914394286</v>
       </c>
     </row>
     <row r="120" spans="18:19" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Tesla.xlsx
+++ b/Technology/Hardware/Tesla.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41AA001-A484-3C4B-81A6-019CA8D2BA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAC8DD3-0F22-3F4C-A989-AC123ED834A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -498,9 +498,6 @@
     <t>Assumptions</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -561,10 +558,22 @@
     <t>Forward P/E</t>
   </si>
   <si>
-    <t>Shares (No dilution)</t>
-  </si>
-  <si>
     <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
   </si>
 </sst>
 </file>
@@ -918,7 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -966,7 +975,6 @@
     <xf numFmtId="10" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1057,6 +1065,10 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1404,11 +1416,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$108</c:f>
+              <c:f>'Sheet 1'!$A$109</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1448,7 +1460,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$108:$Q$108</c:f>
+              <c:f>'Sheet 1'!$B$109:$Q$109</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1697,7 +1709,566 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Yearly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vehicle Deliveries</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$G$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$G$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>245200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>367500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>499550</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>936172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1313851</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1691500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C6B-CF4B-9857-3E6CEC2C30BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1669591360"/>
+        <c:axId val="1669610000"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet 1'!$G$1:$R$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2023</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet 1'!$G$2:$R$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-9C6B-CF4B-9857-3E6CEC2C30BB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1669591360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1669610000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1669610000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1669591360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2206,6 +2777,475 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2244,7 +3284,103 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>65088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>269875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912910ED-C7C6-09CA-D57D-FC2AF7203344}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7229999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2369,11 +3505,9 @@
     <v>Powered by Refinitiv</v>
     <v>314.66640000000001</v>
     <v>101.81</v>
-    <v>2.0110000000000001</v>
-    <v>7.99</v>
-    <v>4.1363000000000004E-2</v>
-    <v>0.43</v>
-    <v>2.1379999999999997E-3</v>
+    <v>2.0434000000000001</v>
+    <v>5.15</v>
+    <v>1.9849000000000002E-2</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
     <v>127855</v>
@@ -2381,25 +3515,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>204.48</v>
+    <v>265</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45076.999970705467</v>
+    <v>45099.999991168748</v>
     <v>0</v>
-    <v>197.53</v>
-    <v>637577424640</v>
+    <v>248.25</v>
+    <v>838682453440</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>200.1</v>
-    <v>56.872199999999999</v>
-    <v>193.17</v>
-    <v>201.16</v>
-    <v>201.59</v>
+    <v>250.77</v>
+    <v>77.905199999999994</v>
+    <v>259.45999999999998</v>
+    <v>264.61</v>
     <v>3169504000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>128818746</v>
-    <v>122719078</v>
+    <v>1152064</v>
+    <v>151384884</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -2431,8 +3564,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2453,7 +3584,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2470,7 +3600,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2481,16 +3611,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2556,19 +3683,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2613,9 +3734,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2623,9 +3741,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2987,10 +4102,10 @@
   <dimension ref="A1:Z120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O117" sqref="O117"/>
+      <selection pane="bottomRight" activeCell="S99" sqref="S99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3074,61 +4189,61 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -3139,7 +4254,7 @@
     </row>
     <row r="3" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3179,7 +4294,7 @@
       <c r="Q3" s="20">
         <v>1313851</v>
       </c>
-      <c r="R3" s="58">
+      <c r="R3" s="57">
         <f>422875*4</f>
         <v>1691500</v>
       </c>
@@ -3194,7 +4309,7 @@
     </row>
     <row r="4" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15" t="e">
@@ -3265,10 +4380,10 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
     </row>
     <row r="5" spans="1:26" ht="40" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -3337,22 +4452,22 @@
       <c r="V5" s="17">
         <v>197900000000</v>
       </c>
-      <c r="W5" s="59" t="s">
+      <c r="W5" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="X5" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y5" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z5" s="59" t="s">
         <v>100</v>
-      </c>
-      <c r="X5" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y5" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z5" s="60" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="15">
@@ -3435,20 +4550,20 @@
         <f t="shared" ref="V6" si="17">(V5/U5)-1</f>
         <v>0.21113831089351276</v>
       </c>
-      <c r="W6" s="43">
+      <c r="W6" s="42">
         <f>(Q6+P6+O6)/3</f>
         <v>0.50111045549806821</v>
       </c>
-      <c r="X6" s="43">
+      <c r="X6" s="42">
         <f>(Q22+P22+O22)/3</f>
         <v>1.0471441765542473</v>
       </c>
-      <c r="Y6" s="43">
+      <c r="Y6" s="42">
         <f>(Q31+P31+O31)/3</f>
         <v>2.1577121717940262</v>
       </c>
-      <c r="Z6" s="43">
-        <f>(Q107+P107+O107)/3</f>
+      <c r="Z6" s="42">
+        <f>(Q108+P108+O108)/3</f>
         <v>1.083547133260981</v>
       </c>
     </row>
@@ -3557,17 +4672,17 @@
       <c r="Q8" s="10">
         <v>20853000000</v>
       </c>
-      <c r="W8" s="41" t="s">
+      <c r="W8" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="X8" s="42" t="s">
+      <c r="Y8" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="Y8" s="42" t="s">
+      <c r="Z8" s="41" t="s">
         <v>104</v>
-      </c>
-      <c r="Z8" s="42" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -3622,20 +4737,20 @@
       <c r="Q9" s="2">
         <v>0.25600000000000001</v>
       </c>
-      <c r="W9" s="43">
+      <c r="W9" s="42">
         <f>Q9</f>
         <v>0.25600000000000001</v>
       </c>
-      <c r="X9" s="44">
+      <c r="X9" s="43">
         <f>Q23</f>
         <v>0.21640000000000001</v>
       </c>
-      <c r="Y9" s="44">
+      <c r="Y9" s="43">
         <f>Q32</f>
         <v>0.15409999999999999</v>
       </c>
-      <c r="Z9" s="44">
-        <f>Q108/Q5</f>
+      <c r="Z9" s="43">
+        <f>Q109/Q5</f>
         <v>9.281628243843755E-2</v>
       </c>
     </row>
@@ -3694,7 +4809,7 @@
     </row>
     <row r="11" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="15">
         <f>B10/B5</f>
@@ -3760,17 +4875,17 @@
         <f t="shared" si="18"/>
         <v>3.7747661486337188E-2</v>
       </c>
-      <c r="W11" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="X11" s="42" t="s">
+      <c r="W11" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="Y11" s="42" t="s">
+      <c r="X11" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y11" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z11" s="41" t="s">
         <v>110</v>
-      </c>
-      <c r="Z11" s="42" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -3778,66 +4893,66 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W12" s="43">
+        <v>91</v>
+      </c>
+      <c r="W12" s="42">
         <f>Q11</f>
         <v>3.7747661486337188E-2</v>
       </c>
-      <c r="X12" s="44">
+      <c r="X12" s="43">
         <f>Q15</f>
         <v>4.8439763325231394E-2</v>
       </c>
-      <c r="Y12" s="44">
+      <c r="Y12" s="43">
         <f>Q82</f>
         <v>1.9150033144288134E-2</v>
       </c>
-      <c r="Z12" s="44">
+      <c r="Z12" s="43">
         <f>Q91</f>
         <v>8.7930568854189678E-2</v>
       </c>
@@ -3847,52 +4962,52 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -3947,22 +5062,22 @@
       <c r="Q14" s="1">
         <v>3946000000</v>
       </c>
-      <c r="W14" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="X14" s="42" t="s">
+      <c r="W14" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="Y14" s="42" t="s">
+      <c r="X14" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="Z14" s="42" t="s">
+      <c r="Y14" s="41" t="s">
         <v>114</v>
+      </c>
+      <c r="Z14" s="41" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="15">
         <f>B14/B5</f>
@@ -4028,19 +5143,19 @@
         <f t="shared" ref="Q15" si="32">Q14/Q5</f>
         <v>4.8439763325231394E-2</v>
       </c>
-      <c r="W15" s="43">
+      <c r="W15" s="42">
         <f>Q30/Q74</f>
         <v>0.28086972083035078</v>
       </c>
-      <c r="X15" s="44">
+      <c r="X15" s="43">
         <f>Q30/Q56</f>
         <v>0.1524933809419709</v>
       </c>
-      <c r="Y15" s="44">
+      <c r="Y15" s="43">
         <f>Q24/(Q74+Q58+Q63)</f>
         <v>0.28567244733594127</v>
       </c>
-      <c r="Z15" s="68">
+      <c r="Z15" s="67">
         <f>Q69/Q74</f>
         <v>0.83269953471725122</v>
       </c>
@@ -4050,49 +5165,49 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="1">
         <v>176000000</v>
@@ -4150,17 +5265,17 @@
       <c r="Q17" s="1">
         <v>7197000000</v>
       </c>
-      <c r="W17" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="X17" s="42" t="s">
+      <c r="W17" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="X17" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y17" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z17" s="41" t="s">
         <v>156</v>
-      </c>
-      <c r="Y17" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z17" s="42" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4219,17 +5334,17 @@
         <f>(Q37+P37+O37+N37+M37)/5</f>
         <v>6.5503438863175154E-2</v>
       </c>
-      <c r="X18" s="66">
+      <c r="X18" s="65">
         <f>Y102/Q5</f>
-        <v>7.8266851371191475</v>
-      </c>
-      <c r="Y18" s="66">
+        <v>10.295382551864673</v>
+      </c>
+      <c r="Y18" s="65">
         <f>Y102/Q30</f>
-        <v>50.778705371137306</v>
-      </c>
-      <c r="Z18" s="67">
-        <f>Y102/Q108</f>
-        <v>84.32448414759952</v>
+        <v>66.795353093341831</v>
+      </c>
+      <c r="Z18" s="66">
+        <f>Y102/Q109</f>
+        <v>110.92216022219283</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4337,17 +5452,17 @@
       <c r="Q20" s="1">
         <v>3747000000</v>
       </c>
-      <c r="W20" s="41" t="s">
+      <c r="W20" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="X20" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="X20" s="42" t="s">
+      <c r="Y20" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z20" s="41" t="s">
         <v>161</v>
-      </c>
-      <c r="Y20" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z20" s="42" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -4402,41 +5517,41 @@
       <c r="Q21" s="10">
         <v>17626000000</v>
       </c>
-      <c r="R21" s="62">
+      <c r="R21" s="61">
         <v>18236000000</v>
       </c>
-      <c r="S21" s="62">
+      <c r="S21" s="61">
         <v>25803000000</v>
       </c>
-      <c r="T21" s="62">
+      <c r="T21" s="61">
         <v>32948000000</v>
       </c>
-      <c r="U21" s="62">
+      <c r="U21" s="61">
         <v>37600000000</v>
       </c>
-      <c r="V21" s="62">
+      <c r="V21" s="61">
         <v>40390000000</v>
       </c>
-      <c r="W21" s="45">
+      <c r="W21" s="44">
         <f>Q42-Q58-Q63</f>
         <v>19086000000</v>
       </c>
-      <c r="X21" s="66">
+      <c r="X21" s="65">
         <f>Y102/R5</f>
-        <v>6.391881788507038</v>
-      </c>
-      <c r="Y21" s="69">
+        <v>8.408012726470707</v>
+      </c>
+      <c r="Y21" s="68">
         <f>Y102/R30</f>
-        <v>53.291326031427616</v>
-      </c>
-      <c r="Z21" s="67">
+        <v>70.100505971247074</v>
+      </c>
+      <c r="Z21" s="66">
         <f>Y102/R107</f>
-        <v>62.655014213836481</v>
+        <v>117.87166228288018</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="15">
@@ -4572,23 +5687,23 @@
       <c r="Q23" s="2">
         <v>0.21640000000000001</v>
       </c>
-      <c r="R23" s="63">
+      <c r="R23" s="62">
         <f>R21/R5</f>
         <v>0.18282070818462526</v>
       </c>
-      <c r="S23" s="63">
+      <c r="S23" s="62">
         <f t="shared" ref="S23:V23" si="50">S21/S5</f>
         <v>0.20095794392523364</v>
       </c>
-      <c r="T23" s="63">
+      <c r="T23" s="62">
         <f t="shared" si="50"/>
         <v>0.21026164645820039</v>
       </c>
-      <c r="U23" s="63">
+      <c r="U23" s="62">
         <f t="shared" si="50"/>
         <v>0.23011015911872704</v>
       </c>
-      <c r="V23" s="63">
+      <c r="V23" s="62">
         <f t="shared" si="50"/>
         <v>0.20409297625063164</v>
       </c>
@@ -4963,25 +6078,25 @@
       <c r="Q30" s="11">
         <v>12556000000</v>
       </c>
-      <c r="R30" s="64">
+      <c r="R30" s="63">
         <v>11964000000</v>
       </c>
-      <c r="S30" s="64">
+      <c r="S30" s="63">
         <v>16507000000</v>
       </c>
-      <c r="T30" s="64">
+      <c r="T30" s="63">
         <v>21154000000</v>
       </c>
-      <c r="U30" s="64">
+      <c r="U30" s="63">
         <v>23893000000</v>
       </c>
-      <c r="V30" s="64">
+      <c r="V30" s="63">
         <v>26482000000</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="15">
@@ -5117,23 +6232,23 @@
       <c r="Q32" s="2">
         <v>0.15409999999999999</v>
       </c>
-      <c r="R32" s="63">
+      <c r="R32" s="62">
         <f>R30/R5</f>
         <v>0.11994225448129286</v>
       </c>
-      <c r="S32" s="63">
+      <c r="S32" s="62">
         <f t="shared" ref="S32:V32" si="68">S30/S5</f>
         <v>0.12855919003115265</v>
       </c>
-      <c r="T32" s="63">
+      <c r="T32" s="62">
         <f t="shared" si="68"/>
         <v>0.13499680918953413</v>
       </c>
-      <c r="U32" s="63">
+      <c r="U32" s="62">
         <f t="shared" si="68"/>
         <v>0.14622399020807833</v>
       </c>
-      <c r="V32" s="63">
+      <c r="V32" s="62">
         <f t="shared" si="68"/>
         <v>0.13381505811015665</v>
       </c>
@@ -5190,19 +6305,19 @@
       <c r="Q33" s="12">
         <v>4.24</v>
       </c>
-      <c r="R33" s="65">
+      <c r="R33" s="64">
         <v>3.77</v>
       </c>
-      <c r="S33" s="65">
+      <c r="S33" s="64">
         <v>5.21</v>
       </c>
-      <c r="T33" s="65">
+      <c r="T33" s="64">
         <v>6.67</v>
       </c>
-      <c r="U33" s="65">
+      <c r="U33" s="64">
         <v>7.54</v>
       </c>
-      <c r="V33" s="65">
+      <c r="V33" s="64">
         <v>8.36</v>
       </c>
     </row>
@@ -5364,10 +6479,11 @@
       <c r="Q36" s="1">
         <v>3387000000</v>
       </c>
+      <c r="R36" s="71"/>
     </row>
     <row r="37" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="24">
@@ -5436,52 +6552,52 @@
         <v>28</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="21" x14ac:dyDescent="0.25">
@@ -5489,52 +6605,52 @@
         <v>29</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5595,46 +6711,46 @@
         <v>31</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1">
         <v>25061000</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P41" s="1">
         <v>131000000</v>
@@ -5966,34 +7082,34 @@
         <v>38</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1">
         <v>60237000</v>
@@ -6019,19 +7135,19 @@
         <v>39</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1">
         <v>14267000</v>
@@ -6040,10 +7156,10 @@
         <v>13930000</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1">
         <v>376145000</v>
@@ -6072,19 +7188,19 @@
         <v>40</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1">
         <v>14267000</v>
@@ -6093,10 +7209,10 @@
         <v>13930000</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1">
         <v>376145000</v>
@@ -6125,52 +7241,52 @@
         <v>41</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6178,52 +7294,52 @@
         <v>42</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6337,52 +7453,52 @@
         <v>45</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1">
         <v>1000</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6549,13 +7665,13 @@
         <v>49</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1">
         <v>2674000</v>
@@ -6594,7 +7710,7 @@
         <v>1122000000</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6602,7 +7718,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="1">
         <v>4073000</v>
@@ -6814,10 +7930,10 @@
         <v>50</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1">
         <v>1240000</v>
@@ -6867,43 +7983,43 @@
         <v>54</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1">
         <v>6821000</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O65" s="1">
         <v>151000000</v>
@@ -6912,7 +8028,7 @@
         <v>24000000</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -7026,52 +8142,52 @@
         <v>57</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -7168,7 +8284,7 @@
         <v>173000</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O70" s="1">
         <v>1000000</v>
@@ -7238,28 +8354,28 @@
         <v>61</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="1">
         <v>-3000</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J72" s="1">
         <v>-3556000</v>
@@ -7450,52 +8566,52 @@
         <v>28</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L76" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M76" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N76" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O76" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P76" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q76" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="21" x14ac:dyDescent="0.25">
@@ -7503,52 +8619,52 @@
         <v>65</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P77" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q77" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -7662,52 +8778,52 @@
         <v>67</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -7765,7 +8881,7 @@
     </row>
     <row r="82" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B82" s="15">
         <f>B81/B5</f>
@@ -7937,10 +9053,10 @@
       <c r="Q84" s="1">
         <v>-1124000000</v>
       </c>
-      <c r="X84" s="78" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y84" s="79"/>
+      <c r="X84" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y84" s="80"/>
     </row>
     <row r="85" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7994,10 +9110,10 @@
       <c r="Q85" s="1">
         <v>-6465000000</v>
       </c>
-      <c r="X85" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y85" s="77"/>
+      <c r="X85" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y85" s="78"/>
     </row>
     <row r="86" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -8028,33 +9144,33 @@
         <v>252781000</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X86" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y86" s="48">
+        <v>91</v>
+      </c>
+      <c r="X86" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y86" s="47">
         <f>Q19</f>
         <v>191000000</v>
       </c>
@@ -8109,12 +9225,12 @@
         <v>979000000</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X87" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y87" s="48">
+        <v>91</v>
+      </c>
+      <c r="X87" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y87" s="47">
         <f>Q58</f>
         <v>1502000000</v>
       </c>
@@ -8169,12 +9285,12 @@
         <v>303000000</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X88" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y88" s="48">
+        <v>91</v>
+      </c>
+      <c r="X88" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y88" s="47">
         <f>Q63</f>
         <v>1597000000</v>
       </c>
@@ -8231,10 +9347,10 @@
       <c r="Q89" s="10">
         <v>14724000000</v>
       </c>
-      <c r="X89" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y89" s="50">
+      <c r="X89" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y89" s="49">
         <f>Y86/(Y87+Y88)</f>
         <v>6.1632784769280413E-2</v>
       </c>
@@ -8291,17 +9407,17 @@
       <c r="Q90" s="1">
         <v>-7163000000</v>
       </c>
-      <c r="X90" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y90" s="48">
+      <c r="X90" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y90" s="47">
         <f>Q29</f>
         <v>1132000000</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B91" s="15">
         <f>(-1*B90)/B5</f>
@@ -8367,10 +9483,10 @@
         <f t="shared" si="81"/>
         <v>8.7930568854189678E-2</v>
       </c>
-      <c r="X91" s="47" t="s">
+      <c r="X91" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Y91" s="48">
+      <c r="Y91" s="47">
         <f>Q27</f>
         <v>13719000000</v>
       </c>
@@ -8380,28 +9496,28 @@
         <v>75</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1">
         <v>-12260000</v>
@@ -8422,15 +9538,15 @@
         <v>-13000000</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X92" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y92" s="50">
+        <v>91</v>
+      </c>
+      <c r="X92" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y92" s="49">
         <f>Y90/Y91</f>
         <v>8.2513302718857054E-2</v>
       </c>
@@ -8440,16 +9556,16 @@
         <v>76</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1">
         <v>-64952000</v>
@@ -8458,28 +9574,28 @@
         <v>-14992000</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="1">
         <v>-205841000</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P93" s="1">
         <v>-132000000</v>
@@ -8487,10 +9603,10 @@
       <c r="Q93" s="1">
         <v>-5835000000</v>
       </c>
-      <c r="X93" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y93" s="52">
+      <c r="X93" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y93" s="51">
         <f>Y89*(1-Y92)</f>
         <v>5.6547260142206617E-2</v>
       </c>
@@ -8500,16 +9616,16 @@
         <v>77</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" s="1">
         <v>40000000</v>
@@ -8518,39 +9634,39 @@
         <v>40000000</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I94" s="1">
         <v>189131000</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K94" s="1">
         <v>16667000</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q94" s="1">
         <v>22000000</v>
       </c>
-      <c r="X94" s="76" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y94" s="77"/>
+      <c r="X94" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y94" s="78"/>
     </row>
     <row r="95" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -8590,7 +9706,7 @@
         <v>-223090000</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1">
         <v>41000000</v>
@@ -8604,11 +9720,12 @@
       <c r="Q95" s="1">
         <v>1003000000</v>
       </c>
-      <c r="X95" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y95" s="53">
-        <v>4.095E-2</v>
+      <c r="X95" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y95" s="52">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8663,12 +9780,12 @@
       <c r="Q96" s="10">
         <v>-11973000000</v>
       </c>
-      <c r="X96" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y96" s="54" cm="1">
+      <c r="X96" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y96" s="53" cm="1">
         <f t="array" ref="Y96">_FV(A1,"Beta")</f>
-        <v>2.0110000000000001</v>
+        <v>2.0434000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8676,7 +9793,7 @@
         <v>80</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1">
         <v>-191000</v>
@@ -8723,10 +9840,10 @@
       <c r="Q97" s="1">
         <v>-3866000000</v>
       </c>
-      <c r="X97" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y97" s="53">
+      <c r="X97" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y97" s="52">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -8735,13 +9852,13 @@
         <v>81</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1">
         <v>21000</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1">
         <v>268842000</v>
@@ -8756,7 +9873,7 @@
         <v>415000000</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1">
         <v>750000000</v>
@@ -8768,7 +9885,7 @@
         <v>400175000</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1">
         <v>848000000</v>
@@ -8777,17 +9894,17 @@
         <v>12269000000</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X98" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y98" s="52">
+        <v>91</v>
+      </c>
+      <c r="X98" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y98" s="51">
         <f>(Y95)+((Y96)*(Y97-Y95))</f>
-        <v>0.12752355000000001</v>
+        <v>0.13279981800000001</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -8842,10 +9959,10 @@
       <c r="Q99" s="20">
         <v>0</v>
       </c>
-      <c r="X99" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y99" s="77"/>
+      <c r="X99" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y99" s="78"/>
     </row>
     <row r="100" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -8899,10 +10016,10 @@
       <c r="Q100" s="20">
         <v>0</v>
       </c>
-      <c r="X100" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y100" s="48">
+      <c r="X100" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y100" s="47">
         <f>Y87+Y88</f>
         <v>3099000000</v>
       </c>
@@ -8959,12 +10076,12 @@
       <c r="Q101" s="1">
         <v>339000000</v>
       </c>
-      <c r="X101" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y101" s="50">
+      <c r="X101" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y101" s="49">
         <f>Y100/Y104</f>
-        <v>4.8370751299945947E-3</v>
+        <v>3.6814781168386583E-3</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9019,12 +10136,12 @@
       <c r="Q102" s="10">
         <v>-3527000000</v>
       </c>
-      <c r="X102" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y102" s="36" cm="1">
+      <c r="X102" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y102" s="35" cm="1">
         <f t="array" ref="Y102">+_FV(A1,"Market cap",TRUE)</f>
-        <v>637577424640</v>
+        <v>838682453440</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9032,25 +10149,25 @@
         <v>86</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I103" s="1">
         <v>-35525000</v>
@@ -9079,12 +10196,12 @@
       <c r="Q103" s="1">
         <v>-444000000</v>
       </c>
-      <c r="X103" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y103" s="50">
+      <c r="X103" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y103" s="49">
         <f>Y102/Y104</f>
-        <v>0.99516292487000546</v>
+        <v>0.99631852188316139</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9139,12 +10256,12 @@
       <c r="Q104" s="10">
         <v>-1220000000</v>
       </c>
-      <c r="X104" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y104" s="55">
+      <c r="X104" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y104" s="54">
         <f>Y100+Y102</f>
-        <v>640676424640</v>
+        <v>841781453440</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9199,10 +10316,10 @@
       <c r="Q105" s="1">
         <v>18144000000</v>
       </c>
-      <c r="X105" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y105" s="77"/>
+      <c r="X105" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y105" s="78"/>
     </row>
     <row r="106" spans="1:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
@@ -9257,176 +10374,194 @@
         <v>16924000000</v>
       </c>
       <c r="X106" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y106" s="21">
         <f>(Y101*Y93)+(Y103*Y98)</f>
-        <v>0.12718023235350961</v>
+        <v>0.13251909587689359</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="15">
-        <f t="shared" ref="C107:Q107" si="82">(C108/B108)-1</f>
+        <v>165</v>
+      </c>
+      <c r="B107" s="1">
+        <f t="shared" ref="B107:P107" si="82">(B24*(1-$Y$92))+B79+B90+B83</f>
+        <v>-61034464.173773602</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="82"/>
+        <v>-56970375.683358848</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="82"/>
+        <v>-90101807.128799468</v>
+      </c>
+      <c r="E107" s="1">
+        <f t="shared" si="82"/>
+        <v>-175476911.65536848</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" si="82"/>
+        <v>-322816894.52584004</v>
+      </c>
+      <c r="G107" s="1">
+        <f t="shared" si="82"/>
+        <v>-529333407.46410084</v>
+      </c>
+      <c r="H107" s="1">
+        <f t="shared" si="82"/>
+        <v>-89372337.269480288</v>
+      </c>
+      <c r="I107" s="1">
+        <f t="shared" si="82"/>
+        <v>-1166063674.0287194</v>
+      </c>
+      <c r="J107" s="1">
+        <f t="shared" si="82"/>
+        <v>-2363046574.3858881</v>
+      </c>
+      <c r="K107" s="1">
+        <f t="shared" si="82"/>
+        <v>-1799508572.5635979</v>
+      </c>
+      <c r="L107" s="1">
+        <f t="shared" si="82"/>
+        <v>-4439371193.8187914</v>
+      </c>
+      <c r="M107" s="1">
+        <f t="shared" si="82"/>
+        <v>-592492336.54056406</v>
+      </c>
+      <c r="N107" s="1">
+        <f t="shared" si="82"/>
+        <v>446398935.78249121</v>
+      </c>
+      <c r="O107" s="1">
+        <f t="shared" si="82"/>
+        <v>1103468474.3785992</v>
+      </c>
+      <c r="P107" s="1">
+        <f t="shared" si="82"/>
+        <v>2874993585.5383034</v>
+      </c>
+      <c r="Q107" s="1">
+        <f>(Q24*(1-$Y$92))+Q79+Q90+Q83</f>
+        <v>5943198338.0712891</v>
+      </c>
+      <c r="R107" s="25">
+        <f>Q107*(1+$Y$108)</f>
+        <v>7115216984.2760525</v>
+      </c>
+      <c r="S107" s="25">
+        <f t="shared" ref="S107:V107" si="83">R107*(1+$Y$108)</f>
+        <v>8518361638.5516529</v>
+      </c>
+      <c r="T107" s="25">
+        <f t="shared" si="83"/>
+        <v>10198211124.903786</v>
+      </c>
+      <c r="U107" s="25">
+        <f t="shared" si="83"/>
+        <v>12209332564.306894</v>
+      </c>
+      <c r="V107" s="25">
+        <f t="shared" si="83"/>
+        <v>14617053897.01384</v>
+      </c>
+      <c r="W107" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="X107" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y107" s="74"/>
+    </row>
+    <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A108" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="15">
+        <f t="shared" ref="C108:Q108" si="84">(C109/B109)-1</f>
         <v>-1.9424380837982591E-2</v>
       </c>
-      <c r="D107" s="15">
-        <f t="shared" si="82"/>
+      <c r="D108" s="15">
+        <f t="shared" si="84"/>
         <v>0.49429418780825896</v>
       </c>
-      <c r="E107" s="15">
-        <f t="shared" si="82"/>
+      <c r="E108" s="15">
+        <f t="shared" si="84"/>
         <v>0.81233752925821667</v>
       </c>
-      <c r="F107" s="15">
-        <f t="shared" si="82"/>
+      <c r="F108" s="15">
+        <f t="shared" si="84"/>
         <v>0.85846922985358876</v>
       </c>
-      <c r="G107" s="15">
-        <f t="shared" si="82"/>
+      <c r="G108" s="15">
+        <f t="shared" si="84"/>
         <v>0.61823160187023629</v>
       </c>
-      <c r="H107" s="15">
-        <f t="shared" si="82"/>
+      <c r="H108" s="15">
+        <f t="shared" si="84"/>
         <v>-0.98767091027470322</v>
       </c>
-      <c r="I107" s="15">
-        <f t="shared" si="82"/>
+      <c r="I108" s="15">
+        <f t="shared" si="84"/>
         <v>163.88314606741574</v>
       </c>
-      <c r="J107" s="15">
-        <f t="shared" si="82"/>
+      <c r="J108" s="15">
+        <f t="shared" si="84"/>
         <v>1.1021249544889029</v>
       </c>
-      <c r="K107" s="15">
-        <f t="shared" si="82"/>
+      <c r="K108" s="15">
+        <f t="shared" si="84"/>
         <v>-0.27556870149290369</v>
       </c>
-      <c r="L107" s="15">
-        <f t="shared" si="82"/>
+      <c r="L108" s="15">
+        <f t="shared" si="84"/>
         <v>1.6478348142939332</v>
       </c>
-      <c r="M107" s="15">
-        <f t="shared" si="82"/>
+      <c r="M108" s="15">
+        <f t="shared" si="84"/>
         <v>-0.94647185616251828</v>
       </c>
-      <c r="N107" s="15">
-        <f t="shared" si="82"/>
+      <c r="N108" s="15">
+        <f t="shared" si="84"/>
         <v>-5.3659850077126388</v>
       </c>
-      <c r="O107" s="15">
-        <f t="shared" si="82"/>
+      <c r="O108" s="15">
+        <f t="shared" si="84"/>
         <v>1.790289256198347</v>
       </c>
-      <c r="P107" s="15">
-        <f t="shared" si="82"/>
+      <c r="P108" s="15">
+        <f t="shared" si="84"/>
         <v>0.28952239911144018</v>
       </c>
-      <c r="Q107" s="15">
-        <f t="shared" si="82"/>
+      <c r="Q108" s="15">
+        <f t="shared" si="84"/>
         <v>1.1708297444731555</v>
       </c>
-      <c r="R107" s="70">
-        <v>10176000000</v>
-      </c>
-      <c r="S107" s="70">
-        <v>16939000000</v>
-      </c>
-      <c r="T107" s="70">
+      <c r="R108" s="69">
+        <v>10013000000</v>
+      </c>
+      <c r="S108" s="69">
+        <v>16730000000</v>
+      </c>
+      <c r="T108" s="69">
         <v>22882000000</v>
       </c>
-      <c r="U107" s="70">
+      <c r="U108" s="69">
         <v>25693000000</v>
       </c>
-      <c r="V107" s="70">
+      <c r="V108" s="69">
         <v>28392000000</v>
       </c>
-      <c r="W107" s="15"/>
-      <c r="X107" s="72" t="s">
+      <c r="W108" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="X108" s="27" t="s">
         <v>141</v>
-      </c>
-      <c r="Y107" s="73"/>
-    </row>
-    <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B108" s="1">
-        <v>-63271000</v>
-      </c>
-      <c r="C108" s="1">
-        <v>-62042000</v>
-      </c>
-      <c r="D108" s="1">
-        <v>-92709000</v>
-      </c>
-      <c r="E108" s="1">
-        <v>-168020000</v>
-      </c>
-      <c r="F108" s="1">
-        <v>-312260000</v>
-      </c>
-      <c r="G108" s="1">
-        <v>-505309000</v>
-      </c>
-      <c r="H108" s="1">
-        <v>-6230000</v>
-      </c>
-      <c r="I108" s="1">
-        <v>-1027222000</v>
-      </c>
-      <c r="J108" s="1">
-        <v>-2159349000</v>
-      </c>
-      <c r="K108" s="1">
-        <v>-1564300000</v>
-      </c>
-      <c r="L108" s="1">
-        <v>-4142008000</v>
-      </c>
-      <c r="M108" s="1">
-        <v>-221714000</v>
-      </c>
-      <c r="N108" s="1">
-        <v>968000000</v>
-      </c>
-      <c r="O108" s="1">
-        <v>2701000000</v>
-      </c>
-      <c r="P108" s="1">
-        <v>3483000000</v>
-      </c>
-      <c r="Q108" s="1">
-        <v>7561000000</v>
-      </c>
-      <c r="R108" s="25">
-        <f>Q108*(1+$Y$108)</f>
-        <v>9052054560.1663418</v>
-      </c>
-      <c r="S108" s="25">
-        <f t="shared" ref="S108:V108" si="83">R108*(1+$Y$108)</f>
-        <v>10837150080.707348</v>
-      </c>
-      <c r="T108" s="25">
-        <f t="shared" si="83"/>
-        <v>12974272425.244543</v>
-      </c>
-      <c r="U108" s="25">
-        <f t="shared" si="83"/>
-        <v>15532842464.19459</v>
-      </c>
-      <c r="V108" s="25">
-        <f t="shared" si="83"/>
-        <v>18595971096.463169</v>
-      </c>
-      <c r="W108" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="X108" s="27" t="s">
-        <v>143</v>
       </c>
       <c r="Y108" s="28">
         <f>(SUM(R6:V6)/5)</f>
@@ -9434,139 +10569,190 @@
       </c>
     </row>
     <row r="109" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" s="1">
+        <v>-63271000</v>
+      </c>
+      <c r="C109" s="1">
+        <v>-62042000</v>
+      </c>
+      <c r="D109" s="1">
+        <v>-92709000</v>
+      </c>
+      <c r="E109" s="1">
+        <v>-168020000</v>
+      </c>
+      <c r="F109" s="1">
+        <v>-312260000</v>
+      </c>
+      <c r="G109" s="1">
+        <v>-505309000</v>
+      </c>
+      <c r="H109" s="1">
+        <v>-6230000</v>
+      </c>
+      <c r="I109" s="1">
+        <v>-1027222000</v>
+      </c>
+      <c r="J109" s="1">
+        <v>-2159349000</v>
+      </c>
+      <c r="K109" s="1">
+        <v>-1564300000</v>
+      </c>
+      <c r="L109" s="1">
+        <v>-4142008000</v>
+      </c>
+      <c r="M109" s="1">
+        <v>-221714000</v>
+      </c>
+      <c r="N109" s="1">
+        <v>968000000</v>
+      </c>
+      <c r="O109" s="1">
+        <v>2701000000</v>
+      </c>
+      <c r="P109" s="1">
+        <v>3483000000</v>
+      </c>
+      <c r="Q109" s="1">
+        <v>7561000000</v>
+      </c>
       <c r="R109" s="26"/>
       <c r="S109" s="26"/>
       <c r="T109" s="26"/>
       <c r="U109" s="26"/>
-      <c r="V109" s="71">
-        <f>V107*(1+Y109)/(Y110-Y109)</f>
-        <v>284808512661.40643</v>
-      </c>
-      <c r="W109" s="30" t="s">
+      <c r="V109" s="70">
+        <f>V108*(1+Y109)/(Y110-Y109)</f>
+        <v>270666338501.5882</v>
+      </c>
+      <c r="W109" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="X109" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y109" s="31">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="R110" s="70">
+        <f t="shared" ref="R110:U110" si="85">R109+R108</f>
+        <v>10013000000</v>
+      </c>
+      <c r="S110" s="70">
+        <f t="shared" si="85"/>
+        <v>16730000000</v>
+      </c>
+      <c r="T110" s="70">
+        <f t="shared" si="85"/>
+        <v>22882000000</v>
+      </c>
+      <c r="U110" s="70">
+        <f t="shared" si="85"/>
+        <v>25693000000</v>
+      </c>
+      <c r="V110" s="70">
+        <f>V109+V108</f>
+        <v>299058338501.5882</v>
+      </c>
+      <c r="W110" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="X110" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="X109" s="31" t="s">
+      <c r="Y110" s="33">
+        <f>Y106</f>
+        <v>0.13251909587689359</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="R111" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="Y109" s="32">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R110" s="29">
-        <f t="shared" ref="R110:T110" si="84">R109+R108</f>
-        <v>9052054560.1663418</v>
-      </c>
-      <c r="S110" s="29">
-        <f t="shared" si="84"/>
-        <v>10837150080.707348</v>
-      </c>
-      <c r="T110" s="29">
-        <f t="shared" si="84"/>
-        <v>12974272425.244543</v>
-      </c>
-      <c r="U110" s="29">
-        <f>U109+U108</f>
-        <v>15532842464.19459</v>
-      </c>
-      <c r="V110" s="71">
-        <f>V109+V107</f>
-        <v>313200512661.40643</v>
-      </c>
-      <c r="W110" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="X110" s="33" t="s">
+      <c r="S111" s="76"/>
+    </row>
+    <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R112" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="Y110" s="34">
-        <f>Y106</f>
-        <v>0.12718023235350961</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R111" s="74" t="s">
+      <c r="S112" s="35">
+        <f>NPV(Y110,R110,S110,T110,U110,V110)</f>
+        <v>213775888162.20557</v>
+      </c>
+    </row>
+    <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R113" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="S111" s="75"/>
-    </row>
-    <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R112" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="S112" s="36">
-        <f>NPV(Y110,R110,S110,T110,U110,V110)</f>
-        <v>207371676709.81702</v>
-      </c>
-    </row>
-    <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R113" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="S113" s="36">
+      <c r="S113" s="35">
         <f>Q42</f>
         <v>22185000000</v>
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R114" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="S114" s="36">
+      <c r="R114" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="S114" s="35">
         <f>Y100</f>
         <v>3099000000</v>
       </c>
     </row>
     <row r="115" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R115" s="35" t="s">
+      <c r="R115" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="S115" s="35">
+        <f>S112+S113-S114</f>
+        <v>232861888162.20557</v>
+      </c>
+    </row>
+    <row r="116" spans="18:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R116" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="S116" s="45">
+        <f>Q36*(1+(W18*5))</f>
+        <v>4496300737.147871</v>
+      </c>
+    </row>
+    <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R117" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="S117" s="56">
+        <f>S115/S116</f>
+        <v>51.789660384219843</v>
+      </c>
+    </row>
+    <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R118" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="S115" s="36">
-        <f>S112+S113-S114</f>
-        <v>226457676709.81702</v>
-      </c>
-    </row>
-    <row r="116" spans="18:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R116" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="S116" s="46" cm="1">
-        <f t="array" ref="S116">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>3169504000</v>
-      </c>
-    </row>
-    <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R117" s="37" t="s">
+      <c r="S118" s="55" cm="1">
+        <f t="array" ref="S118">_FV(A1,"Price",TRUE)</f>
+        <v>264.61</v>
+      </c>
+    </row>
+    <row r="119" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R119" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="S117" s="57">
-        <f>S115/S116</f>
-        <v>71.448932296604454</v>
-      </c>
-    </row>
-    <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R118" s="35" t="s">
+      <c r="S119" s="38">
+        <f>S117/S118-1</f>
+        <v>-0.80427927748679251</v>
+      </c>
+    </row>
+    <row r="120" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R120" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="S118" s="56" cm="1">
-        <f t="array" ref="S118">_FV(A1,"Price",TRUE)</f>
-        <v>201.16</v>
-      </c>
-    </row>
-    <row r="119" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R119" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="S119" s="39">
-        <f>S117/S118-1</f>
-        <v>-0.64481540914394286</v>
-      </c>
-    </row>
-    <row r="120" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R120" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="S120" s="40" t="str">
+      <c r="S120" s="39" t="str">
         <f>IF(S117&gt;S118,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -9616,8 +10802,9 @@
     <hyperlink ref="Q38" r:id="rId32" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000095017023001409/0000950170-23-001409-index.htm" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="Q76" r:id="rId33" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000095017023001409/0000950170-23-001409-index.htm" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="R1" r:id="rId34" display="https://finbox.com/NASDAQGS:TSLA/explorer/revenue_proj" xr:uid="{3BB34DC7-FA61-5D45-B17B-00CAD693BF05}"/>
+    <hyperlink ref="W108" r:id="rId35" xr:uid="{C0A1206A-10FC-EC4B-91A2-F3B2C8D0D845}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId35"/>
+  <drawing r:id="rId36"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/Tesla.xlsx
+++ b/Technology/Hardware/Tesla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAC8DD3-0F22-3F4C-A989-AC123ED834A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3304CE-DCC6-3941-8407-170DE0A7B20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -574,19 +574,26 @@
   </si>
   <si>
     <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -927,7 +934,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1093,6 +1100,12 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="172" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1142,9 +1155,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2800"/>
-              <a:t>TSLA</a:t>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Tesla</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="2800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1184,7 +1198,7 @@
           <c:x val="0.10387298949927613"/>
           <c:y val="0.13701091711362168"/>
           <c:w val="0.83871816643555708"/>
-          <c:h val="0.76043668454486668"/>
+          <c:h val="0.68477096322222486"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1586,7 +1600,7 @@
         <c:axId val="1629503615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-5000000000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1646,6 +1660,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34732358851313938"/>
+          <c:y val="0.90066525337810055"/>
+          <c:w val="0.32648180449876912"/>
+          <c:h val="5.7961580248644305E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1782,7 +1806,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10661540140798746"/>
+          <c:y val="0.13237339543424362"/>
+          <c:w val="0.84223706289019606"/>
+          <c:h val="0.74600411512260612"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2111,7 +2145,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -2167,7 +2201,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -3253,13 +3287,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>34925</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>33866</xdr:rowOff>
+      <xdr:rowOff>33867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>55033</xdr:rowOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3286,16 +3320,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>65088</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1603374</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>49212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>269875</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3341,12 +3375,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -3363,14 +3398,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -3378,6 +3413,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3505,9 +3541,9 @@
     <v>Powered by Refinitiv</v>
     <v>314.66640000000001</v>
     <v>101.81</v>
-    <v>2.0434000000000001</v>
-    <v>5.15</v>
-    <v>1.9849000000000002E-2</v>
+    <v>2.032</v>
+    <v>-8.01</v>
+    <v>-3.0270999999999999E-2</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
     <v>127855</v>
@@ -3515,24 +3551,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>265</v>
+    <v>262.45</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45099.999991168748</v>
+    <v>45100.999999455467</v>
     <v>0</v>
-    <v>248.25</v>
-    <v>838682453440</v>
+    <v>252.8</v>
+    <v>813294800000</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>250.77</v>
-    <v>77.905199999999994</v>
-    <v>259.45999999999998</v>
+    <v>259.29000000000002</v>
+    <v>75.546999999999997</v>
     <v>264.61</v>
+    <v>256.60000000000002</v>
     <v>3169504000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>1152064</v>
-    <v>151384884</v>
+    <v>1564597</v>
+    <v>156207860</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -4102,10 +4138,10 @@
   <dimension ref="A1:Z120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S99" sqref="S99"/>
+      <selection pane="bottomRight" activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5336,15 +5372,15 @@
       </c>
       <c r="X18" s="65">
         <f>Y102/Q5</f>
-        <v>10.295382551864673</v>
+        <v>9.983732292357173</v>
       </c>
       <c r="Y18" s="65">
         <f>Y102/Q30</f>
-        <v>66.795353093341831</v>
+        <v>64.773399171710736</v>
       </c>
       <c r="Z18" s="66">
         <f>Y102/Q109</f>
-        <v>110.92216022219283</v>
+        <v>107.56444914693823</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5538,15 +5574,15 @@
       </c>
       <c r="X21" s="65">
         <f>Y102/R5</f>
-        <v>8.408012726470707</v>
+        <v>8.1534948069134217</v>
       </c>
       <c r="Y21" s="68">
         <f>Y102/R30</f>
-        <v>70.100505971247074</v>
+        <v>67.978502173186229</v>
       </c>
       <c r="Z21" s="66">
         <f>Y102/R107</f>
-        <v>117.87166228288018</v>
+        <v>114.30358368512212</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5635,7 +5671,7 @@
         <v>7.4202127659574568E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
@@ -5707,6 +5743,12 @@
         <f t="shared" si="50"/>
         <v>0.20409297625063164</v>
       </c>
+      <c r="Y23" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z23" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="24" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -5759,6 +5801,14 @@
       </c>
       <c r="Q24" s="10">
         <v>13656000000</v>
+      </c>
+      <c r="Y24" s="81">
+        <f>Q100/Y102</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="82">
+        <f>Q109/Y102</f>
+        <v>9.2967519280831509E-3</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -9725,7 +9775,7 @@
       </c>
       <c r="Y95" s="52">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9785,7 +9835,7 @@
       </c>
       <c r="Y96" s="53" cm="1">
         <f t="array" ref="Y96">_FV(A1,"Beta")</f>
-        <v>2.0434000000000001</v>
+        <v>2.032</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9904,7 +9954,7 @@
       </c>
       <c r="Y98" s="51">
         <f>(Y95)+((Y96)*(Y97-Y95))</f>
-        <v>0.13279981800000001</v>
+        <v>0.13210152</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10081,7 +10131,7 @@
       </c>
       <c r="Y101" s="49">
         <f>Y100/Y104</f>
-        <v>3.6814781168386583E-3</v>
+        <v>3.7959621937354252E-3</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10141,7 +10191,7 @@
       </c>
       <c r="Y102" s="35" cm="1">
         <f t="array" ref="Y102">+_FV(A1,"Market cap",TRUE)</f>
-        <v>838682453440</v>
+        <v>813294800000</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10201,7 +10251,7 @@
       </c>
       <c r="Y103" s="49">
         <f>Y102/Y104</f>
-        <v>0.99631852188316139</v>
+        <v>0.99620403780626454</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10261,7 +10311,7 @@
       </c>
       <c r="Y104" s="54">
         <f>Y100+Y102</f>
-        <v>841781453440</v>
+        <v>816393800000</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -10378,7 +10428,7 @@
       </c>
       <c r="Y106" s="21">
         <f>(Y101*Y93)+(Y103*Y98)</f>
-        <v>0.13251909587689359</v>
+        <v>0.13181471888600416</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -10626,7 +10676,7 @@
       <c r="U109" s="26"/>
       <c r="V109" s="70">
         <f>V108*(1+Y109)/(Y110-Y109)</f>
-        <v>270666338501.5882</v>
+        <v>272451215558.20694</v>
       </c>
       <c r="W109" s="29" t="s">
         <v>142</v>
@@ -10657,7 +10707,7 @@
       </c>
       <c r="V110" s="70">
         <f>V109+V108</f>
-        <v>299058338501.5882</v>
+        <v>300843215558.20691</v>
       </c>
       <c r="W110" s="29" t="s">
         <v>133</v>
@@ -10667,7 +10717,7 @@
       </c>
       <c r="Y110" s="33">
         <f>Y106</f>
-        <v>0.13251909587689359</v>
+        <v>0.13181471888600416</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -10682,7 +10732,7 @@
       </c>
       <c r="S112" s="35">
         <f>NPV(Y110,R110,S110,T110,U110,V110)</f>
-        <v>213775888162.20557</v>
+        <v>215327108004.67233</v>
       </c>
     </row>
     <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -10709,7 +10759,7 @@
       </c>
       <c r="S115" s="35">
         <f>S112+S113-S114</f>
-        <v>232861888162.20557</v>
+        <v>234413108004.67233</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -10727,7 +10777,7 @@
       </c>
       <c r="S117" s="56">
         <f>S115/S116</f>
-        <v>51.789660384219843</v>
+        <v>52.134659514204806</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -10736,7 +10786,7 @@
       </c>
       <c r="S118" s="55" cm="1">
         <f t="array" ref="S118">_FV(A1,"Price",TRUE)</f>
-        <v>264.61</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="119" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -10745,7 +10795,7 @@
       </c>
       <c r="S119" s="38">
         <f>S117/S118-1</f>
-        <v>-0.80427927748679251</v>
+        <v>-0.79682517726342628</v>
       </c>
     </row>
     <row r="120" spans="18:19" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Tesla.xlsx
+++ b/Technology/Hardware/Tesla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3304CE-DCC6-3941-8407-170DE0A7B20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269DA7F9-0351-F343-9E63-597CA883BBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -593,7 +593,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -756,7 +756,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -810,15 +810,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -843,53 +834,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -934,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -966,108 +913,54 @@
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="14" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="14" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1076,34 +969,66 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3401,7 +3326,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3541,9 +3466,11 @@
     <v>Powered by Refinitiv</v>
     <v>314.66640000000001</v>
     <v>101.81</v>
-    <v>2.032</v>
-    <v>-8.01</v>
-    <v>-3.0270999999999999E-2</v>
+    <v>2.0352000000000001</v>
+    <v>4.2699999999999996</v>
+    <v>1.6583000000000001E-2</v>
+    <v>0.01</v>
+    <v>3.82E-5</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
     <v>127855</v>
@@ -3551,24 +3478,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>262.45</v>
+    <v>264.45</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45100.999999455467</v>
+    <v>45107.99999777734</v>
     <v>0</v>
-    <v>252.8</v>
-    <v>813294800000</v>
+    <v>259.89</v>
+    <v>829681062080</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>259.29000000000002</v>
-    <v>75.546999999999997</v>
-    <v>264.61</v>
-    <v>256.60000000000002</v>
+    <v>260.60000000000002</v>
+    <v>75.811899999999994</v>
+    <v>257.5</v>
+    <v>261.77</v>
+    <v>261.77999999999997</v>
     <v>3169504000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>1564597</v>
-    <v>156207860</v>
+    <v>112620784</v>
+    <v>160261554</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -3600,6 +3528,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3620,6 +3550,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3636,7 +3567,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3647,13 +3578,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3719,13 +3653,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3770,6 +3710,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3777,6 +3720,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -4141,7 +4087,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W36" sqref="W36"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4330,7 +4276,7 @@
       <c r="Q3" s="20">
         <v>1313851</v>
       </c>
-      <c r="R3" s="57">
+      <c r="R3" s="31">
         <f>422875*4</f>
         <v>1691500</v>
       </c>
@@ -4416,10 +4362,10 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
     </row>
     <row r="5" spans="1:26" ht="40" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -4488,16 +4434,16 @@
       <c r="V5" s="17">
         <v>197900000000</v>
       </c>
-      <c r="W5" s="58" t="s">
+      <c r="W5" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="X5" s="59" t="s">
+      <c r="X5" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="Y5" s="59" t="s">
+      <c r="Y5" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="Z5" s="59" t="s">
+      <c r="Z5" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4586,19 +4532,19 @@
         <f t="shared" ref="V6" si="17">(V5/U5)-1</f>
         <v>0.21113831089351276</v>
       </c>
-      <c r="W6" s="42">
+      <c r="W6" s="28">
         <f>(Q6+P6+O6)/3</f>
         <v>0.50111045549806821</v>
       </c>
-      <c r="X6" s="42">
+      <c r="X6" s="28">
         <f>(Q22+P22+O22)/3</f>
         <v>1.0471441765542473</v>
       </c>
-      <c r="Y6" s="42">
+      <c r="Y6" s="28">
         <f>(Q31+P31+O31)/3</f>
         <v>2.1577121717940262</v>
       </c>
-      <c r="Z6" s="42">
+      <c r="Z6" s="28">
         <f>(Q108+P108+O108)/3</f>
         <v>1.083547133260981</v>
       </c>
@@ -4708,16 +4654,16 @@
       <c r="Q8" s="10">
         <v>20853000000</v>
       </c>
-      <c r="W8" s="40" t="s">
+      <c r="W8" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="X8" s="41" t="s">
+      <c r="X8" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" s="41" t="s">
+      <c r="Y8" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="Z8" s="41" t="s">
+      <c r="Z8" s="27" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4773,19 +4719,19 @@
       <c r="Q9" s="2">
         <v>0.25600000000000001</v>
       </c>
-      <c r="W9" s="42">
+      <c r="W9" s="28">
         <f>Q9</f>
         <v>0.25600000000000001</v>
       </c>
-      <c r="X9" s="43">
+      <c r="X9" s="29">
         <f>Q23</f>
         <v>0.21640000000000001</v>
       </c>
-      <c r="Y9" s="43">
+      <c r="Y9" s="29">
         <f>Q32</f>
         <v>0.15409999999999999</v>
       </c>
-      <c r="Z9" s="43">
+      <c r="Z9" s="29">
         <f>Q109/Q5</f>
         <v>9.281628243843755E-2</v>
       </c>
@@ -4911,16 +4857,16 @@
         <f t="shared" si="18"/>
         <v>3.7747661486337188E-2</v>
       </c>
-      <c r="W11" s="40" t="s">
+      <c r="W11" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="X11" s="41" t="s">
+      <c r="X11" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="Y11" s="41" t="s">
+      <c r="Y11" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="Z11" s="41" t="s">
+      <c r="Z11" s="27" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4976,19 +4922,19 @@
       <c r="Q12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W12" s="42">
+      <c r="W12" s="28">
         <f>Q11</f>
         <v>3.7747661486337188E-2</v>
       </c>
-      <c r="X12" s="43">
+      <c r="X12" s="29">
         <f>Q15</f>
         <v>4.8439763325231394E-2</v>
       </c>
-      <c r="Y12" s="43">
+      <c r="Y12" s="29">
         <f>Q82</f>
         <v>1.9150033144288134E-2</v>
       </c>
-      <c r="Z12" s="43">
+      <c r="Z12" s="29">
         <f>Q91</f>
         <v>8.7930568854189678E-2</v>
       </c>
@@ -5098,16 +5044,16 @@
       <c r="Q14" s="1">
         <v>3946000000</v>
       </c>
-      <c r="W14" s="40" t="s">
+      <c r="W14" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="X14" s="41" t="s">
+      <c r="X14" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="Y14" s="41" t="s">
+      <c r="Y14" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="Z14" s="41" t="s">
+      <c r="Z14" s="27" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5179,19 +5125,19 @@
         <f t="shared" ref="Q15" si="32">Q14/Q5</f>
         <v>4.8439763325231394E-2</v>
       </c>
-      <c r="W15" s="42">
+      <c r="W15" s="28">
         <f>Q30/Q74</f>
         <v>0.28086972083035078</v>
       </c>
-      <c r="X15" s="43">
+      <c r="X15" s="29">
         <f>Q30/Q56</f>
         <v>0.1524933809419709</v>
       </c>
-      <c r="Y15" s="43">
+      <c r="Y15" s="29">
         <f>Q24/(Q74+Q58+Q63)</f>
         <v>0.28567244733594127</v>
       </c>
-      <c r="Z15" s="67">
+      <c r="Z15" s="41">
         <f>Q69/Q74</f>
         <v>0.83269953471725122</v>
       </c>
@@ -5301,16 +5247,16 @@
       <c r="Q17" s="1">
         <v>7197000000</v>
       </c>
-      <c r="W17" s="40" t="s">
+      <c r="W17" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="X17" s="41" t="s">
+      <c r="X17" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="Y17" s="41" t="s">
+      <c r="Y17" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="Z17" s="41" t="s">
+      <c r="Z17" s="27" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5366,21 +5312,21 @@
       <c r="Q18" s="1">
         <v>67806000000</v>
       </c>
-      <c r="W18" s="23">
+      <c r="W18" s="21">
         <f>(Q37+P37+O37+N37+M37)/5</f>
         <v>6.5503438863175154E-2</v>
       </c>
-      <c r="X18" s="65">
+      <c r="X18" s="39">
         <f>Y102/Q5</f>
-        <v>9.983732292357173</v>
-      </c>
-      <c r="Y18" s="65">
+        <v>10.184884511551399</v>
+      </c>
+      <c r="Y18" s="39">
         <f>Y102/Q30</f>
-        <v>64.773399171710736</v>
-      </c>
-      <c r="Z18" s="66">
+        <v>66.078453494743542</v>
+      </c>
+      <c r="Z18" s="40">
         <f>Y102/Q109</f>
-        <v>107.56444914693823</v>
+        <v>109.7316574632985</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5488,16 +5434,16 @@
       <c r="Q20" s="1">
         <v>3747000000</v>
       </c>
-      <c r="W20" s="40" t="s">
+      <c r="W20" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="X20" s="41" t="s">
+      <c r="X20" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="Y20" s="41" t="s">
+      <c r="Y20" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="Z20" s="41" t="s">
+      <c r="Z20" s="27" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5553,36 +5499,36 @@
       <c r="Q21" s="10">
         <v>17626000000</v>
       </c>
-      <c r="R21" s="61">
+      <c r="R21" s="35">
         <v>18236000000</v>
       </c>
-      <c r="S21" s="61">
+      <c r="S21" s="35">
         <v>25803000000</v>
       </c>
-      <c r="T21" s="61">
+      <c r="T21" s="35">
         <v>32948000000</v>
       </c>
-      <c r="U21" s="61">
+      <c r="U21" s="35">
         <v>37600000000</v>
       </c>
-      <c r="V21" s="61">
+      <c r="V21" s="35">
         <v>40390000000</v>
       </c>
-      <c r="W21" s="44">
+      <c r="W21" s="30">
         <f>Q42-Q58-Q63</f>
         <v>19086000000</v>
       </c>
-      <c r="X21" s="65">
+      <c r="X21" s="39">
         <f>Y102/R5</f>
-        <v>8.1534948069134217</v>
-      </c>
-      <c r="Y21" s="68">
+        <v>8.3177714047399451</v>
+      </c>
+      <c r="Y21" s="42">
         <f>Y102/R30</f>
-        <v>67.978502173186229</v>
-      </c>
-      <c r="Z21" s="66">
+        <v>69.348132905382812</v>
+      </c>
+      <c r="Z21" s="40">
         <f>Y102/R107</f>
-        <v>114.30358368512212</v>
+        <v>116.60657207131078</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5723,30 +5669,30 @@
       <c r="Q23" s="2">
         <v>0.21640000000000001</v>
       </c>
-      <c r="R23" s="62">
+      <c r="R23" s="36">
         <f>R21/R5</f>
         <v>0.18282070818462526</v>
       </c>
-      <c r="S23" s="62">
+      <c r="S23" s="36">
         <f t="shared" ref="S23:V23" si="50">S21/S5</f>
         <v>0.20095794392523364</v>
       </c>
-      <c r="T23" s="62">
+      <c r="T23" s="36">
         <f t="shared" si="50"/>
         <v>0.21026164645820039</v>
       </c>
-      <c r="U23" s="62">
+      <c r="U23" s="36">
         <f t="shared" si="50"/>
         <v>0.23011015911872704</v>
       </c>
-      <c r="V23" s="62">
+      <c r="V23" s="36">
         <f t="shared" si="50"/>
         <v>0.20409297625063164</v>
       </c>
-      <c r="Y23" s="40" t="s">
+      <c r="Y23" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="Z23" s="41" t="s">
+      <c r="Z23" s="27" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5802,13 +5748,13 @@
       <c r="Q24" s="10">
         <v>13656000000</v>
       </c>
-      <c r="Y24" s="81">
+      <c r="Y24" s="47">
         <f>Q100/Y102</f>
         <v>0</v>
       </c>
-      <c r="Z24" s="82">
+      <c r="Z24" s="48">
         <f>Q109/Y102</f>
-        <v>9.2967519280831509E-3</v>
+        <v>9.1131403928211493E-3</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -6128,19 +6074,19 @@
       <c r="Q30" s="11">
         <v>12556000000</v>
       </c>
-      <c r="R30" s="63">
+      <c r="R30" s="37">
         <v>11964000000</v>
       </c>
-      <c r="S30" s="63">
+      <c r="S30" s="37">
         <v>16507000000</v>
       </c>
-      <c r="T30" s="63">
+      <c r="T30" s="37">
         <v>21154000000</v>
       </c>
-      <c r="U30" s="63">
+      <c r="U30" s="37">
         <v>23893000000</v>
       </c>
-      <c r="V30" s="63">
+      <c r="V30" s="37">
         <v>26482000000</v>
       </c>
     </row>
@@ -6282,23 +6228,23 @@
       <c r="Q32" s="2">
         <v>0.15409999999999999</v>
       </c>
-      <c r="R32" s="62">
+      <c r="R32" s="36">
         <f>R30/R5</f>
         <v>0.11994225448129286</v>
       </c>
-      <c r="S32" s="62">
+      <c r="S32" s="36">
         <f t="shared" ref="S32:V32" si="68">S30/S5</f>
         <v>0.12855919003115265</v>
       </c>
-      <c r="T32" s="62">
+      <c r="T32" s="36">
         <f t="shared" si="68"/>
         <v>0.13499680918953413</v>
       </c>
-      <c r="U32" s="62">
+      <c r="U32" s="36">
         <f t="shared" si="68"/>
         <v>0.14622399020807833</v>
       </c>
-      <c r="V32" s="62">
+      <c r="V32" s="36">
         <f t="shared" si="68"/>
         <v>0.13381505811015665</v>
       </c>
@@ -6355,19 +6301,19 @@
       <c r="Q33" s="12">
         <v>4.24</v>
       </c>
-      <c r="R33" s="64">
+      <c r="R33" s="38">
         <v>3.77</v>
       </c>
-      <c r="S33" s="64">
+      <c r="S33" s="38">
         <v>5.21</v>
       </c>
-      <c r="T33" s="64">
+      <c r="T33" s="38">
         <v>6.67</v>
       </c>
-      <c r="U33" s="64">
+      <c r="U33" s="38">
         <v>7.54</v>
       </c>
-      <c r="V33" s="64">
+      <c r="V33" s="38">
         <v>8.36</v>
       </c>
     </row>
@@ -6529,70 +6475,70 @@
       <c r="Q36" s="1">
         <v>3387000000</v>
       </c>
-      <c r="R36" s="71"/>
+      <c r="R36" s="45"/>
     </row>
     <row r="37" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>138</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="24">
+      <c r="C37" s="22">
         <f>(C36-B36)/B36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="22">
         <f t="shared" ref="D37:G37" si="69">(D36-C36)/C36</f>
         <v>-0.4301044964424558</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="22">
         <f t="shared" si="69"/>
         <v>-0.34720316487324726</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="22">
         <f t="shared" si="69"/>
         <v>0.97934100790677103</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="22">
         <f t="shared" si="69"/>
         <v>6.9332275712189653E-2</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="22">
         <f t="shared" ref="H37" si="70">(H36-G36)/G36</f>
         <v>0.11245563535757203</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="22">
         <f t="shared" ref="I37" si="71">(I36-H36)/H36</f>
         <v>4.3141491027541216E-2</v>
       </c>
-      <c r="J37" s="24">
+      <c r="J37" s="22">
         <f t="shared" ref="J37" si="72">(J36-I36)/I36</f>
         <v>2.9131513249259472E-2</v>
       </c>
-      <c r="K37" s="24">
+      <c r="K37" s="22">
         <f t="shared" ref="K37" si="73">(K36-J36)/J36</f>
         <v>0.12488104709754919</v>
       </c>
-      <c r="L37" s="24">
+      <c r="L37" s="22">
         <f t="shared" ref="L37" si="74">(L36-K36)/K36</f>
         <v>0.14940504257620726</v>
       </c>
-      <c r="M37" s="24">
+      <c r="M37" s="22">
         <f t="shared" ref="M37" si="75">(M36-L36)/L36</f>
         <v>2.8758792939103994E-2</v>
       </c>
-      <c r="N37" s="24">
+      <c r="N37" s="22">
         <f t="shared" ref="N37" si="76">(N36-M36)/M36</f>
         <v>3.7970971998240725E-2</v>
       </c>
-      <c r="O37" s="24">
+      <c r="O37" s="22">
         <f t="shared" ref="O37" si="77">(O36-N36)/N36</f>
         <v>8.4745762711864403E-2</v>
       </c>
-      <c r="P37" s="24">
+      <c r="P37" s="22">
         <f t="shared" ref="P37" si="78">(P36-O36)/O36</f>
         <v>0.17604166666666668</v>
       </c>
-      <c r="Q37" s="24">
+      <c r="Q37" s="22">
         <f t="shared" ref="Q37" si="79">(Q36-P36)/P36</f>
         <v>0</v>
       </c>
@@ -9103,10 +9049,10 @@
       <c r="Q84" s="1">
         <v>-1124000000</v>
       </c>
-      <c r="X84" s="79" t="s">
+      <c r="X84" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="Y84" s="80"/>
+      <c r="Y84" s="74"/>
     </row>
     <row r="85" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9160,10 +9106,10 @@
       <c r="Q85" s="1">
         <v>-6465000000</v>
       </c>
-      <c r="X85" s="77" t="s">
+      <c r="X85" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="Y85" s="78"/>
+      <c r="Y85" s="72"/>
     </row>
     <row r="86" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -9217,10 +9163,10 @@
       <c r="Q86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X86" s="46" t="s">
+      <c r="X86" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="Y86" s="47">
+      <c r="Y86" s="50">
         <f>Q19</f>
         <v>191000000</v>
       </c>
@@ -9277,10 +9223,10 @@
       <c r="Q87" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X87" s="46" t="s">
+      <c r="X87" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="Y87" s="47">
+      <c r="Y87" s="50">
         <f>Q58</f>
         <v>1502000000</v>
       </c>
@@ -9337,10 +9283,10 @@
       <c r="Q88" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X88" s="46" t="s">
+      <c r="X88" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="Y88" s="47">
+      <c r="Y88" s="50">
         <f>Q63</f>
         <v>1597000000</v>
       </c>
@@ -9397,10 +9343,10 @@
       <c r="Q89" s="10">
         <v>14724000000</v>
       </c>
-      <c r="X89" s="48" t="s">
+      <c r="X89" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="Y89" s="49">
+      <c r="Y89" s="52">
         <f>Y86/(Y87+Y88)</f>
         <v>6.1632784769280413E-2</v>
       </c>
@@ -9457,10 +9403,10 @@
       <c r="Q90" s="1">
         <v>-7163000000</v>
       </c>
-      <c r="X90" s="46" t="s">
+      <c r="X90" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="Y90" s="47">
+      <c r="Y90" s="50">
         <f>Q29</f>
         <v>1132000000</v>
       </c>
@@ -9533,10 +9479,10 @@
         <f t="shared" si="81"/>
         <v>8.7930568854189678E-2</v>
       </c>
-      <c r="X91" s="46" t="s">
+      <c r="X91" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="Y91" s="47">
+      <c r="Y91" s="50">
         <f>Q27</f>
         <v>13719000000</v>
       </c>
@@ -9593,10 +9539,10 @@
       <c r="Q92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X92" s="48" t="s">
+      <c r="X92" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="Y92" s="49">
+      <c r="Y92" s="52">
         <f>Y90/Y91</f>
         <v>8.2513302718857054E-2</v>
       </c>
@@ -9653,10 +9599,10 @@
       <c r="Q93" s="1">
         <v>-5835000000</v>
       </c>
-      <c r="X93" s="50" t="s">
+      <c r="X93" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="Y93" s="51">
+      <c r="Y93" s="52">
         <f>Y89*(1-Y92)</f>
         <v>5.6547260142206617E-2</v>
       </c>
@@ -9713,10 +9659,10 @@
       <c r="Q94" s="1">
         <v>22000000</v>
       </c>
-      <c r="X94" s="77" t="s">
+      <c r="X94" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="Y94" s="78"/>
+      <c r="Y94" s="72"/>
     </row>
     <row r="95" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -9770,12 +9716,12 @@
       <c r="Q95" s="1">
         <v>1003000000</v>
       </c>
-      <c r="X95" s="46" t="s">
+      <c r="X95" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="Y95" s="52">
+      <c r="Y95" s="53">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9830,12 +9776,12 @@
       <c r="Q96" s="10">
         <v>-11973000000</v>
       </c>
-      <c r="X96" s="46" t="s">
+      <c r="X96" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="Y96" s="53" cm="1">
+      <c r="Y96" s="54" cm="1">
         <f t="array" ref="Y96">_FV(A1,"Beta")</f>
-        <v>2.032</v>
+        <v>2.0352000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9890,10 +9836,10 @@
       <c r="Q97" s="1">
         <v>-3866000000</v>
       </c>
-      <c r="X97" s="46" t="s">
+      <c r="X97" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="Y97" s="52">
+      <c r="Y97" s="53">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -9949,12 +9895,12 @@
       <c r="Q98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X98" s="50" t="s">
+      <c r="X98" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="Y98" s="51">
+      <c r="Y98" s="52">
         <f>(Y95)+((Y96)*(Y97-Y95))</f>
-        <v>0.13210152</v>
+        <v>0.13106019200000002</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10009,10 +9955,10 @@
       <c r="Q99" s="20">
         <v>0</v>
       </c>
-      <c r="X99" s="77" t="s">
+      <c r="X99" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="Y99" s="78"/>
+      <c r="Y99" s="72"/>
     </row>
     <row r="100" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -10066,10 +10012,10 @@
       <c r="Q100" s="20">
         <v>0</v>
       </c>
-      <c r="X100" s="46" t="s">
+      <c r="X100" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="Y100" s="47">
+      <c r="Y100" s="50">
         <f>Y87+Y88</f>
         <v>3099000000</v>
       </c>
@@ -10126,12 +10072,12 @@
       <c r="Q101" s="1">
         <v>339000000</v>
       </c>
-      <c r="X101" s="48" t="s">
+      <c r="X101" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="Y101" s="49">
+      <c r="Y101" s="52">
         <f>Y100/Y104</f>
-        <v>3.7959621937354252E-3</v>
+        <v>3.7212706464894909E-3</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10186,12 +10132,12 @@
       <c r="Q102" s="10">
         <v>-3527000000</v>
       </c>
-      <c r="X102" s="46" t="s">
+      <c r="X102" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="Y102" s="35" cm="1">
+      <c r="Y102" s="55" cm="1">
         <f t="array" ref="Y102">+_FV(A1,"Market cap",TRUE)</f>
-        <v>813294800000</v>
+        <v>829681062080</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10246,12 +10192,12 @@
       <c r="Q103" s="1">
         <v>-444000000</v>
       </c>
-      <c r="X103" s="48" t="s">
+      <c r="X103" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="Y103" s="49">
+      <c r="Y103" s="52">
         <f>Y102/Y104</f>
-        <v>0.99620403780626454</v>
+        <v>0.99627872935351047</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10306,12 +10252,12 @@
       <c r="Q104" s="10">
         <v>-1220000000</v>
       </c>
-      <c r="X104" s="50" t="s">
+      <c r="X104" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="Y104" s="54">
+      <c r="Y104" s="56">
         <f>Y100+Y102</f>
-        <v>816393800000</v>
+        <v>832780062080</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -10366,10 +10312,10 @@
       <c r="Q105" s="1">
         <v>18144000000</v>
       </c>
-      <c r="X105" s="77" t="s">
+      <c r="X105" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="Y105" s="78"/>
+      <c r="Y105" s="72"/>
     </row>
     <row r="106" spans="1:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
@@ -10423,12 +10369,12 @@
       <c r="Q106" s="11">
         <v>16924000000</v>
       </c>
-      <c r="X106" s="22" t="s">
+      <c r="X106" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="Y106" s="21">
+      <c r="Y106" s="58">
         <f>(Y101*Y93)+(Y103*Y98)</f>
-        <v>0.13181471888600416</v>
+        <v>0.13078290921389374</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -10499,33 +10445,33 @@
         <f>(Q24*(1-$Y$92))+Q79+Q90+Q83</f>
         <v>5943198338.0712891</v>
       </c>
-      <c r="R107" s="25">
+      <c r="R107" s="23">
         <f>Q107*(1+$Y$108)</f>
         <v>7115216984.2760525</v>
       </c>
-      <c r="S107" s="25">
+      <c r="S107" s="23">
         <f t="shared" ref="S107:V107" si="83">R107*(1+$Y$108)</f>
         <v>8518361638.5516529</v>
       </c>
-      <c r="T107" s="25">
+      <c r="T107" s="23">
         <f t="shared" si="83"/>
         <v>10198211124.903786</v>
       </c>
-      <c r="U107" s="25">
+      <c r="U107" s="23">
         <f t="shared" si="83"/>
         <v>12209332564.306894</v>
       </c>
-      <c r="V107" s="25">
+      <c r="V107" s="23">
         <f t="shared" si="83"/>
         <v>14617053897.01384</v>
       </c>
-      <c r="W107" s="26" t="s">
+      <c r="W107" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="X107" s="73" t="s">
+      <c r="X107" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="Y107" s="74"/>
+      <c r="Y107" s="70"/>
     </row>
     <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
@@ -10592,34 +10538,34 @@
         <f t="shared" si="84"/>
         <v>1.1708297444731555</v>
       </c>
-      <c r="R108" s="69">
+      <c r="R108" s="43">
         <v>10013000000</v>
       </c>
-      <c r="S108" s="69">
+      <c r="S108" s="43">
         <v>16730000000</v>
       </c>
-      <c r="T108" s="69">
+      <c r="T108" s="43">
         <v>22882000000</v>
       </c>
-      <c r="U108" s="69">
+      <c r="U108" s="43">
         <v>25693000000</v>
       </c>
-      <c r="V108" s="69">
+      <c r="V108" s="43">
         <v>28392000000</v>
       </c>
-      <c r="W108" s="26" t="s">
+      <c r="W108" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="X108" s="27" t="s">
+      <c r="X108" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="Y108" s="28">
+      <c r="Y108" s="60">
         <f>(SUM(R6:V6)/5)</f>
         <v>0.1972033540756965</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="72" t="s">
+      <c r="A109" s="46" t="s">
         <v>166</v>
       </c>
       <c r="B109" s="1">
@@ -10670,139 +10616,139 @@
       <c r="Q109" s="1">
         <v>7561000000</v>
       </c>
-      <c r="R109" s="26"/>
-      <c r="S109" s="26"/>
-      <c r="T109" s="26"/>
-      <c r="U109" s="26"/>
-      <c r="V109" s="70">
+      <c r="R109" s="24"/>
+      <c r="S109" s="24"/>
+      <c r="T109" s="24"/>
+      <c r="U109" s="24"/>
+      <c r="V109" s="44">
         <f>V108*(1+Y109)/(Y110-Y109)</f>
-        <v>272451215558.20694</v>
-      </c>
-      <c r="W109" s="29" t="s">
+        <v>275108712893.83771</v>
+      </c>
+      <c r="W109" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="X109" s="30" t="s">
+      <c r="X109" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="Y109" s="31">
+      <c r="Y109" s="62">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R110" s="70">
+      <c r="R110" s="44">
         <f t="shared" ref="R110:U110" si="85">R109+R108</f>
         <v>10013000000</v>
       </c>
-      <c r="S110" s="70">
+      <c r="S110" s="44">
         <f t="shared" si="85"/>
         <v>16730000000</v>
       </c>
-      <c r="T110" s="70">
+      <c r="T110" s="44">
         <f t="shared" si="85"/>
         <v>22882000000</v>
       </c>
-      <c r="U110" s="70">
+      <c r="U110" s="44">
         <f t="shared" si="85"/>
         <v>25693000000</v>
       </c>
-      <c r="V110" s="70">
+      <c r="V110" s="44">
         <f>V109+V108</f>
-        <v>300843215558.20691</v>
-      </c>
-      <c r="W110" s="29" t="s">
+        <v>303500712893.83771</v>
+      </c>
+      <c r="W110" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="X110" s="32" t="s">
+      <c r="X110" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="Y110" s="33">
+      <c r="Y110" s="60">
         <f>Y106</f>
-        <v>0.13181471888600416</v>
+        <v>0.13078290921389374</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R111" s="75" t="s">
+      <c r="R111" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="S111" s="76"/>
+      <c r="S111" s="71"/>
     </row>
     <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R112" s="34" t="s">
+      <c r="R112" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="S112" s="35">
+      <c r="S112" s="55">
         <f>NPV(Y110,R110,S110,T110,U110,V110)</f>
-        <v>215327108004.67233</v>
+        <v>217637255388.91721</v>
       </c>
     </row>
     <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R113" s="34" t="s">
+      <c r="R113" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="S113" s="35">
+      <c r="S113" s="55">
         <f>Q42</f>
         <v>22185000000</v>
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R114" s="34" t="s">
+      <c r="R114" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="S114" s="35">
+      <c r="S114" s="55">
         <f>Y100</f>
         <v>3099000000</v>
       </c>
     </row>
     <row r="115" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R115" s="34" t="s">
+      <c r="R115" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="S115" s="35">
+      <c r="S115" s="55">
         <f>S112+S113-S114</f>
-        <v>234413108004.67233</v>
+        <v>236723255388.91721</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R116" s="34" t="s">
+      <c r="R116" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="S116" s="45">
+      <c r="S116" s="64">
         <f>Q36*(1+(W18*5))</f>
         <v>4496300737.147871</v>
       </c>
     </row>
     <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R117" s="36" t="s">
+      <c r="R117" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="S117" s="56">
+      <c r="S117" s="66">
         <f>S115/S116</f>
-        <v>52.134659514204806</v>
+        <v>52.648447963709245</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R118" s="34" t="s">
+      <c r="R118" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="S118" s="55" cm="1">
+      <c r="S118" s="67" cm="1">
         <f t="array" ref="S118">_FV(A1,"Price",TRUE)</f>
-        <v>256.60000000000002</v>
+        <v>261.77</v>
       </c>
     </row>
     <row r="119" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R119" s="37" t="s">
+      <c r="R119" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="S119" s="38">
+      <c r="S119" s="68">
         <f>S117/S118-1</f>
-        <v>-0.79682517726342628</v>
+        <v>-0.79887516536001357</v>
       </c>
     </row>
     <row r="120" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R120" s="37" t="s">
+      <c r="R120" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="S120" s="39" t="str">
+      <c r="S120" s="69" t="str">
         <f>IF(S117&gt;S118,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/Tesla.xlsx
+++ b/Technology/Hardware/Tesla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269DA7F9-0351-F343-9E63-597CA883BBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204A27BA-5E5E-9446-BF42-1EE32D7483A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3291,7 +3291,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -3305,10 +3304,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -3322,14 +3323,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -3339,6 +3340,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3466,11 +3468,11 @@
     <v>Powered by Refinitiv</v>
     <v>314.66640000000001</v>
     <v>101.81</v>
-    <v>2.0352000000000001</v>
-    <v>4.2699999999999996</v>
-    <v>1.6583000000000001E-2</v>
-    <v>0.01</v>
-    <v>3.82E-5</v>
+    <v>2.0807000000000002</v>
+    <v>-2.11</v>
+    <v>-7.6300000000000005E-3</v>
+    <v>0.52</v>
+    <v>1.895E-3</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
     <v>127855</v>
@@ -3478,25 +3480,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>264.45</v>
+    <v>280.77999999999997</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45107.99999777734</v>
+    <v>45114.99999486094</v>
     <v>0</v>
-    <v>259.89</v>
-    <v>829681062080</v>
+    <v>273.77</v>
+    <v>869806982720</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>260.60000000000002</v>
-    <v>75.811899999999994</v>
-    <v>257.5</v>
-    <v>261.77</v>
-    <v>261.77999999999997</v>
+    <v>278.43</v>
+    <v>81.417599999999993</v>
+    <v>276.54000000000002</v>
+    <v>274.43</v>
+    <v>274.95</v>
     <v>3169504000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>112620784</v>
-    <v>160261554</v>
+    <v>113879174</v>
+    <v>158629112</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -4084,10 +4086,10 @@
   <dimension ref="A1:Z120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="S104" sqref="S104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5318,15 +5320,15 @@
       </c>
       <c r="X18" s="39">
         <f>Y102/Q5</f>
-        <v>10.184884511551399</v>
+        <v>10.677456761680293</v>
       </c>
       <c r="Y18" s="39">
         <f>Y102/Q30</f>
-        <v>66.078453494743542</v>
+        <v>69.274210156100665</v>
       </c>
       <c r="Z18" s="40">
         <f>Y102/Q109</f>
-        <v>109.7316574632985</v>
+        <v>115.03861694484857</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5520,15 +5522,15 @@
       </c>
       <c r="X21" s="39">
         <f>Y102/R5</f>
-        <v>8.3177714047399451</v>
+        <v>8.7200443389341142</v>
       </c>
       <c r="Y21" s="42">
         <f>Y102/R30</f>
-        <v>69.348132905382812</v>
+        <v>72.702021290538283</v>
       </c>
       <c r="Z21" s="40">
         <f>Y102/R107</f>
-        <v>116.60657207131078</v>
+        <v>122.24602350739129</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5754,7 +5756,7 @@
       </c>
       <c r="Z24" s="48">
         <f>Q109/Y102</f>
-        <v>9.1131403928211493E-3</v>
+        <v>8.6927331582873323E-3</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -9721,7 +9723,7 @@
       </c>
       <c r="Y95" s="53">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9781,7 +9783,7 @@
       </c>
       <c r="Y96" s="54" cm="1">
         <f t="array" ref="Y96">_FV(A1,"Beta")</f>
-        <v>2.0352000000000001</v>
+        <v>2.0807000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9900,7 +9902,7 @@
       </c>
       <c r="Y98" s="52">
         <f>(Y95)+((Y96)*(Y97-Y95))</f>
-        <v>0.13106019200000002</v>
+        <v>0.13110771300000001</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10077,7 +10079,7 @@
       </c>
       <c r="Y101" s="52">
         <f>Y100/Y104</f>
-        <v>3.7212706464894909E-3</v>
+        <v>3.5502105167654224E-3</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10137,7 +10139,7 @@
       </c>
       <c r="Y102" s="55" cm="1">
         <f t="array" ref="Y102">+_FV(A1,"Market cap",TRUE)</f>
-        <v>829681062080</v>
+        <v>869806982720</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10197,7 +10199,7 @@
       </c>
       <c r="Y103" s="52">
         <f>Y102/Y104</f>
-        <v>0.99627872935351047</v>
+        <v>0.99644978948323459</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10257,7 +10259,7 @@
       </c>
       <c r="Y104" s="56">
         <f>Y100+Y102</f>
-        <v>832780062080</v>
+        <v>872905982720</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -10374,7 +10376,7 @@
       </c>
       <c r="Y106" s="58">
         <f>(Y101*Y93)+(Y103*Y98)</f>
-        <v>0.13078290921389374</v>
+        <v>0.13084300769612947</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -10622,7 +10624,7 @@
       <c r="U109" s="24"/>
       <c r="V109" s="44">
         <f>V108*(1+Y109)/(Y110-Y109)</f>
-        <v>275108712893.83771</v>
+        <v>274952504028.89111</v>
       </c>
       <c r="W109" s="25" t="s">
         <v>142</v>
@@ -10653,7 +10655,7 @@
       </c>
       <c r="V110" s="44">
         <f>V109+V108</f>
-        <v>303500712893.83771</v>
+        <v>303344504028.89111</v>
       </c>
       <c r="W110" s="25" t="s">
         <v>133</v>
@@ -10663,7 +10665,7 @@
       </c>
       <c r="Y110" s="60">
         <f>Y106</f>
-        <v>0.13078290921389374</v>
+        <v>0.13084300769612947</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -10678,7 +10680,7 @@
       </c>
       <c r="S112" s="55">
         <f>NPV(Y110,R110,S110,T110,U110,V110)</f>
-        <v>217637255388.91721</v>
+        <v>217501446224.75229</v>
       </c>
     </row>
     <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -10705,7 +10707,7 @@
       </c>
       <c r="S115" s="55">
         <f>S112+S113-S114</f>
-        <v>236723255388.91721</v>
+        <v>236587446224.75229</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -10723,7 +10725,7 @@
       </c>
       <c r="S117" s="66">
         <f>S115/S116</f>
-        <v>52.648447963709245</v>
+        <v>52.618243319468505</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -10732,7 +10734,7 @@
       </c>
       <c r="S118" s="67" cm="1">
         <f t="array" ref="S118">_FV(A1,"Price",TRUE)</f>
-        <v>261.77</v>
+        <v>274.43</v>
       </c>
     </row>
     <row r="119" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -10741,7 +10743,7 @@
       </c>
       <c r="S119" s="68">
         <f>S117/S118-1</f>
-        <v>-0.79887516536001357</v>
+        <v>-0.80826351594407131</v>
       </c>
     </row>
     <row r="120" spans="18:19" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Tesla.xlsx
+++ b/Technology/Hardware/Tesla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204A27BA-5E5E-9446-BF42-1EE32D7483A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D800AAB9-EBDE-E44C-BC3D-6EFF9747A3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -567,9 +567,6 @@
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
-    <t>Shares</t>
-  </si>
-  <si>
     <t>Unlevered FCF</t>
   </si>
   <si>
@@ -580,6 +577,9 @@
   </si>
   <si>
     <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Shares (5% dilution)</t>
   </si>
 </sst>
 </file>
@@ -1038,6 +1038,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE00802"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3289,8 +3294,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -3299,21 +3303,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -3323,24 +3328,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3468,11 +3461,9 @@
     <v>Powered by Refinitiv</v>
     <v>314.66640000000001</v>
     <v>101.81</v>
-    <v>2.0807000000000002</v>
-    <v>-2.11</v>
-    <v>-7.6300000000000005E-3</v>
-    <v>0.52</v>
-    <v>1.895E-3</v>
+    <v>2.0783</v>
+    <v>-4.82</v>
+    <v>-1.7564E-2</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
     <v>127855</v>
@@ -3480,25 +3471,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>280.77999999999997</v>
+    <v>277.52</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45114.99999486094</v>
+    <v>45117.999984096874</v>
     <v>0</v>
-    <v>273.77</v>
-    <v>869806982720</v>
+    <v>265.10000000000002</v>
+    <v>854529973440</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>278.43</v>
-    <v>81.417599999999993</v>
-    <v>276.54000000000002</v>
+    <v>276.47000000000003</v>
+    <v>79.377300000000005</v>
     <v>274.43</v>
-    <v>274.95</v>
+    <v>269.61</v>
     <v>3169504000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>113879174</v>
-    <v>158629112</v>
+    <v>300330</v>
+    <v>157155809</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -3530,8 +3520,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3552,7 +3540,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3569,7 +3556,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3580,16 +3567,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3655,19 +3639,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3712,9 +3690,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3722,9 +3697,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -4086,10 +4058,10 @@
   <dimension ref="A1:Z120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S104" sqref="S104"/>
+      <selection pane="bottomRight" activeCell="AA126" sqref="AA126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4422,19 +4394,19 @@
         <v>81462000000</v>
       </c>
       <c r="R5" s="17">
-        <v>99748000000</v>
+        <v>100500000000</v>
       </c>
       <c r="S5" s="17">
-        <v>128400000000</v>
+        <v>129100000000</v>
       </c>
       <c r="T5" s="17">
-        <v>156700000000</v>
+        <v>156800000000</v>
       </c>
       <c r="U5" s="17">
-        <v>163400000000</v>
+        <v>171500000000</v>
       </c>
       <c r="V5" s="17">
-        <v>197900000000</v>
+        <v>203200000000</v>
       </c>
       <c r="W5" s="32" t="s">
         <v>99</v>
@@ -4516,23 +4488,23 @@
       </c>
       <c r="R6" s="18">
         <f t="shared" ref="R6" si="14">(R5/Q5)-1</f>
-        <v>0.22447276030541841</v>
+        <v>0.23370405833394714</v>
       </c>
       <c r="S6" s="18">
         <f t="shared" ref="S6" si="15">(S5/R5)-1</f>
-        <v>0.28724385451337375</v>
+        <v>0.2845771144278606</v>
       </c>
       <c r="T6" s="18">
         <f t="shared" ref="T6" si="16">(T5/S5)-1</f>
-        <v>0.22040498442367595</v>
+        <v>0.21456235476374896</v>
       </c>
       <c r="U6" s="18">
         <f>(U5/T5)-1</f>
-        <v>4.2756860242501693E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="V6" s="18">
         <f t="shared" ref="V6" si="17">(V5/U5)-1</f>
-        <v>0.21113831089351276</v>
+        <v>0.18483965014577253</v>
       </c>
       <c r="W6" s="28">
         <f>(Q6+P6+O6)/3</f>
@@ -5320,15 +5292,15 @@
       </c>
       <c r="X18" s="39">
         <f>Y102/Q5</f>
-        <v>10.677456761680293</v>
+        <v>10.489921355233115</v>
       </c>
       <c r="Y18" s="39">
         <f>Y102/Q30</f>
-        <v>69.274210156100665</v>
+        <v>68.057500273972607</v>
       </c>
       <c r="Z18" s="40">
         <f>Y102/Q109</f>
-        <v>115.03861694484857</v>
+        <v>113.0181157836265</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5502,19 +5474,19 @@
         <v>17626000000</v>
       </c>
       <c r="R21" s="35">
-        <v>18236000000</v>
+        <v>18139000000</v>
       </c>
       <c r="S21" s="35">
-        <v>25803000000</v>
+        <v>23357000000</v>
       </c>
       <c r="T21" s="35">
-        <v>32948000000</v>
+        <v>32721000000</v>
       </c>
       <c r="U21" s="35">
-        <v>37600000000</v>
+        <v>36051000000</v>
       </c>
       <c r="V21" s="35">
-        <v>40390000000</v>
+        <v>41959000000</v>
       </c>
       <c r="W21" s="30">
         <f>Q42-Q58-Q63</f>
@@ -5522,15 +5494,15 @@
       </c>
       <c r="X21" s="39">
         <f>Y102/R5</f>
-        <v>8.7200443389341142</v>
+        <v>8.5027858053731347</v>
       </c>
       <c r="Y21" s="42">
         <f>Y102/R30</f>
-        <v>72.702021290538283</v>
+        <v>69.575799824132872</v>
       </c>
       <c r="Z21" s="40">
         <f>Y102/R107</f>
-        <v>122.24602350739129</v>
+        <v>119.59115413520176</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5600,23 +5572,23 @@
       </c>
       <c r="R22" s="18">
         <f t="shared" ref="R22" si="45">(R21/Q21)-1</f>
-        <v>3.4607965505503158E-2</v>
+        <v>2.9104731646431459E-2</v>
       </c>
       <c r="S22" s="18">
         <f t="shared" ref="S22" si="46">(S21/R21)-1</f>
-        <v>0.4149484536082475</v>
+        <v>0.28766745686090744</v>
       </c>
       <c r="T22" s="18">
         <f t="shared" ref="T22" si="47">(T21/S21)-1</f>
-        <v>0.27690578614889749</v>
+        <v>0.40090765081131985</v>
       </c>
       <c r="U22" s="18">
         <f t="shared" ref="U22" si="48">(U21/T21)-1</f>
-        <v>0.14119218161952163</v>
+        <v>0.10176950582194921</v>
       </c>
       <c r="V22" s="18">
         <f t="shared" ref="V22" si="49">(V21/U21)-1</f>
-        <v>7.4202127659574568E-2</v>
+        <v>0.16387894926631708</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -5673,29 +5645,29 @@
       </c>
       <c r="R23" s="36">
         <f>R21/R5</f>
-        <v>0.18282070818462526</v>
+        <v>0.18048756218905473</v>
       </c>
       <c r="S23" s="36">
         <f t="shared" ref="S23:V23" si="50">S21/S5</f>
-        <v>0.20095794392523364</v>
+        <v>0.18092176607281177</v>
       </c>
       <c r="T23" s="36">
         <f t="shared" si="50"/>
-        <v>0.21026164645820039</v>
+        <v>0.2086798469387755</v>
       </c>
       <c r="U23" s="36">
         <f t="shared" si="50"/>
-        <v>0.23011015911872704</v>
+        <v>0.21020991253644314</v>
       </c>
       <c r="V23" s="36">
         <f t="shared" si="50"/>
-        <v>0.20409297625063164</v>
+        <v>0.20649114173228347</v>
       </c>
       <c r="Y23" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z23" s="27" t="s">
         <v>167</v>
-      </c>
-      <c r="Z23" s="27" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5756,7 +5728,7 @@
       </c>
       <c r="Z24" s="48">
         <f>Q109/Y102</f>
-        <v>8.6927331582873323E-3</v>
+        <v>8.8481390179473776E-3</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -6077,19 +6049,19 @@
         <v>12556000000</v>
       </c>
       <c r="R30" s="37">
-        <v>11964000000</v>
+        <v>12282000000</v>
       </c>
       <c r="S30" s="37">
-        <v>16507000000</v>
+        <v>16393000000</v>
       </c>
       <c r="T30" s="37">
         <v>21154000000</v>
       </c>
       <c r="U30" s="37">
-        <v>23893000000</v>
+        <v>23263000000</v>
       </c>
       <c r="V30" s="37">
-        <v>26482000000</v>
+        <v>23295000000</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6159,23 +6131,23 @@
       </c>
       <c r="R31" s="18">
         <f t="shared" ref="R31" si="63">(R30/Q30)-1</f>
-        <v>-4.7148773494743557E-2</v>
+        <v>-2.1822236381013105E-2</v>
       </c>
       <c r="S31" s="18">
         <f t="shared" ref="S31" si="64">(S30/R30)-1</f>
-        <v>0.37972250083584091</v>
+        <v>0.33471747272431207</v>
       </c>
       <c r="T31" s="18">
         <f t="shared" ref="T31" si="65">(T30/S30)-1</f>
-        <v>0.28151693221057728</v>
+        <v>0.29042884157872262</v>
       </c>
       <c r="U31" s="18">
         <f t="shared" ref="U31" si="66">(U30/T30)-1</f>
-        <v>0.12947905833412121</v>
+        <v>9.9697456745769131E-2</v>
       </c>
       <c r="V31" s="18">
         <f t="shared" ref="V31" si="67">(V30/U30)-1</f>
-        <v>0.10835809651362327</v>
+        <v>1.375574947341196E-3</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -6232,23 +6204,23 @@
       </c>
       <c r="R32" s="36">
         <f>R30/R5</f>
-        <v>0.11994225448129286</v>
+        <v>0.1222089552238806</v>
       </c>
       <c r="S32" s="36">
         <f t="shared" ref="S32:V32" si="68">S30/S5</f>
-        <v>0.12855919003115265</v>
+        <v>0.12697908597986057</v>
       </c>
       <c r="T32" s="36">
         <f t="shared" si="68"/>
-        <v>0.13499680918953413</v>
+        <v>0.13491071428571427</v>
       </c>
       <c r="U32" s="36">
         <f t="shared" si="68"/>
-        <v>0.14622399020807833</v>
+        <v>0.13564431486880466</v>
       </c>
       <c r="V32" s="36">
         <f t="shared" si="68"/>
-        <v>0.13381505811015665</v>
+        <v>0.11464074803149606</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -6304,19 +6276,19 @@
         <v>4.24</v>
       </c>
       <c r="R33" s="38">
-        <v>3.77</v>
+        <v>3.88</v>
       </c>
       <c r="S33" s="38">
-        <v>5.21</v>
+        <v>5.17</v>
       </c>
       <c r="T33" s="38">
         <v>6.67</v>
       </c>
       <c r="U33" s="38">
-        <v>7.54</v>
+        <v>7.34</v>
       </c>
       <c r="V33" s="38">
-        <v>8.36</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -9723,7 +9695,7 @@
       </c>
       <c r="Y95" s="53">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9783,7 +9755,7 @@
       </c>
       <c r="Y96" s="54" cm="1">
         <f t="array" ref="Y96">_FV(A1,"Beta")</f>
-        <v>2.0807000000000002</v>
+        <v>2.0783</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9902,7 +9874,7 @@
       </c>
       <c r="Y98" s="52">
         <f>(Y95)+((Y96)*(Y97-Y95))</f>
-        <v>0.13110771300000001</v>
+        <v>0.13092761600000002</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10079,7 +10051,7 @@
       </c>
       <c r="Y101" s="52">
         <f>Y100/Y104</f>
-        <v>3.5502105167654224E-3</v>
+        <v>3.6134506831896427E-3</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10139,7 +10111,7 @@
       </c>
       <c r="Y102" s="55" cm="1">
         <f t="array" ref="Y102">+_FV(A1,"Market cap",TRUE)</f>
-        <v>869806982720</v>
+        <v>854529973440</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10199,7 +10171,7 @@
       </c>
       <c r="Y103" s="52">
         <f>Y102/Y104</f>
-        <v>0.99644978948323459</v>
+        <v>0.99638654931681037</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10259,7 +10231,7 @@
       </c>
       <c r="Y104" s="56">
         <f>Y100+Y102</f>
-        <v>872905982720</v>
+        <v>857628973440</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -10376,12 +10348,12 @@
       </c>
       <c r="Y106" s="58">
         <f>(Y101*Y93)+(Y103*Y98)</f>
-        <v>0.13084300769612947</v>
+        <v>0.13065884625230978</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" ref="B107:P107" si="82">(B24*(1-$Y$92))+B79+B90+B83</f>
@@ -10449,23 +10421,23 @@
       </c>
       <c r="R107" s="23">
         <f>Q107*(1+$Y$108)</f>
-        <v>7115216984.2760525</v>
+        <v>7145427934.1925707</v>
       </c>
       <c r="S107" s="23">
         <f t="shared" ref="S107:V107" si="83">R107*(1+$Y$108)</f>
-        <v>8518361638.5516529</v>
+        <v>8590852510.4529457</v>
       </c>
       <c r="T107" s="23">
         <f t="shared" si="83"/>
-        <v>10198211124.903786</v>
+        <v>10328667161.163574</v>
       </c>
       <c r="U107" s="23">
         <f t="shared" si="83"/>
-        <v>12209332564.306894</v>
+        <v>12418018490.74861</v>
       </c>
       <c r="V107" s="23">
         <f t="shared" si="83"/>
-        <v>14617053897.01384</v>
+        <v>14930017671.244448</v>
       </c>
       <c r="W107" s="24" t="s">
         <v>162</v>
@@ -10541,19 +10513,19 @@
         <v>1.1708297444731555</v>
       </c>
       <c r="R108" s="43">
-        <v>10013000000</v>
+        <v>9915000000</v>
       </c>
       <c r="S108" s="43">
-        <v>16730000000</v>
+        <v>16378000000</v>
       </c>
       <c r="T108" s="43">
-        <v>22882000000</v>
+        <v>22579000000</v>
       </c>
       <c r="U108" s="43">
-        <v>25693000000</v>
+        <v>24607000000</v>
       </c>
       <c r="V108" s="43">
-        <v>28392000000</v>
+        <v>29974000000</v>
       </c>
       <c r="W108" s="24" t="s">
         <v>163</v>
@@ -10563,12 +10535,12 @@
       </c>
       <c r="Y108" s="60">
         <f>(SUM(R6:V6)/5)</f>
-        <v>0.1972033540756965</v>
+        <v>0.20228663553426585</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B109" s="1">
         <v>-63271000</v>
@@ -10624,7 +10596,7 @@
       <c r="U109" s="24"/>
       <c r="V109" s="44">
         <f>V108*(1+Y109)/(Y110-Y109)</f>
-        <v>274952504028.89111</v>
+        <v>290778776124.75214</v>
       </c>
       <c r="W109" s="25" t="s">
         <v>142</v>
@@ -10639,23 +10611,23 @@
     <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="R110" s="44">
         <f t="shared" ref="R110:U110" si="85">R109+R108</f>
-        <v>10013000000</v>
+        <v>9915000000</v>
       </c>
       <c r="S110" s="44">
         <f t="shared" si="85"/>
-        <v>16730000000</v>
+        <v>16378000000</v>
       </c>
       <c r="T110" s="44">
         <f t="shared" si="85"/>
-        <v>22882000000</v>
+        <v>22579000000</v>
       </c>
       <c r="U110" s="44">
         <f t="shared" si="85"/>
-        <v>25693000000</v>
+        <v>24607000000</v>
       </c>
       <c r="V110" s="44">
         <f>V109+V108</f>
-        <v>303344504028.89111</v>
+        <v>320752776124.75214</v>
       </c>
       <c r="W110" s="25" t="s">
         <v>133</v>
@@ -10665,7 +10637,7 @@
       </c>
       <c r="Y110" s="60">
         <f>Y106</f>
-        <v>0.13084300769612947</v>
+        <v>0.13065884625230978</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -10680,7 +10652,7 @@
       </c>
       <c r="S112" s="55">
         <f>NPV(Y110,R110,S110,T110,U110,V110)</f>
-        <v>217501446224.75229</v>
+        <v>225843605901.07419</v>
       </c>
     </row>
     <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -10707,16 +10679,16 @@
       </c>
       <c r="S115" s="55">
         <f>S112+S113-S114</f>
-        <v>236587446224.75229</v>
+        <v>244929605901.07419</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R116" s="64" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="S116" s="64">
-        <f>Q36*(1+(W18*5))</f>
-        <v>4496300737.147871</v>
+        <f>Q36*(1+(0.05*5))</f>
+        <v>4233750000</v>
       </c>
     </row>
     <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -10725,7 +10697,7 @@
       </c>
       <c r="S117" s="66">
         <f>S115/S116</f>
-        <v>52.618243319468505</v>
+        <v>57.851693156439133</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -10734,7 +10706,7 @@
       </c>
       <c r="S118" s="67" cm="1">
         <f t="array" ref="S118">_FV(A1,"Price",TRUE)</f>
-        <v>274.43</v>
+        <v>269.61</v>
       </c>
     </row>
     <row r="119" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -10743,7 +10715,7 @@
       </c>
       <c r="S119" s="68">
         <f>S117/S118-1</f>
-        <v>-0.80826351594407131</v>
+        <v>-0.78542452744171531</v>
       </c>
     </row>
     <row r="120" spans="18:19" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Tesla.xlsx
+++ b/Technology/Hardware/Tesla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D800AAB9-EBDE-E44C-BC3D-6EFF9747A3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4462CA-33E9-DE45-810C-B05BD262A493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -881,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1016,6 +1016,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1055,615 +1056,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2400"/>
-              <a:t>Tesla</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2800"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10387298949927613"/>
-          <c:y val="0.13701091711362168"/>
-          <c:w val="0.83871816643555708"/>
-          <c:h val="0.68477096322222486"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sheet 1'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Revenue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet 1'!$B$5:$Q$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>73000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14742000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>111943000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>116744000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>204242000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>413256000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2013496000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3198356000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4046025000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7000132000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11758751000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21461268000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24578000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>31536000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>53823000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>81462000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A12A-FF41-9E68-F078698961FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sheet 1'!$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet 1'!$B$21:$Q$21</c:f>
-              <c:numCache>
-                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>-73403000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-74781000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-46243000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-142540000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-236960000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-366998000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>67591000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>48181000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-334183000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>497693000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>177408000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1645867000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2087000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4052000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9500000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17626000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A12A-FF41-9E68-F078698961FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sheet 1'!$A$109</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Levered FCF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet 1'!$B$109:$Q$109</c:f>
-              <c:numCache>
-                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>-63271000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-62042000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-92709000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-168020000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-312260000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-505309000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-6230000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1027222000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2159349000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1564300000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-4142008000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-221714000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>968000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2701000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3483000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7561000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A12A-FF41-9E68-F078698961FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1629625855"/>
-        <c:axId val="1629503615"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1629625855"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1629503615"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1629503615"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,###,,;\(#,###,,\);\ \-\ \-" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1629625855"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34732358851313938"/>
-          <c:y val="0.90066525337810055"/>
-          <c:w val="0.32648180449876912"/>
-          <c:h val="5.7961580248644305E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1872,7 +1264,7 @@
                   <c:v>1313851</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1691500</c:v>
+                  <c:v>1798875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2155,6 +1547,786 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Tesla</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2174629324546958E-2"/>
+          <c:y val="0.14293597679588083"/>
+          <c:w val="0.86642504118616137"/>
+          <c:h val="0.63707056214828062"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$5:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>73000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14742000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111943000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116744000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>204242000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>413256000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013496000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3198356000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4046025000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7000132000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11758751000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21461268000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24578000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31536000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53823000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81462000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC5F-CD43-A576-D9290A752B75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$30:$Q$30</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-78157000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-82782000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-55740000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-154328000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-254411000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-396213000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-74014000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-294040000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-888663000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-674914000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1961400000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-976091000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-862000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>690000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5519000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12556000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC5F-CD43-A576-D9290A752B75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Levered FCF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$109:$Q$109</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-63271000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-62042000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-92709000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-168020000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-312260000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-505309000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6230000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1027222000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2159349000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1564300000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4142008000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-221714000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>968000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2701000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3483000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7561000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DC5F-CD43-A576-D9290A752B75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1514551488"/>
+        <c:axId val="1515080720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1514551488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1515080720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1515080720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,###,,;\(#,###,,\);\ \-\ \-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1514551488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34494467433745418"/>
+          <c:y val="0.8999680815504969"/>
+          <c:w val="0.31274646188172112"/>
+          <c:h val="5.9437495547855754E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3214,23 +3386,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>34925</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>33867</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1603374</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>49212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>31751</xdr:rowOff>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCE937A-9724-1209-1472-DFD4F922604F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912910ED-C7C6-09CA-D57D-FC2AF7203344}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3250,23 +3422,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>49212</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912910ED-C7C6-09CA-D57D-FC2AF7203344}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD93A9EB-DC19-5ED8-AD51-EAFC55FFCEEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3304,6 +3476,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -3315,7 +3488,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3334,6 +3507,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3461,9 +3635,11 @@
     <v>Powered by Refinitiv</v>
     <v>314.66640000000001</v>
     <v>101.81</v>
-    <v>2.0783</v>
-    <v>-4.82</v>
-    <v>-1.7564E-2</v>
+    <v>2.0779000000000001</v>
+    <v>-3.78</v>
+    <v>-1.4049000000000001E-2</v>
+    <v>-0.73</v>
+    <v>-2.7520000000000001E-3</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
     <v>127855</v>
@@ -3471,24 +3647,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>277.52</v>
+    <v>272.89999999999998</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45117.999984096874</v>
+    <v>45132.999996562503</v>
     <v>0</v>
-    <v>265.10000000000002</v>
-    <v>854529973440</v>
+    <v>265</v>
+    <v>840806021119</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>276.47000000000003</v>
-    <v>79.377300000000005</v>
-    <v>274.43</v>
-    <v>269.61</v>
+    <v>272.38</v>
+    <v>75.306899999999999</v>
+    <v>269.06</v>
+    <v>265.27999999999997</v>
+    <v>264.55</v>
     <v>3169504000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>300330</v>
-    <v>157155809</v>
+    <v>112757327</v>
+    <v>140969222</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -3520,6 +3697,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3540,6 +3719,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3556,7 +3736,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3567,13 +3747,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3639,13 +3822,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3690,6 +3879,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3697,6 +3889,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -4058,10 +4253,10 @@
   <dimension ref="A1:Z120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA126" sqref="AA126"/>
+      <selection pane="bottomRight" activeCell="S94" sqref="S94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4209,7 +4404,7 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="19" t="s">
         <v>153</v>
       </c>
       <c r="B3" s="1"/>
@@ -4251,8 +4446,7 @@
         <v>1313851</v>
       </c>
       <c r="R3" s="31">
-        <f>422875*4</f>
-        <v>1691500</v>
+        <v>1798875</v>
       </c>
       <c r="S3" s="20"/>
       <c r="T3" s="1"/>
@@ -4264,7 +4458,7 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="19" t="s">
         <v>158</v>
       </c>
       <c r="B4" s="1"/>
@@ -4330,7 +4524,7 @@
       </c>
       <c r="R4" s="18">
         <f t="shared" ref="R4" si="12">(R3/Q3)-1</f>
-        <v>0.28743670324869419</v>
+        <v>0.36916210437865482</v>
       </c>
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
@@ -4397,16 +4591,16 @@
         <v>100500000000</v>
       </c>
       <c r="S5" s="17">
-        <v>129100000000</v>
+        <v>126500000000</v>
       </c>
       <c r="T5" s="17">
-        <v>156800000000</v>
+        <v>156600000000</v>
       </c>
       <c r="U5" s="17">
-        <v>171500000000</v>
+        <v>175500000000</v>
       </c>
       <c r="V5" s="17">
-        <v>203200000000</v>
+        <v>196800000000</v>
       </c>
       <c r="W5" s="32" t="s">
         <v>99</v>
@@ -4492,19 +4686,19 @@
       </c>
       <c r="S6" s="18">
         <f t="shared" ref="S6" si="15">(S5/R5)-1</f>
-        <v>0.2845771144278606</v>
+        <v>0.25870646766169147</v>
       </c>
       <c r="T6" s="18">
         <f t="shared" ref="T6" si="16">(T5/S5)-1</f>
-        <v>0.21456235476374896</v>
+        <v>0.23794466403162051</v>
       </c>
       <c r="U6" s="18">
         <f>(U5/T5)-1</f>
-        <v>9.375E-2</v>
+        <v>0.1206896551724137</v>
       </c>
       <c r="V6" s="18">
         <f t="shared" ref="V6" si="17">(V5/U5)-1</f>
-        <v>0.18483965014577253</v>
+        <v>0.12136752136752138</v>
       </c>
       <c r="W6" s="28">
         <f>(Q6+P6+O6)/3</f>
@@ -5292,15 +5486,15 @@
       </c>
       <c r="X18" s="39">
         <f>Y102/Q5</f>
-        <v>10.489921355233115</v>
+        <v>10.321450751503768</v>
       </c>
       <c r="Y18" s="39">
         <f>Y102/Q30</f>
-        <v>68.057500273972607</v>
+        <v>66.964480815466715</v>
       </c>
       <c r="Z18" s="40">
         <f>Y102/Q109</f>
-        <v>113.0181157836265</v>
+        <v>111.20301826729269</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5474,19 +5668,19 @@
         <v>17626000000</v>
       </c>
       <c r="R21" s="35">
-        <v>18139000000</v>
+        <v>18041000000</v>
       </c>
       <c r="S21" s="35">
-        <v>23357000000</v>
+        <v>24837000000</v>
       </c>
       <c r="T21" s="35">
-        <v>32721000000</v>
+        <v>31695000000</v>
       </c>
       <c r="U21" s="35">
-        <v>36051000000</v>
+        <v>38967000000</v>
       </c>
       <c r="V21" s="35">
-        <v>41959000000</v>
+        <v>42632000000</v>
       </c>
       <c r="W21" s="30">
         <f>Q42-Q58-Q63</f>
@@ -5494,15 +5688,15 @@
       </c>
       <c r="X21" s="39">
         <f>Y102/R5</f>
-        <v>8.5027858053731347</v>
+        <v>8.366229065860697</v>
       </c>
       <c r="Y21" s="42">
         <f>Y102/R30</f>
-        <v>69.575799824132872</v>
+        <v>70.242775364995822</v>
       </c>
       <c r="Z21" s="40">
         <f>Y102/R107</f>
-        <v>119.59115413520176</v>
+        <v>118.4392933190409</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5572,23 +5766,23 @@
       </c>
       <c r="R22" s="18">
         <f t="shared" ref="R22" si="45">(R21/Q21)-1</f>
-        <v>2.9104731646431459E-2</v>
+        <v>2.3544763417678416E-2</v>
       </c>
       <c r="S22" s="18">
         <f t="shared" ref="S22" si="46">(S21/R21)-1</f>
-        <v>0.28766745686090744</v>
+        <v>0.3766975223102933</v>
       </c>
       <c r="T22" s="18">
         <f t="shared" ref="T22" si="47">(T21/S21)-1</f>
-        <v>0.40090765081131985</v>
+        <v>0.27612030438458746</v>
       </c>
       <c r="U22" s="18">
         <f t="shared" ref="U22" si="48">(U21/T21)-1</f>
-        <v>0.10176950582194921</v>
+        <v>0.22943681968764795</v>
       </c>
       <c r="V22" s="18">
         <f t="shared" ref="V22" si="49">(V21/U21)-1</f>
-        <v>0.16387894926631708</v>
+        <v>9.4053943080042002E-2</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -5643,25 +5837,25 @@
       <c r="Q23" s="2">
         <v>0.21640000000000001</v>
       </c>
-      <c r="R23" s="36">
+      <c r="R23" s="70">
         <f>R21/R5</f>
-        <v>0.18048756218905473</v>
-      </c>
-      <c r="S23" s="36">
+        <v>0.17951243781094528</v>
+      </c>
+      <c r="S23" s="70">
         <f t="shared" ref="S23:V23" si="50">S21/S5</f>
-        <v>0.18092176607281177</v>
-      </c>
-      <c r="T23" s="36">
+        <v>0.1963399209486166</v>
+      </c>
+      <c r="T23" s="70">
         <f t="shared" si="50"/>
-        <v>0.2086798469387755</v>
-      </c>
-      <c r="U23" s="36">
+        <v>0.20239463601532567</v>
+      </c>
+      <c r="U23" s="70">
         <f t="shared" si="50"/>
-        <v>0.21020991253644314</v>
-      </c>
-      <c r="V23" s="36">
+        <v>0.22203418803418803</v>
+      </c>
+      <c r="V23" s="70">
         <f t="shared" si="50"/>
-        <v>0.20649114173228347</v>
+        <v>0.21662601626016259</v>
       </c>
       <c r="Y23" s="26" t="s">
         <v>166</v>
@@ -5728,7 +5922,7 @@
       </c>
       <c r="Z24" s="48">
         <f>Q109/Y102</f>
-        <v>8.8481390179473776E-3</v>
+        <v>8.9925616730685675E-3</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -6049,19 +6243,19 @@
         <v>12556000000</v>
       </c>
       <c r="R30" s="37">
-        <v>12282000000</v>
+        <v>11970000000</v>
       </c>
       <c r="S30" s="37">
-        <v>16393000000</v>
+        <v>16370000000</v>
       </c>
       <c r="T30" s="37">
-        <v>21154000000</v>
+        <v>21142000000</v>
       </c>
       <c r="U30" s="37">
-        <v>23263000000</v>
+        <v>24988000000</v>
       </c>
       <c r="V30" s="37">
-        <v>23295000000</v>
+        <v>26655000000</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6131,23 +6325,23 @@
       </c>
       <c r="R31" s="18">
         <f t="shared" ref="R31" si="63">(R30/Q30)-1</f>
-        <v>-2.1822236381013105E-2</v>
+        <v>-4.6670914303918454E-2</v>
       </c>
       <c r="S31" s="18">
         <f t="shared" ref="S31" si="64">(S30/R30)-1</f>
-        <v>0.33471747272431207</v>
+        <v>0.36758563074352546</v>
       </c>
       <c r="T31" s="18">
         <f t="shared" ref="T31" si="65">(T30/S30)-1</f>
-        <v>0.29042884157872262</v>
+        <v>0.29150885766646306</v>
       </c>
       <c r="U31" s="18">
         <f t="shared" ref="U31" si="66">(U30/T30)-1</f>
-        <v>9.9697456745769131E-2</v>
+        <v>0.18191278024784796</v>
       </c>
       <c r="V31" s="18">
-        <f t="shared" ref="V31" si="67">(V30/U30)-1</f>
-        <v>1.375574947341196E-3</v>
+        <f>V30/U30-1</f>
+        <v>6.671202177044977E-2</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -6204,23 +6398,23 @@
       </c>
       <c r="R32" s="36">
         <f>R30/R5</f>
-        <v>0.1222089552238806</v>
+        <v>0.1191044776119403</v>
       </c>
       <c r="S32" s="36">
-        <f t="shared" ref="S32:V32" si="68">S30/S5</f>
-        <v>0.12697908597986057</v>
+        <f t="shared" ref="S32:V32" si="67">S30/S5</f>
+        <v>0.12940711462450594</v>
       </c>
       <c r="T32" s="36">
-        <f t="shared" si="68"/>
-        <v>0.13491071428571427</v>
+        <f t="shared" si="67"/>
+        <v>0.13500638569604087</v>
       </c>
       <c r="U32" s="36">
-        <f t="shared" si="68"/>
-        <v>0.13564431486880466</v>
+        <f t="shared" si="67"/>
+        <v>0.14238176638176639</v>
       </c>
       <c r="V32" s="36">
-        <f t="shared" si="68"/>
-        <v>0.11464074803149606</v>
+        <f t="shared" si="67"/>
+        <v>0.1354420731707317</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -6276,19 +6470,19 @@
         <v>4.24</v>
       </c>
       <c r="R33" s="38">
-        <v>3.88</v>
+        <v>3.78</v>
       </c>
       <c r="S33" s="38">
-        <v>5.17</v>
+        <v>5.16</v>
       </c>
       <c r="T33" s="38">
         <v>6.67</v>
       </c>
       <c r="U33" s="38">
-        <v>7.34</v>
+        <v>7.88</v>
       </c>
       <c r="V33" s="38">
-        <v>7.35</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -6461,59 +6655,59 @@
         <v>0</v>
       </c>
       <c r="D37" s="22">
-        <f t="shared" ref="D37:G37" si="69">(D36-C36)/C36</f>
+        <f t="shared" ref="D37:G37" si="68">(D36-C36)/C36</f>
         <v>-0.4301044964424558</v>
       </c>
       <c r="E37" s="22">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>-0.34720316487324726</v>
       </c>
       <c r="F37" s="22">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>0.97934100790677103</v>
       </c>
       <c r="G37" s="22">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>6.9332275712189653E-2</v>
       </c>
       <c r="H37" s="22">
-        <f t="shared" ref="H37" si="70">(H36-G36)/G36</f>
+        <f t="shared" ref="H37" si="69">(H36-G36)/G36</f>
         <v>0.11245563535757203</v>
       </c>
       <c r="I37" s="22">
-        <f t="shared" ref="I37" si="71">(I36-H36)/H36</f>
+        <f t="shared" ref="I37" si="70">(I36-H36)/H36</f>
         <v>4.3141491027541216E-2</v>
       </c>
       <c r="J37" s="22">
-        <f t="shared" ref="J37" si="72">(J36-I36)/I36</f>
+        <f t="shared" ref="J37" si="71">(J36-I36)/I36</f>
         <v>2.9131513249259472E-2</v>
       </c>
       <c r="K37" s="22">
-        <f t="shared" ref="K37" si="73">(K36-J36)/J36</f>
+        <f t="shared" ref="K37" si="72">(K36-J36)/J36</f>
         <v>0.12488104709754919</v>
       </c>
       <c r="L37" s="22">
-        <f t="shared" ref="L37" si="74">(L36-K36)/K36</f>
+        <f t="shared" ref="L37" si="73">(L36-K36)/K36</f>
         <v>0.14940504257620726</v>
       </c>
       <c r="M37" s="22">
-        <f t="shared" ref="M37" si="75">(M36-L36)/L36</f>
+        <f t="shared" ref="M37" si="74">(M36-L36)/L36</f>
         <v>2.8758792939103994E-2</v>
       </c>
       <c r="N37" s="22">
-        <f t="shared" ref="N37" si="76">(N36-M36)/M36</f>
+        <f t="shared" ref="N37" si="75">(N36-M36)/M36</f>
         <v>3.7970971998240725E-2</v>
       </c>
       <c r="O37" s="22">
-        <f t="shared" ref="O37" si="77">(O36-N36)/N36</f>
+        <f t="shared" ref="O37" si="76">(O36-N36)/N36</f>
         <v>8.4745762711864403E-2</v>
       </c>
       <c r="P37" s="22">
-        <f t="shared" ref="P37" si="78">(P36-O36)/O36</f>
+        <f t="shared" ref="P37" si="77">(P36-O36)/O36</f>
         <v>0.17604166666666668</v>
       </c>
       <c r="Q37" s="22">
-        <f t="shared" ref="Q37" si="79">(Q36-P36)/P36</f>
+        <f t="shared" ref="Q37" si="78">(Q36-P36)/P36</f>
         <v>0</v>
       </c>
     </row>
@@ -8862,59 +9056,59 @@
         <v>2.9643196309862976E-2</v>
       </c>
       <c r="D82" s="15">
-        <f t="shared" ref="D82:Q82" si="80">D81/D5</f>
+        <f t="shared" ref="D82:Q82" si="79">D81/D5</f>
         <v>1.2810090849807491E-2</v>
       </c>
       <c r="E82" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>0.1812170218597958</v>
       </c>
       <c r="F82" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>0.14403991343602196</v>
       </c>
       <c r="G82" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>0.12134125094372496</v>
       </c>
       <c r="H82" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>4.0097919240961989E-2</v>
       </c>
       <c r="I82" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>4.8930137858324715E-2</v>
       </c>
       <c r="J82" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>4.8936672413047375E-2</v>
       </c>
       <c r="K82" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>4.7745528227182005E-2</v>
       </c>
       <c r="L82" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>3.9694692063808476E-2</v>
       </c>
       <c r="M82" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>3.4901199686803219E-2</v>
       </c>
       <c r="N82" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>3.6536740174139472E-2</v>
       </c>
       <c r="O82" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>5.498477929984779E-2</v>
       </c>
       <c r="P82" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>3.9406944986344131E-2</v>
       </c>
       <c r="Q82" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>1.9150033144288134E-2</v>
       </c>
     </row>
@@ -9023,10 +9217,10 @@
       <c r="Q84" s="1">
         <v>-1124000000</v>
       </c>
-      <c r="X84" s="73" t="s">
+      <c r="X84" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="Y84" s="74"/>
+      <c r="Y84" s="75"/>
     </row>
     <row r="85" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9080,10 +9274,10 @@
       <c r="Q85" s="1">
         <v>-6465000000</v>
       </c>
-      <c r="X85" s="72" t="s">
+      <c r="X85" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="Y85" s="72"/>
+      <c r="Y85" s="73"/>
     </row>
     <row r="86" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -9394,63 +9588,63 @@
         <v>134.27397260273972</v>
       </c>
       <c r="C91" s="15">
-        <f t="shared" ref="C91:Q91" si="81">(-1*C90)/C5</f>
+        <f t="shared" ref="C91:Q91" si="80">(-1*C90)/C5</f>
         <v>0.65323565323565325</v>
       </c>
       <c r="D91" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0.10616117131039904</v>
       </c>
       <c r="E91" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0.34436887548824779</v>
       </c>
       <c r="F91" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0.96892901557955757</v>
       </c>
       <c r="G91" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0.57888572700698837</v>
       </c>
       <c r="H91" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0.13122648368807288</v>
       </c>
       <c r="I91" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0.303244854544022</v>
       </c>
       <c r="J91" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0.4040632472612008</v>
       </c>
       <c r="K91" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0.2057776910492545</v>
       </c>
       <c r="L91" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0.34709077520223025</v>
       </c>
       <c r="M91" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0.10807916848156408</v>
       </c>
       <c r="N91" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>5.8263487671901704E-2</v>
       </c>
       <c r="O91" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0.10248604769152714</v>
       </c>
       <c r="P91" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0.12102632703491073</v>
       </c>
       <c r="Q91" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>8.7930568854189678E-2</v>
       </c>
       <c r="X91" s="49" t="s">
@@ -9633,10 +9827,10 @@
       <c r="Q94" s="1">
         <v>22000000</v>
       </c>
-      <c r="X94" s="72" t="s">
+      <c r="X94" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="Y94" s="72"/>
+      <c r="Y94" s="73"/>
     </row>
     <row r="95" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -9695,7 +9889,7 @@
       </c>
       <c r="Y95" s="53">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9755,7 +9949,7 @@
       </c>
       <c r="Y96" s="54" cm="1">
         <f t="array" ref="Y96">_FV(A1,"Beta")</f>
-        <v>2.0783</v>
+        <v>2.0779000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9874,7 +10068,7 @@
       </c>
       <c r="Y98" s="52">
         <f>(Y95)+((Y96)*(Y97-Y95))</f>
-        <v>0.13092761600000002</v>
+        <v>0.13237615200000002</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -9929,10 +10123,10 @@
       <c r="Q99" s="20">
         <v>0</v>
       </c>
-      <c r="X99" s="72" t="s">
+      <c r="X99" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="Y99" s="72"/>
+      <c r="Y99" s="73"/>
     </row>
     <row r="100" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -10051,7 +10245,7 @@
       </c>
       <c r="Y101" s="52">
         <f>Y100/Y104</f>
-        <v>3.6134506831896427E-3</v>
+        <v>3.6722141976247426E-3</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10111,7 +10305,7 @@
       </c>
       <c r="Y102" s="55" cm="1">
         <f t="array" ref="Y102">+_FV(A1,"Market cap",TRUE)</f>
-        <v>854529973440</v>
+        <v>840806021119</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10171,7 +10365,7 @@
       </c>
       <c r="Y103" s="52">
         <f>Y102/Y104</f>
-        <v>0.99638654931681037</v>
+        <v>0.99632778580237524</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10231,7 +10425,7 @@
       </c>
       <c r="Y104" s="56">
         <f>Y100+Y102</f>
-        <v>857628973440</v>
+        <v>843905021119</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -10286,10 +10480,10 @@
       <c r="Q105" s="1">
         <v>18144000000</v>
       </c>
-      <c r="X105" s="72" t="s">
+      <c r="X105" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="Y105" s="72"/>
+      <c r="Y105" s="73"/>
     </row>
     <row r="106" spans="1:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
@@ -10348,7 +10542,7 @@
       </c>
       <c r="Y106" s="58">
         <f>(Y101*Y93)+(Y103*Y98)</f>
-        <v>0.13065884625230978</v>
+        <v>0.13209769206672969</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -10356,63 +10550,63 @@
         <v>164</v>
       </c>
       <c r="B107" s="1">
-        <f t="shared" ref="B107:P107" si="82">(B24*(1-$Y$92))+B79+B90+B83</f>
+        <f t="shared" ref="B107:P107" si="81">(B24*(1-$Y$92))+B79+B90+B83</f>
         <v>-61034464.173773602</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>-56970375.683358848</v>
       </c>
       <c r="D107" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>-90101807.128799468</v>
       </c>
       <c r="E107" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>-175476911.65536848</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>-322816894.52584004</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>-529333407.46410084</v>
       </c>
       <c r="H107" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>-89372337.269480288</v>
       </c>
       <c r="I107" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>-1166063674.0287194</v>
       </c>
       <c r="J107" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>-2363046574.3858881</v>
       </c>
       <c r="K107" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>-1799508572.5635979</v>
       </c>
       <c r="L107" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>-4439371193.8187914</v>
       </c>
       <c r="M107" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>-592492336.54056406</v>
       </c>
       <c r="N107" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>446398935.78249121</v>
       </c>
       <c r="O107" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1103468474.3785992</v>
       </c>
       <c r="P107" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>2874993585.5383034</v>
       </c>
       <c r="Q107" s="1">
@@ -10421,31 +10615,31 @@
       </c>
       <c r="R107" s="23">
         <f>Q107*(1+$Y$108)</f>
-        <v>7145427934.1925707</v>
+        <v>7099046250.2517128</v>
       </c>
       <c r="S107" s="23">
-        <f t="shared" ref="S107:V107" si="83">R107*(1+$Y$108)</f>
-        <v>8590852510.4529457</v>
+        <f t="shared" ref="S107:V107" si="82">R107*(1+$Y$108)</f>
+        <v>8479686323.16716</v>
       </c>
       <c r="T107" s="23">
-        <f t="shared" si="83"/>
-        <v>10328667161.163574</v>
+        <f t="shared" si="82"/>
+        <v>10128836692.218851</v>
       </c>
       <c r="U107" s="23">
-        <f t="shared" si="83"/>
-        <v>12418018490.74861</v>
+        <f t="shared" si="82"/>
+        <v>12098717903.909485</v>
       </c>
       <c r="V107" s="23">
-        <f t="shared" si="83"/>
-        <v>14930017671.244448</v>
+        <f t="shared" si="82"/>
+        <v>14451706485.783386</v>
       </c>
       <c r="W107" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="X107" s="70" t="s">
+      <c r="X107" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="Y107" s="70"/>
+      <c r="Y107" s="71"/>
     </row>
     <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
@@ -10453,79 +10647,79 @@
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="15">
-        <f t="shared" ref="C108:Q108" si="84">(C109/B109)-1</f>
+        <f t="shared" ref="C108:Q108" si="83">(C109/B109)-1</f>
         <v>-1.9424380837982591E-2</v>
       </c>
       <c r="D108" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>0.49429418780825896</v>
       </c>
       <c r="E108" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>0.81233752925821667</v>
       </c>
       <c r="F108" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>0.85846922985358876</v>
       </c>
       <c r="G108" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>0.61823160187023629</v>
       </c>
       <c r="H108" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>-0.98767091027470322</v>
       </c>
       <c r="I108" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>163.88314606741574</v>
       </c>
       <c r="J108" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>1.1021249544889029</v>
       </c>
       <c r="K108" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>-0.27556870149290369</v>
       </c>
       <c r="L108" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>1.6478348142939332</v>
       </c>
       <c r="M108" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>-0.94647185616251828</v>
       </c>
       <c r="N108" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>-5.3659850077126388</v>
       </c>
       <c r="O108" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>1.790289256198347</v>
       </c>
       <c r="P108" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>0.28952239911144018</v>
       </c>
       <c r="Q108" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>1.1708297444731555</v>
       </c>
       <c r="R108" s="43">
-        <v>9915000000</v>
+        <v>9690000000</v>
       </c>
       <c r="S108" s="43">
-        <v>16378000000</v>
+        <v>15342000000</v>
       </c>
       <c r="T108" s="43">
-        <v>22579000000</v>
+        <v>21174000000</v>
       </c>
       <c r="U108" s="43">
-        <v>24607000000</v>
+        <v>24106000000</v>
       </c>
       <c r="V108" s="43">
-        <v>29974000000</v>
+        <v>29413000000</v>
       </c>
       <c r="W108" s="24" t="s">
         <v>163</v>
@@ -10535,7 +10729,7 @@
       </c>
       <c r="Y108" s="60">
         <f>(SUM(R6:V6)/5)</f>
-        <v>0.20228663553426585</v>
+        <v>0.19448247331343885</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -10596,7 +10790,7 @@
       <c r="U109" s="24"/>
       <c r="V109" s="44">
         <f>V108*(1+Y109)/(Y110-Y109)</f>
-        <v>290778776124.75214</v>
+        <v>281503031654.64465</v>
       </c>
       <c r="W109" s="25" t="s">
         <v>142</v>
@@ -10610,24 +10804,24 @@
     </row>
     <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="R110" s="44">
-        <f t="shared" ref="R110:U110" si="85">R109+R108</f>
-        <v>9915000000</v>
+        <f t="shared" ref="R110:U110" si="84">R109+R108</f>
+        <v>9690000000</v>
       </c>
       <c r="S110" s="44">
-        <f t="shared" si="85"/>
-        <v>16378000000</v>
+        <f t="shared" si="84"/>
+        <v>15342000000</v>
       </c>
       <c r="T110" s="44">
-        <f t="shared" si="85"/>
-        <v>22579000000</v>
+        <f t="shared" si="84"/>
+        <v>21174000000</v>
       </c>
       <c r="U110" s="44">
-        <f t="shared" si="85"/>
-        <v>24607000000</v>
+        <f t="shared" si="84"/>
+        <v>24106000000</v>
       </c>
       <c r="V110" s="44">
         <f>V109+V108</f>
-        <v>320752776124.75214</v>
+        <v>310916031654.64465</v>
       </c>
       <c r="W110" s="25" t="s">
         <v>133</v>
@@ -10637,14 +10831,14 @@
       </c>
       <c r="Y110" s="60">
         <f>Y106</f>
-        <v>0.13065884625230978</v>
+        <v>0.13209769206672969</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R111" s="71" t="s">
+      <c r="R111" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="S111" s="71"/>
+      <c r="S111" s="72"/>
     </row>
     <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="R112" s="64" t="s">
@@ -10652,7 +10846,7 @@
       </c>
       <c r="S112" s="55">
         <f>NPV(Y110,R110,S110,T110,U110,V110)</f>
-        <v>225843605901.07419</v>
+        <v>216993609362.69022</v>
       </c>
     </row>
     <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -10679,7 +10873,7 @@
       </c>
       <c r="S115" s="55">
         <f>S112+S113-S114</f>
-        <v>244929605901.07419</v>
+        <v>236079609362.69022</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -10697,7 +10891,7 @@
       </c>
       <c r="S117" s="66">
         <f>S115/S116</f>
-        <v>57.851693156439133</v>
+        <v>55.761348535622133</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -10706,7 +10900,7 @@
       </c>
       <c r="S118" s="67" cm="1">
         <f t="array" ref="S118">_FV(A1,"Price",TRUE)</f>
-        <v>269.61</v>
+        <v>265.27999999999997</v>
       </c>
     </row>
     <row r="119" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -10715,7 +10909,7 @@
       </c>
       <c r="S119" s="68">
         <f>S117/S118-1</f>
-        <v>-0.78542452744171531</v>
+        <v>-0.78980191293869817</v>
       </c>
     </row>
     <row r="120" spans="18:19" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Tesla.xlsx
+++ b/Technology/Hardware/Tesla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4462CA-33E9-DE45-810C-B05BD262A493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EB20C0-1305-C04E-B4E4-CC24AF90DD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="170">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -561,9 +561,6 @@
     <t>Forward P/FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
@@ -576,10 +573,16 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
-    <t>Shares (5% dilution)</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Shares (No dilution)</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -707,6 +710,13 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -881,7 +891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -917,11 +927,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -947,25 +952,15 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="169" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
@@ -978,59 +973,145 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1086,16 +1167,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Yearly</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Vehicle Deliveries</a:t>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Tesla</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1133,537 +1206,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10661540140798746"/>
-          <c:y val="0.13237339543424362"/>
-          <c:w val="0.84223706289019606"/>
-          <c:h val="0.74600411512260612"/>
+          <c:x val="9.614617940199334E-2"/>
+          <c:y val="0.14971917804124144"/>
+          <c:w val="0.83873754152823921"/>
+          <c:h val="0.62288450845694399"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Sheet 1'!$G$1:$R$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet 1'!$G$3:$R$3</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>76200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>103100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>245200</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>367500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>499550</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>936172</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1313851</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1798875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9C6B-CF4B-9857-3E6CEC2C30BB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1669591360"/>
-        <c:axId val="1669610000"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:spPr>
-                  <a:gradFill rotWithShape="1">
-                    <a:gsLst>
-                      <a:gs pos="0">
-                        <a:schemeClr val="accent1">
-                          <a:satMod val="103000"/>
-                          <a:lumMod val="102000"/>
-                          <a:tint val="94000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="50000">
-                        <a:schemeClr val="accent1">
-                          <a:satMod val="110000"/>
-                          <a:lumMod val="100000"/>
-                          <a:shade val="100000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                      <a:gs pos="100000">
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="99000"/>
-                          <a:satMod val="120000"/>
-                          <a:shade val="78000"/>
-                        </a:schemeClr>
-                      </a:gs>
-                    </a:gsLst>
-                    <a:lin ang="5400000" scaled="0"/>
-                  </a:gradFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Sheet 1'!$G$1:$R$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>2012</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2013</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2014</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2015</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2016</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2017</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2018</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2019</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2020</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>2021</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>2022</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>2023</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Sheet 1'!$G$2:$R$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-9C6B-CF4B-9857-3E6CEC2C30BB}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1669591360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1669610000"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1669610000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1669591360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2400"/>
-              <a:t>Tesla</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.2174629324546958E-2"/>
-          <c:y val="0.14293597679588083"/>
-          <c:w val="0.86642504118616137"/>
-          <c:h val="0.63707056214828062"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1714,10 +1265,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$Q$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$V$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -1765,16 +1316,31 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$5:$Q$5</c:f>
+              <c:f>'Sheet 1'!$B$5:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>73000</c:v>
                 </c:pt>
@@ -1822,13 +1388,28 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>81462000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99800000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>126500000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>155200000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>175500000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200900000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DC5F-CD43-A576-D9290A752B75}"/>
+              <c16:uniqueId val="{00000000-B1D5-064F-9576-B97920514FDA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1881,10 +1462,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$Q$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$V$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -1932,16 +1513,31 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$30:$Q$30</c:f>
+              <c:f>'Sheet 1'!$B$30:$V$30</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>-78157000</c:v>
                 </c:pt>
@@ -1989,13 +1585,28 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>12556000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12011000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16370000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21241000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24988000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27256000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DC5F-CD43-A576-D9290A752B75}"/>
+              <c16:uniqueId val="{00000001-B1D5-064F-9576-B97920514FDA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2048,10 +1659,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$Q$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$V$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -2099,16 +1710,31 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$109:$Q$109</c:f>
+              <c:f>'Sheet 1'!$B$109:$V$109</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>-63271000</c:v>
                 </c:pt>
@@ -2156,13 +1782,28 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>7561000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8993000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14920000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20797000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25202000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33521000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DC5F-CD43-A576-D9290A752B75}"/>
+              <c16:uniqueId val="{00000002-B1D5-064F-9576-B97920514FDA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2174,13 +1815,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1514551488"/>
-        <c:axId val="1515080720"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1715871488"/>
+        <c:axId val="1715893088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1514551488"/>
+        <c:axId val="1715871488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,7 +1849,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -2220,7 +1861,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1515080720"/>
+        <c:crossAx val="1715893088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2228,7 +1869,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1515080720"/>
+        <c:axId val="1715893088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2277,7 +1918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1514551488"/>
+        <c:crossAx val="1715871488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2295,10 +1936,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34494467433745418"/>
-          <c:y val="0.8999680815504969"/>
-          <c:w val="0.31274646188172112"/>
-          <c:h val="5.9437495547855754E-2"/>
+          <c:x val="0.33435456614434822"/>
+          <c:y val="0.87396050436747796"/>
+          <c:w val="0.31326254515215302"/>
+          <c:h val="6.2258174448011766E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2404,48 +2045,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2683,476 +2284,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3386,23 +2517,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>49212</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912910ED-C7C6-09CA-D57D-FC2AF7203344}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887B204A-C291-950D-D1AF-35681E35C38E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,42 +2551,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD93A9EB-DC19-5ED8-AD51-EAFC55FFCEEA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3466,38 +2561,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -3633,13 +2728,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>314.66640000000001</v>
+    <v>299.29000000000002</v>
     <v>101.81</v>
-    <v>2.0779000000000001</v>
-    <v>-3.78</v>
-    <v>-1.4049000000000001E-2</v>
-    <v>-0.73</v>
-    <v>-2.7520000000000001E-3</v>
+    <v>2.2483</v>
+    <v>-22.57</v>
+    <v>-9.3003000000000002E-2</v>
+    <v>-2.21</v>
+    <v>-1.004E-2</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
     <v>127855</v>
@@ -3647,25 +2742,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>272.89999999999998</v>
+    <v>230.61</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45132.999996562503</v>
+    <v>45218.999996573439</v>
     <v>0</v>
-    <v>265</v>
-    <v>840806021119</v>
+    <v>216.78</v>
+    <v>698627819340</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>272.38</v>
-    <v>75.306899999999999</v>
-    <v>269.06</v>
-    <v>265.27999999999997</v>
-    <v>264.55</v>
-    <v>3169504000</v>
+    <v>225.95</v>
+    <v>78.1858</v>
+    <v>242.68</v>
+    <v>220.11</v>
+    <v>217.9</v>
+    <v>3173994000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>112757327</v>
-    <v>140969222</v>
+    <v>170772713</v>
+    <v>113896803</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -4250,13 +3345,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z120"/>
+  <dimension ref="A1:Z121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S94" sqref="S94"/>
+      <selection pane="bottomRight" activeCell="S90" sqref="S90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4445,7 +3540,7 @@
       <c r="Q3" s="20">
         <v>1313851</v>
       </c>
-      <c r="R3" s="31">
+      <c r="R3" s="28">
         <v>1798875</v>
       </c>
       <c r="S3" s="20"/>
@@ -4530,10 +3625,10 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
     </row>
     <row r="5" spans="1:26" ht="40" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -4588,30 +3683,30 @@
         <v>81462000000</v>
       </c>
       <c r="R5" s="17">
-        <v>100500000000</v>
+        <v>99800000000</v>
       </c>
       <c r="S5" s="17">
         <v>126500000000</v>
       </c>
       <c r="T5" s="17">
-        <v>156600000000</v>
+        <v>155200000000</v>
       </c>
       <c r="U5" s="17">
         <v>175500000000</v>
       </c>
       <c r="V5" s="17">
-        <v>196800000000</v>
-      </c>
-      <c r="W5" s="32" t="s">
+        <v>200900000000</v>
+      </c>
+      <c r="W5" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="X5" s="33" t="s">
+      <c r="X5" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="Y5" s="33" t="s">
+      <c r="Y5" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="Z5" s="30" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4682,37 +3777,37 @@
       </c>
       <c r="R6" s="18">
         <f t="shared" ref="R6" si="14">(R5/Q5)-1</f>
-        <v>0.23370405833394714</v>
+        <v>0.2251110947435615</v>
       </c>
       <c r="S6" s="18">
         <f t="shared" ref="S6" si="15">(S5/R5)-1</f>
-        <v>0.25870646766169147</v>
+        <v>0.26753507014028055</v>
       </c>
       <c r="T6" s="18">
         <f t="shared" ref="T6" si="16">(T5/S5)-1</f>
-        <v>0.23794466403162051</v>
+        <v>0.22687747035573125</v>
       </c>
       <c r="U6" s="18">
         <f>(U5/T5)-1</f>
-        <v>0.1206896551724137</v>
+        <v>0.13079896907216493</v>
       </c>
       <c r="V6" s="18">
         <f t="shared" ref="V6" si="17">(V5/U5)-1</f>
-        <v>0.12136752136752138</v>
-      </c>
-      <c r="W6" s="28">
+        <v>0.14472934472934473</v>
+      </c>
+      <c r="W6" s="25">
         <f>(Q6+P6+O6)/3</f>
         <v>0.50111045549806821</v>
       </c>
-      <c r="X6" s="28">
+      <c r="X6" s="25">
         <f>(Q22+P22+O22)/3</f>
         <v>1.0471441765542473</v>
       </c>
-      <c r="Y6" s="28">
+      <c r="Y6" s="25">
         <f>(Q31+P31+O31)/3</f>
         <v>2.1577121717940262</v>
       </c>
-      <c r="Z6" s="28">
+      <c r="Z6" s="25">
         <f>(Q108+P108+O108)/3</f>
         <v>1.083547133260981</v>
       </c>
@@ -4822,16 +3917,20 @@
       <c r="Q8" s="10">
         <v>20853000000</v>
       </c>
-      <c r="W8" s="26" t="s">
+      <c r="R8" s="76">
+        <f>R5*R9</f>
+        <v>18153620000</v>
+      </c>
+      <c r="W8" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="X8" s="27" t="s">
+      <c r="X8" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" s="27" t="s">
+      <c r="Y8" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="Z8" s="27" t="s">
+      <c r="Z8" s="75" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4887,21 +3986,24 @@
       <c r="Q9" s="2">
         <v>0.25600000000000001</v>
       </c>
-      <c r="W9" s="28">
-        <f>Q9</f>
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="X9" s="29">
-        <f>Q23</f>
-        <v>0.21640000000000001</v>
-      </c>
-      <c r="Y9" s="29">
-        <f>Q32</f>
-        <v>0.15409999999999999</v>
-      </c>
-      <c r="Z9" s="29">
-        <f>Q109/Q5</f>
-        <v>9.281628243843755E-2</v>
+      <c r="R9" s="2">
+        <v>0.18190000000000001</v>
+      </c>
+      <c r="W9" s="25">
+        <f>R9</f>
+        <v>0.18190000000000001</v>
+      </c>
+      <c r="X9" s="26">
+        <f>R23</f>
+        <v>0.17447895791583165</v>
+      </c>
+      <c r="Y9" s="26">
+        <f>R32</f>
+        <v>0.12035070140280561</v>
+      </c>
+      <c r="Z9" s="26">
+        <f>R109/R5</f>
+        <v>9.0110220440881766E-2</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5025,16 +4127,16 @@
         <f t="shared" si="18"/>
         <v>3.7747661486337188E-2</v>
       </c>
-      <c r="W11" s="26" t="s">
+      <c r="W11" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="X11" s="27" t="s">
+      <c r="X11" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="Y11" s="27" t="s">
+      <c r="Y11" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="Z11" s="27" t="s">
+      <c r="Z11" s="24" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5090,19 +4192,19 @@
       <c r="Q12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W12" s="28">
+      <c r="W12" s="25">
         <f>Q11</f>
         <v>3.7747661486337188E-2</v>
       </c>
-      <c r="X12" s="29">
+      <c r="X12" s="26">
         <f>Q15</f>
         <v>4.8439763325231394E-2</v>
       </c>
-      <c r="Y12" s="29">
+      <c r="Y12" s="26">
         <f>Q82</f>
         <v>1.9150033144288134E-2</v>
       </c>
-      <c r="Z12" s="29">
+      <c r="Z12" s="26">
         <f>Q91</f>
         <v>8.7930568854189678E-2</v>
       </c>
@@ -5212,16 +4314,16 @@
       <c r="Q14" s="1">
         <v>3946000000</v>
       </c>
-      <c r="W14" s="26" t="s">
+      <c r="W14" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="X14" s="27" t="s">
+      <c r="X14" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="Y14" s="27" t="s">
+      <c r="Y14" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="Z14" s="27" t="s">
+      <c r="Z14" s="24" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5293,19 +4395,19 @@
         <f t="shared" ref="Q15" si="32">Q14/Q5</f>
         <v>4.8439763325231394E-2</v>
       </c>
-      <c r="W15" s="28">
+      <c r="W15" s="25">
         <f>Q30/Q74</f>
         <v>0.28086972083035078</v>
       </c>
-      <c r="X15" s="29">
+      <c r="X15" s="26">
         <f>Q30/Q56</f>
         <v>0.1524933809419709</v>
       </c>
-      <c r="Y15" s="29">
+      <c r="Y15" s="26">
         <f>Q24/(Q74+Q58+Q63)</f>
         <v>0.28567244733594127</v>
       </c>
-      <c r="Z15" s="41">
+      <c r="Z15" s="43">
         <f>Q69/Q74</f>
         <v>0.83269953471725122</v>
       </c>
@@ -5415,16 +4517,16 @@
       <c r="Q17" s="1">
         <v>7197000000</v>
       </c>
-      <c r="W17" s="26" t="s">
+      <c r="W17" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="X17" s="27" t="s">
+      <c r="X17" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="Y17" s="27" t="s">
+      <c r="Y17" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="Z17" s="27" t="s">
+      <c r="Z17" s="24" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5484,17 +4586,17 @@
         <f>(Q37+P37+O37+N37+M37)/5</f>
         <v>6.5503438863175154E-2</v>
       </c>
-      <c r="X18" s="39">
-        <f>Y102/Q5</f>
-        <v>10.321450751503768</v>
-      </c>
-      <c r="Y18" s="39">
-        <f>Y102/Q30</f>
-        <v>66.964480815466715</v>
-      </c>
-      <c r="Z18" s="40">
-        <f>Y102/Q109</f>
-        <v>111.20301826729269</v>
+      <c r="X18" s="32">
+        <f>Y103/Q5</f>
+        <v>8.5761191640273999</v>
+      </c>
+      <c r="Y18" s="32">
+        <f>Y103/Q30</f>
+        <v>55.640954072953171</v>
+      </c>
+      <c r="Z18" s="33">
+        <f>Y103/Q109</f>
+        <v>92.398865142176959</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5602,16 +4704,16 @@
       <c r="Q20" s="1">
         <v>3747000000</v>
       </c>
-      <c r="W20" s="26" t="s">
+      <c r="W20" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="X20" s="27" t="s">
+      <c r="X20" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="Y20" s="27" t="s">
+      <c r="Y20" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="Z20" s="27" t="s">
+      <c r="Z20" s="24" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5667,36 +4769,36 @@
       <c r="Q21" s="10">
         <v>17626000000</v>
       </c>
-      <c r="R21" s="35">
-        <v>18041000000</v>
-      </c>
-      <c r="S21" s="35">
-        <v>24837000000</v>
-      </c>
-      <c r="T21" s="35">
-        <v>31695000000</v>
-      </c>
-      <c r="U21" s="35">
-        <v>38967000000</v>
-      </c>
-      <c r="V21" s="35">
-        <v>42632000000</v>
-      </c>
-      <c r="W21" s="30">
+      <c r="R21" s="45">
+        <v>17413000000</v>
+      </c>
+      <c r="S21" s="45">
+        <v>24445000000</v>
+      </c>
+      <c r="T21" s="45">
+        <v>31500000000</v>
+      </c>
+      <c r="U21" s="45">
+        <v>39868000000</v>
+      </c>
+      <c r="V21" s="45">
+        <v>46478000000</v>
+      </c>
+      <c r="W21" s="27">
         <f>Q42-Q58-Q63</f>
         <v>19086000000</v>
       </c>
-      <c r="X21" s="39">
-        <f>Y102/R5</f>
-        <v>8.366229065860697</v>
-      </c>
-      <c r="Y21" s="42">
-        <f>Y102/R30</f>
-        <v>70.242775364995822</v>
-      </c>
-      <c r="Z21" s="40">
-        <f>Y102/R107</f>
-        <v>118.4392933190409</v>
+      <c r="X21" s="32">
+        <f>Y103/R5</f>
+        <v>7.0002787509018036</v>
+      </c>
+      <c r="Y21" s="34">
+        <f>Y103/R30</f>
+        <v>58.165666417450673</v>
+      </c>
+      <c r="Z21" s="33">
+        <f>Y103/R109</f>
+        <v>77.685735498721229</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5764,25 +4866,25 @@
         <f t="shared" ref="Q22" si="44">(Q21/P21)-1</f>
         <v>0.85536842105263156</v>
       </c>
-      <c r="R22" s="18">
+      <c r="R22" s="46">
         <f t="shared" ref="R22" si="45">(R21/Q21)-1</f>
-        <v>2.3544763417678416E-2</v>
-      </c>
-      <c r="S22" s="18">
+        <v>-1.20844207420856E-2</v>
+      </c>
+      <c r="S22" s="46">
         <f t="shared" ref="S22" si="46">(S21/R21)-1</f>
-        <v>0.3766975223102933</v>
-      </c>
-      <c r="T22" s="18">
+        <v>0.40383621432263261</v>
+      </c>
+      <c r="T22" s="46">
         <f t="shared" ref="T22" si="47">(T21/S21)-1</f>
-        <v>0.27612030438458746</v>
-      </c>
-      <c r="U22" s="18">
+        <v>0.28860707711188383</v>
+      </c>
+      <c r="U22" s="46">
         <f t="shared" ref="U22" si="48">(U21/T21)-1</f>
-        <v>0.22943681968764795</v>
-      </c>
-      <c r="V22" s="18">
+        <v>0.26565079365079369</v>
+      </c>
+      <c r="V22" s="46">
         <f t="shared" ref="V22" si="49">(V21/U21)-1</f>
-        <v>9.4053943080042002E-2</v>
+        <v>0.16579713053075151</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -5837,30 +4939,33 @@
       <c r="Q23" s="2">
         <v>0.21640000000000001</v>
       </c>
-      <c r="R23" s="70">
+      <c r="R23" s="47">
         <f>R21/R5</f>
-        <v>0.17951243781094528</v>
-      </c>
-      <c r="S23" s="70">
+        <v>0.17447895791583165</v>
+      </c>
+      <c r="S23" s="47">
         <f t="shared" ref="S23:V23" si="50">S21/S5</f>
-        <v>0.1963399209486166</v>
-      </c>
-      <c r="T23" s="70">
+        <v>0.19324110671936759</v>
+      </c>
+      <c r="T23" s="47">
         <f t="shared" si="50"/>
-        <v>0.20239463601532567</v>
-      </c>
-      <c r="U23" s="70">
+        <v>0.2029639175257732</v>
+      </c>
+      <c r="U23" s="47">
         <f t="shared" si="50"/>
-        <v>0.22203418803418803</v>
-      </c>
-      <c r="V23" s="70">
+        <v>0.22716809116809117</v>
+      </c>
+      <c r="V23" s="47">
         <f t="shared" si="50"/>
-        <v>0.21662601626016259</v>
-      </c>
-      <c r="Y23" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z23" s="27" t="s">
+        <v>0.23134892981582877</v>
+      </c>
+      <c r="X23" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y23" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z23" s="24" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5916,13 +5021,17 @@
       <c r="Q24" s="10">
         <v>13656000000</v>
       </c>
-      <c r="Y24" s="47">
-        <f>Q100/Y102</f>
+      <c r="X24" s="25">
+        <f>SUM(R31:V31)/5</f>
+        <v>0.17684719580658537</v>
+      </c>
+      <c r="Y24" s="36">
+        <f>Q100/Y103</f>
         <v>0</v>
       </c>
-      <c r="Z24" s="48">
-        <f>Q109/Y102</f>
-        <v>8.9925616730685675E-3</v>
+      <c r="Z24" s="37">
+        <f>R109/Y103</f>
+        <v>1.2872376036350467E-2</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -6242,20 +5351,20 @@
       <c r="Q30" s="11">
         <v>12556000000</v>
       </c>
-      <c r="R30" s="37">
-        <v>11970000000</v>
-      </c>
-      <c r="S30" s="37">
+      <c r="R30" s="44">
+        <v>12011000000</v>
+      </c>
+      <c r="S30" s="44">
         <v>16370000000</v>
       </c>
-      <c r="T30" s="37">
-        <v>21142000000</v>
-      </c>
-      <c r="U30" s="37">
+      <c r="T30" s="44">
+        <v>21241000000</v>
+      </c>
+      <c r="U30" s="44">
         <v>24988000000</v>
       </c>
-      <c r="V30" s="37">
-        <v>26655000000</v>
+      <c r="V30" s="44">
+        <v>27256000000</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6323,25 +5432,25 @@
         <f t="shared" ref="Q31" si="62">(Q30/P30)-1</f>
         <v>1.2750498278673672</v>
       </c>
-      <c r="R31" s="18">
+      <c r="R31" s="46">
         <f t="shared" ref="R31" si="63">(R30/Q30)-1</f>
-        <v>-4.6670914303918454E-2</v>
-      </c>
-      <c r="S31" s="18">
+        <v>-4.3405543166613603E-2</v>
+      </c>
+      <c r="S31" s="46">
         <f t="shared" ref="S31" si="64">(S30/R30)-1</f>
-        <v>0.36758563074352546</v>
-      </c>
-      <c r="T31" s="18">
+        <v>0.36291732578469738</v>
+      </c>
+      <c r="T31" s="46">
         <f t="shared" ref="T31" si="65">(T30/S30)-1</f>
-        <v>0.29150885766646306</v>
-      </c>
-      <c r="U31" s="18">
+        <v>0.29755650580329873</v>
+      </c>
+      <c r="U31" s="46">
         <f t="shared" ref="U31" si="66">(U30/T30)-1</f>
-        <v>0.18191278024784796</v>
-      </c>
-      <c r="V31" s="18">
+        <v>0.17640412409961859</v>
+      </c>
+      <c r="V31" s="46">
         <f>V30/U30-1</f>
-        <v>6.671202177044977E-2</v>
+        <v>9.0763566511925742E-2</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -6396,25 +5505,25 @@
       <c r="Q32" s="2">
         <v>0.15409999999999999</v>
       </c>
-      <c r="R32" s="36">
+      <c r="R32" s="48">
         <f>R30/R5</f>
-        <v>0.1191044776119403</v>
-      </c>
-      <c r="S32" s="36">
+        <v>0.12035070140280561</v>
+      </c>
+      <c r="S32" s="48">
         <f t="shared" ref="S32:V32" si="67">S30/S5</f>
         <v>0.12940711462450594</v>
       </c>
-      <c r="T32" s="36">
+      <c r="T32" s="48">
         <f t="shared" si="67"/>
-        <v>0.13500638569604087</v>
-      </c>
-      <c r="U32" s="36">
+        <v>0.13686211340206186</v>
+      </c>
+      <c r="U32" s="48">
         <f t="shared" si="67"/>
         <v>0.14238176638176639</v>
       </c>
-      <c r="V32" s="36">
+      <c r="V32" s="48">
         <f t="shared" si="67"/>
-        <v>0.1354420731707317</v>
+        <v>0.13566948730711798</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -6469,20 +5578,20 @@
       <c r="Q33" s="12">
         <v>4.24</v>
       </c>
-      <c r="R33" s="38">
-        <v>3.78</v>
-      </c>
-      <c r="S33" s="38">
-        <v>5.16</v>
-      </c>
-      <c r="T33" s="38">
-        <v>6.67</v>
-      </c>
-      <c r="U33" s="38">
-        <v>7.88</v>
-      </c>
-      <c r="V33" s="38">
-        <v>8.41</v>
+      <c r="R33" s="49">
+        <v>3.8</v>
+      </c>
+      <c r="S33" s="49">
+        <v>5.17</v>
+      </c>
+      <c r="T33" s="49">
+        <v>6.71</v>
+      </c>
+      <c r="U33" s="49">
+        <v>7.9</v>
+      </c>
+      <c r="V33" s="49">
+        <v>8.61</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -6538,7 +5647,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>26</v>
       </c>
@@ -6589,6 +5698,10 @@
       </c>
       <c r="Q35" s="1">
         <v>2958000000</v>
+      </c>
+      <c r="R35" s="1" cm="1">
+        <f t="array" ref="R35">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>3173994000</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -6643,7 +5756,10 @@
       <c r="Q36" s="1">
         <v>3387000000</v>
       </c>
-      <c r="R36" s="45"/>
+      <c r="R36" s="1" cm="1">
+        <f t="array" ref="R36">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>3173994000</v>
+      </c>
     </row>
     <row r="37" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
@@ -6707,8 +5823,12 @@
         <v>0.17604166666666668</v>
       </c>
       <c r="Q37" s="22">
-        <f t="shared" ref="Q37" si="78">(Q36-P36)/P36</f>
+        <f t="shared" ref="Q37:R37" si="78">(Q36-P36)/P36</f>
         <v>0</v>
+      </c>
+      <c r="R37" s="22">
+        <f t="shared" si="78"/>
+        <v>-6.2889282550930029E-2</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -9165,7 +8285,7 @@
         <v>-3170000000</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>70</v>
       </c>
@@ -9217,12 +8337,8 @@
       <c r="Q84" s="1">
         <v>-1124000000</v>
       </c>
-      <c r="X84" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y84" s="75"/>
-    </row>
-    <row r="85" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>34</v>
       </c>
@@ -9274,12 +8390,18 @@
       <c r="Q85" s="1">
         <v>-6465000000</v>
       </c>
-      <c r="X85" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y85" s="73"/>
-    </row>
-    <row r="86" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R85" s="51"/>
+      <c r="S85" s="51"/>
+      <c r="T85" s="51"/>
+      <c r="U85" s="51"/>
+      <c r="V85" s="51"/>
+      <c r="W85" s="51"/>
+      <c r="X85" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y85" s="84"/>
+    </row>
+    <row r="86" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>47</v>
       </c>
@@ -9331,13 +8453,16 @@
       <c r="Q86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X86" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y86" s="50">
-        <f>Q19</f>
-        <v>191000000</v>
-      </c>
+      <c r="R86" s="51"/>
+      <c r="S86" s="51"/>
+      <c r="T86" s="51"/>
+      <c r="U86" s="51"/>
+      <c r="V86" s="51"/>
+      <c r="W86" s="51"/>
+      <c r="X86" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y86" s="85"/>
     </row>
     <row r="87" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
@@ -9391,12 +8516,18 @@
       <c r="Q87" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X87" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y87" s="50">
-        <f>Q58</f>
-        <v>1502000000</v>
+      <c r="R87" s="51"/>
+      <c r="S87" s="51"/>
+      <c r="T87" s="51"/>
+      <c r="U87" s="51"/>
+      <c r="V87" s="51"/>
+      <c r="W87" s="51"/>
+      <c r="X87" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y87" s="52">
+        <f>Q19</f>
+        <v>191000000</v>
       </c>
     </row>
     <row r="88" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9451,12 +8582,18 @@
       <c r="Q88" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X88" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y88" s="50">
-        <f>Q63</f>
-        <v>1597000000</v>
+      <c r="R88" s="51"/>
+      <c r="S88" s="51"/>
+      <c r="T88" s="51"/>
+      <c r="U88" s="51"/>
+      <c r="V88" s="51"/>
+      <c r="W88" s="51"/>
+      <c r="X88" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y88" s="52">
+        <f>Q58</f>
+        <v>1502000000</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9511,12 +8648,18 @@
       <c r="Q89" s="10">
         <v>14724000000</v>
       </c>
-      <c r="X89" s="51" t="s">
-        <v>121</v>
+      <c r="R89" s="51"/>
+      <c r="S89" s="51"/>
+      <c r="T89" s="51"/>
+      <c r="U89" s="51"/>
+      <c r="V89" s="51"/>
+      <c r="W89" s="51"/>
+      <c r="X89" s="38" t="s">
+        <v>120</v>
       </c>
       <c r="Y89" s="52">
-        <f>Y86/(Y87+Y88)</f>
-        <v>6.1632784769280413E-2</v>
+        <f>Q63</f>
+        <v>1597000000</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9571,12 +8714,18 @@
       <c r="Q90" s="1">
         <v>-7163000000</v>
       </c>
-      <c r="X90" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y90" s="50">
-        <f>Q29</f>
-        <v>1132000000</v>
+      <c r="R90" s="51"/>
+      <c r="S90" s="51"/>
+      <c r="T90" s="51"/>
+      <c r="U90" s="51"/>
+      <c r="V90" s="51"/>
+      <c r="W90" s="51"/>
+      <c r="X90" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y90" s="53">
+        <f>Y87/(Y88+Y89)</f>
+        <v>6.1632784769280413E-2</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -9647,12 +8796,18 @@
         <f t="shared" si="80"/>
         <v>8.7930568854189678E-2</v>
       </c>
-      <c r="X91" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y91" s="50">
-        <f>Q27</f>
-        <v>13719000000</v>
+      <c r="R91" s="51"/>
+      <c r="S91" s="51"/>
+      <c r="T91" s="51"/>
+      <c r="U91" s="51"/>
+      <c r="V91" s="51"/>
+      <c r="W91" s="51"/>
+      <c r="X91" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y91" s="52">
+        <f>Q29</f>
+        <v>1132000000</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9707,12 +8862,18 @@
       <c r="Q92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X92" s="51" t="s">
-        <v>123</v>
+      <c r="R92" s="51"/>
+      <c r="S92" s="51"/>
+      <c r="T92" s="51"/>
+      <c r="U92" s="51"/>
+      <c r="V92" s="51"/>
+      <c r="W92" s="51"/>
+      <c r="X92" s="38" t="s">
+        <v>19</v>
       </c>
       <c r="Y92" s="52">
-        <f>Y90/Y91</f>
-        <v>8.2513302718857054E-2</v>
+        <f>Q27</f>
+        <v>13719000000</v>
       </c>
     </row>
     <row r="93" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9767,12 +8928,18 @@
       <c r="Q93" s="1">
         <v>-5835000000</v>
       </c>
-      <c r="X93" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y93" s="52">
-        <f>Y89*(1-Y92)</f>
-        <v>5.6547260142206617E-2</v>
+      <c r="R93" s="51"/>
+      <c r="S93" s="51"/>
+      <c r="T93" s="51"/>
+      <c r="U93" s="51"/>
+      <c r="V93" s="51"/>
+      <c r="W93" s="51"/>
+      <c r="X93" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y93" s="53">
+        <f>Y91/Y92</f>
+        <v>8.2513302718857054E-2</v>
       </c>
     </row>
     <row r="94" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -9827,12 +8994,21 @@
       <c r="Q94" s="1">
         <v>22000000</v>
       </c>
-      <c r="X94" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y94" s="73"/>
-    </row>
-    <row r="95" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R94" s="51"/>
+      <c r="S94" s="51"/>
+      <c r="T94" s="51"/>
+      <c r="U94" s="51"/>
+      <c r="V94" s="51"/>
+      <c r="W94" s="51"/>
+      <c r="X94" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y94" s="53">
+        <f>Y90*(1-Y93)</f>
+        <v>5.6547260142206617E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>78</v>
       </c>
@@ -9884,13 +9060,16 @@
       <c r="Q95" s="1">
         <v>1003000000</v>
       </c>
-      <c r="X95" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y95" s="53">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="R95" s="51"/>
+      <c r="S95" s="51"/>
+      <c r="T95" s="51"/>
+      <c r="U95" s="51"/>
+      <c r="V95" s="51"/>
+      <c r="W95" s="51"/>
+      <c r="X95" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y95" s="85"/>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
@@ -9944,12 +9123,18 @@
       <c r="Q96" s="10">
         <v>-11973000000</v>
       </c>
-      <c r="X96" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y96" s="54" cm="1">
-        <f t="array" ref="Y96">_FV(A1,"Beta")</f>
-        <v>2.0779000000000001</v>
+      <c r="R96" s="51"/>
+      <c r="S96" s="51"/>
+      <c r="T96" s="51"/>
+      <c r="U96" s="51"/>
+      <c r="V96" s="51"/>
+      <c r="W96" s="51"/>
+      <c r="X96" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y96" s="77">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10004,11 +9189,18 @@
       <c r="Q97" s="1">
         <v>-3866000000</v>
       </c>
-      <c r="X97" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y97" s="53">
-        <v>8.4000000000000005E-2</v>
+      <c r="R97" s="51"/>
+      <c r="S97" s="51"/>
+      <c r="T97" s="51"/>
+      <c r="U97" s="51"/>
+      <c r="V97" s="51"/>
+      <c r="W97" s="51"/>
+      <c r="X97" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y97" s="55" cm="1">
+        <f t="array" ref="Y97">_FV(A1,"Beta")</f>
+        <v>2.2483</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10063,12 +9255,17 @@
       <c r="Q98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X98" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y98" s="52">
-        <f>(Y95)+((Y96)*(Y97-Y95))</f>
-        <v>0.13237615200000002</v>
+      <c r="R98" s="51"/>
+      <c r="S98" s="51"/>
+      <c r="T98" s="51"/>
+      <c r="U98" s="51"/>
+      <c r="V98" s="51"/>
+      <c r="W98" s="51"/>
+      <c r="X98" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y98" s="54">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10123,12 +9320,21 @@
       <c r="Q99" s="20">
         <v>0</v>
       </c>
-      <c r="X99" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y99" s="73"/>
-    </row>
-    <row r="100" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R99" s="51"/>
+      <c r="S99" s="51"/>
+      <c r="T99" s="51"/>
+      <c r="U99" s="51"/>
+      <c r="V99" s="51"/>
+      <c r="W99" s="51"/>
+      <c r="X99" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y99" s="53">
+        <f>(Y96)+((Y97)*(Y98-Y96))</f>
+        <v>0.127665534</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>83</v>
       </c>
@@ -10180,13 +9386,16 @@
       <c r="Q100" s="20">
         <v>0</v>
       </c>
-      <c r="X100" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y100" s="50">
-        <f>Y87+Y88</f>
-        <v>3099000000</v>
-      </c>
+      <c r="R100" s="51"/>
+      <c r="S100" s="51"/>
+      <c r="T100" s="51"/>
+      <c r="U100" s="51"/>
+      <c r="V100" s="51"/>
+      <c r="W100" s="51"/>
+      <c r="X100" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y100" s="85"/>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
@@ -10240,12 +9449,18 @@
       <c r="Q101" s="1">
         <v>339000000</v>
       </c>
-      <c r="X101" s="51" t="s">
-        <v>134</v>
+      <c r="R101" s="51"/>
+      <c r="S101" s="51"/>
+      <c r="T101" s="51"/>
+      <c r="U101" s="51"/>
+      <c r="V101" s="51"/>
+      <c r="W101" s="51"/>
+      <c r="X101" s="38" t="s">
+        <v>131</v>
       </c>
       <c r="Y101" s="52">
-        <f>Y100/Y104</f>
-        <v>3.6722141976247426E-3</v>
+        <f>Y88+Y89</f>
+        <v>3099000000</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10300,12 +9515,18 @@
       <c r="Q102" s="10">
         <v>-3527000000</v>
       </c>
-      <c r="X102" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y102" s="55" cm="1">
-        <f t="array" ref="Y102">+_FV(A1,"Market cap",TRUE)</f>
-        <v>840806021119</v>
+      <c r="R102" s="51"/>
+      <c r="S102" s="51"/>
+      <c r="T102" s="51"/>
+      <c r="U102" s="51"/>
+      <c r="V102" s="51"/>
+      <c r="W102" s="51"/>
+      <c r="X102" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y102" s="53">
+        <f>Y101/Y105</f>
+        <v>4.416248481018189E-3</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10360,12 +9581,18 @@
       <c r="Q103" s="1">
         <v>-444000000</v>
       </c>
-      <c r="X103" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y103" s="52">
-        <f>Y102/Y104</f>
-        <v>0.99632778580237524</v>
+      <c r="R103" s="51"/>
+      <c r="S103" s="51"/>
+      <c r="T103" s="51"/>
+      <c r="U103" s="51"/>
+      <c r="V103" s="51"/>
+      <c r="W103" s="51"/>
+      <c r="X103" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y103" s="56" cm="1">
+        <f t="array" ref="Y103">+_FV(A1,"Market cap",TRUE)</f>
+        <v>698627819340</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -10420,15 +9647,21 @@
       <c r="Q104" s="10">
         <v>-1220000000</v>
       </c>
-      <c r="X104" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y104" s="56">
-        <f>Y100+Y102</f>
-        <v>843905021119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="R104" s="51"/>
+      <c r="S104" s="51"/>
+      <c r="T104" s="51"/>
+      <c r="U104" s="51"/>
+      <c r="V104" s="51"/>
+      <c r="W104" s="51"/>
+      <c r="X104" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y104" s="53">
+        <f>Y103/Y105</f>
+        <v>0.99558375151898182</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>88</v>
       </c>
@@ -10480,12 +9713,21 @@
       <c r="Q105" s="1">
         <v>18144000000</v>
       </c>
-      <c r="X105" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y105" s="73"/>
-    </row>
-    <row r="106" spans="1:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R105" s="51"/>
+      <c r="S105" s="51"/>
+      <c r="T105" s="51"/>
+      <c r="U105" s="51"/>
+      <c r="V105" s="51"/>
+      <c r="W105" s="51"/>
+      <c r="X105" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y105" s="57">
+        <f>Y101+Y103</f>
+        <v>701726819340</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>89</v>
       </c>
@@ -10537,20 +9779,25 @@
       <c r="Q106" s="11">
         <v>16924000000</v>
       </c>
-      <c r="X106" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y106" s="58">
-        <f>(Y101*Y93)+(Y103*Y98)</f>
-        <v>0.13209769206672969</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R106" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="S106" s="86"/>
+      <c r="T106" s="86"/>
+      <c r="U106" s="86"/>
+      <c r="V106" s="86"/>
+      <c r="W106" s="51"/>
+      <c r="X106" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y106" s="85"/>
+    </row>
+    <row r="107" spans="1:25" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B107" s="1">
-        <f t="shared" ref="B107:P107" si="81">(B24*(1-$Y$92))+B79+B90+B83</f>
+        <f t="shared" ref="B107:Q107" si="81">(B24*(1-$Y$93))+B79+B90+B83</f>
         <v>-61034464.173773602</v>
       </c>
       <c r="C107" s="1">
@@ -10610,36 +9857,39 @@
         <v>2874993585.5383034</v>
       </c>
       <c r="Q107" s="1">
-        <f>(Q24*(1-$Y$92))+Q79+Q90+Q83</f>
+        <f t="shared" si="81"/>
         <v>5943198338.0712891</v>
       </c>
-      <c r="R107" s="23">
-        <f>Q107*(1+$Y$108)</f>
-        <v>7099046250.2517128</v>
-      </c>
-      <c r="S107" s="23">
-        <f t="shared" ref="S107:V107" si="82">R107*(1+$Y$108)</f>
-        <v>8479686323.16716</v>
-      </c>
-      <c r="T107" s="23">
-        <f t="shared" si="82"/>
-        <v>10128836692.218851</v>
-      </c>
-      <c r="U107" s="23">
-        <f t="shared" si="82"/>
-        <v>12098717903.909485</v>
-      </c>
-      <c r="V107" s="23">
-        <f t="shared" si="82"/>
-        <v>14451706485.783386</v>
-      </c>
-      <c r="W107" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="X107" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y107" s="71"/>
+      <c r="R107" s="78">
+        <f>R109/R5</f>
+        <v>9.0110220440881766E-2</v>
+      </c>
+      <c r="S107" s="78">
+        <f>S109/S5</f>
+        <v>0.11794466403162056</v>
+      </c>
+      <c r="T107" s="78">
+        <f>T109/T5</f>
+        <v>0.13400128865979383</v>
+      </c>
+      <c r="U107" s="78">
+        <f>U109/U5</f>
+        <v>0.1436011396011396</v>
+      </c>
+      <c r="V107" s="78">
+        <f>V109/V5</f>
+        <v>0.166854156296665</v>
+      </c>
+      <c r="W107" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="X107" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y107" s="59">
+        <f>(Y102*Y94)+(Y104*Y99)</f>
+        <v>0.12735145803110287</v>
+      </c>
     </row>
     <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
@@ -10647,94 +9897,97 @@
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="15">
-        <f t="shared" ref="C108:Q108" si="83">(C109/B109)-1</f>
+        <f t="shared" ref="C108:Q108" si="82">(C109/B109)-1</f>
         <v>-1.9424380837982591E-2</v>
       </c>
       <c r="D108" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0.49429418780825896</v>
       </c>
       <c r="E108" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0.81233752925821667</v>
       </c>
       <c r="F108" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0.85846922985358876</v>
       </c>
       <c r="G108" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0.61823160187023629</v>
       </c>
       <c r="H108" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>-0.98767091027470322</v>
       </c>
       <c r="I108" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>163.88314606741574</v>
       </c>
       <c r="J108" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1.1021249544889029</v>
       </c>
       <c r="K108" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>-0.27556870149290369</v>
       </c>
       <c r="L108" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1.6478348142939332</v>
       </c>
       <c r="M108" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>-0.94647185616251828</v>
       </c>
       <c r="N108" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>-5.3659850077126388</v>
       </c>
       <c r="O108" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1.790289256198347</v>
       </c>
       <c r="P108" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0.28952239911144018</v>
       </c>
       <c r="Q108" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1.1708297444731555</v>
       </c>
-      <c r="R108" s="43">
-        <v>9690000000</v>
-      </c>
-      <c r="S108" s="43">
-        <v>15342000000</v>
-      </c>
-      <c r="T108" s="43">
-        <v>21174000000</v>
-      </c>
-      <c r="U108" s="43">
-        <v>24106000000</v>
-      </c>
-      <c r="V108" s="43">
-        <v>29413000000</v>
-      </c>
-      <c r="W108" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="X108" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y108" s="60">
-        <f>(SUM(R6:V6)/5)</f>
-        <v>0.19448247331343885</v>
-      </c>
+      <c r="R108" s="60">
+        <f>(R109/Q109)-1</f>
+        <v>0.18939293744213725</v>
+      </c>
+      <c r="S108" s="60">
+        <f>(S109/R109)-1</f>
+        <v>0.65906816412765479</v>
+      </c>
+      <c r="T108" s="60">
+        <f>(T109/S109)-1</f>
+        <v>0.39390080428954422</v>
+      </c>
+      <c r="U108" s="60">
+        <f>(U109/T109)-1</f>
+        <v>0.21180939558590173</v>
+      </c>
+      <c r="V108" s="60">
+        <f>(V109/U109)-1</f>
+        <v>0.33009284977382758</v>
+      </c>
+      <c r="W108" s="61">
+        <f>SUM(R108:V108)/5</f>
+        <v>0.35685283024381309</v>
+      </c>
+      <c r="X108" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y108" s="82"/>
     </row>
     <row r="109" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="46" t="s">
-        <v>165</v>
+      <c r="A109" s="35" t="s">
+        <v>164</v>
       </c>
       <c r="B109" s="1">
         <v>-63271000</v>
@@ -10784,152 +10037,240 @@
       <c r="Q109" s="1">
         <v>7561000000</v>
       </c>
-      <c r="R109" s="24"/>
-      <c r="S109" s="24"/>
-      <c r="T109" s="24"/>
-      <c r="U109" s="24"/>
-      <c r="V109" s="44">
-        <f>V108*(1+Y109)/(Y110-Y109)</f>
-        <v>281503031654.64465</v>
-      </c>
-      <c r="W109" s="25" t="s">
+      <c r="R109" s="62">
+        <v>8993000000</v>
+      </c>
+      <c r="S109" s="62">
+        <v>14920000000</v>
+      </c>
+      <c r="T109" s="62">
+        <v>20797000000</v>
+      </c>
+      <c r="U109" s="62">
+        <v>25202000000</v>
+      </c>
+      <c r="V109" s="62">
+        <v>33521000000</v>
+      </c>
+      <c r="W109" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="X109" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y109" s="41">
+        <f>(SUM(R6:V6)/5)</f>
+        <v>0.19901038980821659</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.2">
+      <c r="R110" s="80"/>
+      <c r="S110" s="80"/>
+      <c r="T110" s="80"/>
+      <c r="U110" s="80"/>
+      <c r="V110" s="64">
+        <f>V109*(1+Y110)/(Y111-Y110)</f>
+        <v>335696487973.4187</v>
+      </c>
+      <c r="W110" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="X109" s="61" t="s">
+      <c r="X110" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="Y109" s="62">
+      <c r="Y110" s="42">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R110" s="44">
-        <f t="shared" ref="R110:U110" si="84">R109+R108</f>
-        <v>9690000000</v>
-      </c>
-      <c r="S110" s="44">
-        <f t="shared" si="84"/>
-        <v>15342000000</v>
-      </c>
-      <c r="T110" s="44">
-        <f t="shared" si="84"/>
-        <v>21174000000</v>
-      </c>
-      <c r="U110" s="44">
-        <f t="shared" si="84"/>
-        <v>24106000000</v>
-      </c>
-      <c r="V110" s="44">
-        <f>V109+V108</f>
-        <v>310916031654.64465</v>
-      </c>
-      <c r="W110" s="25" t="s">
+    <row r="111" spans="1:25" ht="19" x14ac:dyDescent="0.2">
+      <c r="R111" s="64">
+        <f t="shared" ref="R111:U111" si="83">R110+R109</f>
+        <v>8993000000</v>
+      </c>
+      <c r="S111" s="64">
+        <f t="shared" si="83"/>
+        <v>14920000000</v>
+      </c>
+      <c r="T111" s="64">
+        <f t="shared" si="83"/>
+        <v>20797000000</v>
+      </c>
+      <c r="U111" s="64">
+        <f t="shared" si="83"/>
+        <v>25202000000</v>
+      </c>
+      <c r="V111" s="64">
+        <f>V110+V109</f>
+        <v>369217487973.4187</v>
+      </c>
+      <c r="W111" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="X110" s="63" t="s">
+      <c r="X111" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="Y110" s="60">
-        <f>Y106</f>
-        <v>0.13209769206672969</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R111" s="72" t="s">
+      <c r="Y111" s="41">
+        <f>Y107</f>
+        <v>0.12735145803110287</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" ht="19" x14ac:dyDescent="0.2">
+      <c r="R112" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="S111" s="72"/>
-    </row>
-    <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R112" s="64" t="s">
+      <c r="S112" s="81"/>
+      <c r="T112" s="51"/>
+      <c r="U112" s="51"/>
+      <c r="V112" s="51"/>
+      <c r="W112" s="51"/>
+      <c r="X112" s="51"/>
+      <c r="Y112" s="51"/>
+    </row>
+    <row r="113" spans="18:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="R113" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="S112" s="55">
-        <f>NPV(Y110,R110,S110,T110,U110,V110)</f>
-        <v>216993609362.69022</v>
-      </c>
-    </row>
-    <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R113" s="64" t="s">
+      <c r="S113" s="56">
+        <f>NPV(Y111,R111,S111,T111,U111,V111)</f>
+        <v>252595986932.85764</v>
+      </c>
+      <c r="T113" s="51"/>
+      <c r="U113" s="51"/>
+      <c r="V113" s="51"/>
+      <c r="W113" s="51"/>
+      <c r="X113" s="51"/>
+      <c r="Y113" s="51"/>
+    </row>
+    <row r="114" spans="18:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="R114" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="S113" s="55">
+      <c r="S114" s="56">
         <f>Q42</f>
         <v>22185000000</v>
       </c>
-    </row>
-    <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R114" s="64" t="s">
+      <c r="T114" s="51"/>
+      <c r="U114" s="51"/>
+      <c r="V114" s="51"/>
+      <c r="W114" s="51"/>
+      <c r="X114" s="51"/>
+      <c r="Y114" s="51"/>
+    </row>
+    <row r="115" spans="18:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="R115" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="S114" s="55">
-        <f>Y100</f>
+      <c r="S115" s="56">
+        <f>Y101</f>
         <v>3099000000</v>
       </c>
-    </row>
-    <row r="115" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R115" s="64" t="s">
+      <c r="T115" s="51"/>
+      <c r="U115" s="51"/>
+      <c r="V115" s="51"/>
+      <c r="W115" s="51"/>
+      <c r="X115" s="51"/>
+      <c r="Y115" s="51"/>
+    </row>
+    <row r="116" spans="18:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R116" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="S115" s="55">
-        <f>S112+S113-S114</f>
-        <v>236079609362.69022</v>
-      </c>
-    </row>
-    <row r="116" spans="18:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R116" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="S116" s="64">
-        <f>Q36*(1+(0.05*5))</f>
-        <v>4233750000</v>
-      </c>
-    </row>
-    <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R117" s="65" t="s">
+      <c r="S116" s="56">
+        <f>S113+S114-S115</f>
+        <v>271681986932.85764</v>
+      </c>
+      <c r="T116" s="51"/>
+      <c r="U116" s="51"/>
+      <c r="V116" s="51"/>
+      <c r="W116" s="51"/>
+      <c r="X116" s="51"/>
+      <c r="Y116" s="51"/>
+    </row>
+    <row r="117" spans="18:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="R117" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="S117" s="68" cm="1">
+        <f t="array" ref="S117">_FV(A1,"Shares outstanding",TRUE)*(1+(0*5))</f>
+        <v>3173994000</v>
+      </c>
+      <c r="T117" s="51"/>
+      <c r="U117" s="51"/>
+      <c r="V117" s="51"/>
+      <c r="W117" s="51"/>
+      <c r="X117" s="51"/>
+      <c r="Y117" s="51"/>
+    </row>
+    <row r="118" spans="18:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="R118" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="S117" s="66">
-        <f>S115/S116</f>
-        <v>55.761348535622133</v>
-      </c>
-    </row>
-    <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R118" s="64" t="s">
+      <c r="S118" s="70">
+        <f>S116/S117</f>
+        <v>85.596250948444649</v>
+      </c>
+      <c r="T118" s="51"/>
+      <c r="U118" s="51"/>
+      <c r="V118" s="51"/>
+      <c r="W118" s="51"/>
+      <c r="X118" s="51"/>
+      <c r="Y118" s="51"/>
+    </row>
+    <row r="119" spans="18:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="R119" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="S118" s="67" cm="1">
-        <f t="array" ref="S118">_FV(A1,"Price",TRUE)</f>
-        <v>265.27999999999997</v>
-      </c>
-    </row>
-    <row r="119" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R119" s="65" t="s">
+      <c r="S119" s="71" cm="1">
+        <f t="array" ref="S119">_FV(A1,"Price",TRUE)</f>
+        <v>220.11</v>
+      </c>
+      <c r="T119" s="51"/>
+      <c r="U119" s="51"/>
+      <c r="V119" s="51"/>
+      <c r="W119" s="51"/>
+      <c r="X119" s="51"/>
+      <c r="Y119" s="51"/>
+    </row>
+    <row r="120" spans="18:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="R120" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="S119" s="68">
-        <f>S117/S118-1</f>
-        <v>-0.78980191293869817</v>
-      </c>
-    </row>
-    <row r="120" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R120" s="65" t="s">
+      <c r="S120" s="72">
+        <f>S118/S119-1</f>
+        <v>-0.61112057176664103</v>
+      </c>
+      <c r="T120" s="51"/>
+      <c r="U120" s="51"/>
+      <c r="V120" s="51"/>
+      <c r="W120" s="51"/>
+      <c r="X120" s="51"/>
+      <c r="Y120" s="51"/>
+    </row>
+    <row r="121" spans="18:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="R121" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="S120" s="69" t="str">
-        <f>IF(S117&gt;S118,"BUY","SELL")</f>
+      <c r="S121" s="73" t="str">
+        <f>IF(S118&gt;S119,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="T121" s="51"/>
+      <c r="U121" s="51"/>
+      <c r="V121" s="51"/>
+      <c r="W121" s="51"/>
+      <c r="X121" s="51"/>
+      <c r="Y121" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="X107:Y107"/>
-    <mergeCell ref="R111:S111"/>
+  <mergeCells count="8">
+    <mergeCell ref="R112:S112"/>
+    <mergeCell ref="X108:Y108"/>
     <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="X94:Y94"/>
-    <mergeCell ref="X99:Y99"/>
-    <mergeCell ref="X105:Y105"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="X95:Y95"/>
+    <mergeCell ref="X100:Y100"/>
+    <mergeCell ref="X106:Y106"/>
+    <mergeCell ref="R106:V106"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/TSLA" display="ROIC.AI | TSLA" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -10966,7 +10307,7 @@
     <hyperlink ref="Q38" r:id="rId32" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000095017023001409/0000950170-23-001409-index.htm" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="Q76" r:id="rId33" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000095017023001409/0000950170-23-001409-index.htm" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="R1" r:id="rId34" display="https://finbox.com/NASDAQGS:TSLA/explorer/revenue_proj" xr:uid="{3BB34DC7-FA61-5D45-B17B-00CAD693BF05}"/>
-    <hyperlink ref="W108" r:id="rId35" xr:uid="{C0A1206A-10FC-EC4B-91A2-F3B2C8D0D845}"/>
+    <hyperlink ref="W109" r:id="rId35" xr:uid="{C0A1206A-10FC-EC4B-91A2-F3B2C8D0D845}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId36"/>

--- a/Technology/Hardware/Tesla.xlsx
+++ b/Technology/Hardware/Tesla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EB20C0-1305-C04E-B4E4-CC24AF90DD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8935A2A-7FDA-0840-BDB9-486C11570772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,7 +582,7 @@
     <t>5Y Fwd Income CAGR</t>
   </si>
   <si>
-    <t>Shares (No dilution)</t>
+    <t>Shares Outstanding</t>
   </si>
 </sst>
 </file>
@@ -964,9 +964,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="170" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1113,6 +1110,9 @@
     <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1390,19 +1390,19 @@
                   <c:v>81462000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>99800000000</c:v>
+                  <c:v>99961000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>126500000000</c:v>
+                  <c:v>122000000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>155200000000</c:v>
+                  <c:v>148100000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>175500000000</c:v>
+                  <c:v>164300000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>200900000000</c:v>
+                  <c:v>186800000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1587,19 +1587,19 @@
                   <c:v>12556000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12011000000</c:v>
+                  <c:v>11156000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16370000000</c:v>
+                  <c:v>14984000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21241000000</c:v>
+                  <c:v>19400000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24988000000</c:v>
+                  <c:v>23894000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27256000000</c:v>
+                  <c:v>25529000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1784,19 +1784,19 @@
                   <c:v>7561000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8993000000</c:v>
+                  <c:v>7879000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14920000000</c:v>
+                  <c:v>12154000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20797000000</c:v>
+                  <c:v>17157000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25202000000</c:v>
+                  <c:v>22282000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33521000000</c:v>
+                  <c:v>30175000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,7 +1849,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1936,8 +1936,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33435456614434822"/>
-          <c:y val="0.87396050436747796"/>
+          <c:x val="0.34095527663002517"/>
+          <c:y val="0.87974910725090705"/>
           <c:w val="0.31326254515215302"/>
           <c:h val="6.2258174448011766E-2"/>
         </c:manualLayout>
@@ -1955,7 +1955,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -2525,8 +2525,8 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2589,7 +2589,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2730,11 +2730,11 @@
     <v>Powered by Refinitiv</v>
     <v>299.29000000000002</v>
     <v>101.81</v>
-    <v>2.2483</v>
-    <v>-22.57</v>
-    <v>-9.3003000000000002E-2</v>
-    <v>-2.21</v>
-    <v>-1.004E-2</v>
+    <v>2.2572999999999999</v>
+    <v>-8.1199999999999992</v>
+    <v>-3.6891E-2</v>
+    <v>0.76049999999999995</v>
+    <v>3.5870000000000003E-3</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
     <v>127855</v>
@@ -2742,25 +2742,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>230.61</v>
+    <v>218.86060000000001</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45218.999996573439</v>
+    <v>45219.999991226563</v>
     <v>0</v>
-    <v>216.78</v>
-    <v>698627819340</v>
+    <v>210.42</v>
+    <v>672854988060</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>225.95</v>
-    <v>78.1858</v>
-    <v>242.68</v>
+    <v>217.01</v>
+    <v>70.914199999999994</v>
     <v>220.11</v>
-    <v>217.9</v>
+    <v>211.99</v>
+    <v>212.75049999999999</v>
     <v>3173994000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>170772713</v>
-    <v>113896803</v>
+    <v>138010095</v>
+    <v>116419318</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -3348,10 +3348,10 @@
   <dimension ref="A1:Z121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S90" sqref="S90"/>
+      <selection pane="bottomRight" activeCell="S124" sqref="S124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3683,19 +3683,19 @@
         <v>81462000000</v>
       </c>
       <c r="R5" s="17">
-        <v>99800000000</v>
+        <v>99961000000</v>
       </c>
       <c r="S5" s="17">
-        <v>126500000000</v>
+        <v>122000000000</v>
       </c>
       <c r="T5" s="17">
-        <v>155200000000</v>
+        <v>148100000000</v>
       </c>
       <c r="U5" s="17">
-        <v>175500000000</v>
+        <v>164300000000</v>
       </c>
       <c r="V5" s="17">
-        <v>200900000000</v>
+        <v>186800000000</v>
       </c>
       <c r="W5" s="29" t="s">
         <v>99</v>
@@ -3777,23 +3777,23 @@
       </c>
       <c r="R6" s="18">
         <f t="shared" ref="R6" si="14">(R5/Q5)-1</f>
-        <v>0.2251110947435615</v>
+        <v>0.22708747636935023</v>
       </c>
       <c r="S6" s="18">
         <f t="shared" ref="S6" si="15">(S5/R5)-1</f>
-        <v>0.26753507014028055</v>
+        <v>0.22047598563439741</v>
       </c>
       <c r="T6" s="18">
         <f t="shared" ref="T6" si="16">(T5/S5)-1</f>
-        <v>0.22687747035573125</v>
+        <v>0.2139344262295082</v>
       </c>
       <c r="U6" s="18">
         <f>(U5/T5)-1</f>
-        <v>0.13079896907216493</v>
+        <v>0.10938555030384878</v>
       </c>
       <c r="V6" s="18">
         <f t="shared" ref="V6" si="17">(V5/U5)-1</f>
-        <v>0.14472934472934473</v>
+        <v>0.1369446135118686</v>
       </c>
       <c r="W6" s="25">
         <f>(Q6+P6+O6)/3</f>
@@ -3917,20 +3917,20 @@
       <c r="Q8" s="10">
         <v>20853000000</v>
       </c>
-      <c r="R8" s="76">
+      <c r="R8" s="75">
         <f>R5*R9</f>
-        <v>18153620000</v>
-      </c>
-      <c r="W8" s="74" t="s">
+        <v>18182905900</v>
+      </c>
+      <c r="W8" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="X8" s="75" t="s">
+      <c r="X8" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" s="75" t="s">
+      <c r="Y8" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="Z8" s="75" t="s">
+      <c r="Z8" s="74" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3995,15 +3995,15 @@
       </c>
       <c r="X9" s="26">
         <f>R23</f>
-        <v>0.17447895791583165</v>
+        <v>0.16984624003361312</v>
       </c>
       <c r="Y9" s="26">
         <f>R32</f>
-        <v>0.12035070140280561</v>
+        <v>0.11160352537489621</v>
       </c>
       <c r="Z9" s="26">
         <f>R109/R5</f>
-        <v>9.0110220440881766E-2</v>
+        <v>7.8820740088634572E-2</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4407,7 +4407,7 @@
         <f>Q24/(Q74+Q58+Q63)</f>
         <v>0.28567244733594127</v>
       </c>
-      <c r="Z15" s="43">
+      <c r="Z15" s="42">
         <f>Q69/Q74</f>
         <v>0.83269953471725122</v>
       </c>
@@ -4583,20 +4583,20 @@
         <v>67806000000</v>
       </c>
       <c r="W18" s="21">
-        <f>(Q37+P37+O37+N37+M37)/5</f>
-        <v>6.5503438863175154E-2</v>
+        <f>SUM(N37:R37)/5</f>
+        <v>4.7173823765168356E-2</v>
       </c>
       <c r="X18" s="32">
         <f>Y103/Q5</f>
-        <v>8.5761191640273999</v>
+        <v>8.2597405914414086</v>
       </c>
       <c r="Y18" s="32">
         <f>Y103/Q30</f>
-        <v>55.640954072953171</v>
+        <v>53.588323356164381</v>
       </c>
       <c r="Z18" s="33">
         <f>Y103/Q109</f>
-        <v>92.398865142176959</v>
+        <v>88.990211355640781</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4769,20 +4769,20 @@
       <c r="Q21" s="10">
         <v>17626000000</v>
       </c>
-      <c r="R21" s="45">
-        <v>17413000000</v>
-      </c>
-      <c r="S21" s="45">
-        <v>24445000000</v>
-      </c>
-      <c r="T21" s="45">
-        <v>31500000000</v>
-      </c>
-      <c r="U21" s="45">
-        <v>39868000000</v>
-      </c>
-      <c r="V21" s="45">
-        <v>46478000000</v>
+      <c r="R21" s="44">
+        <v>16978000000</v>
+      </c>
+      <c r="S21" s="44">
+        <v>21578000000</v>
+      </c>
+      <c r="T21" s="44">
+        <v>27879000000</v>
+      </c>
+      <c r="U21" s="44">
+        <v>36754000000</v>
+      </c>
+      <c r="V21" s="44">
+        <v>42672000000</v>
       </c>
       <c r="W21" s="27">
         <f>Q42-Q58-Q63</f>
@@ -4790,15 +4790,15 @@
       </c>
       <c r="X21" s="32">
         <f>Y103/R5</f>
-        <v>7.0002787509018036</v>
+        <v>6.7311750388651577</v>
       </c>
       <c r="Y21" s="34">
         <f>Y103/R30</f>
-        <v>58.165666417450673</v>
+        <v>60.313283261025454</v>
       </c>
       <c r="Z21" s="33">
         <f>Y103/R109</f>
-        <v>77.685735498721229</v>
+        <v>85.398526216524942</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4866,25 +4866,25 @@
         <f t="shared" ref="Q22" si="44">(Q21/P21)-1</f>
         <v>0.85536842105263156</v>
       </c>
-      <c r="R22" s="46">
+      <c r="R22" s="45">
         <f t="shared" ref="R22" si="45">(R21/Q21)-1</f>
-        <v>-1.20844207420856E-2</v>
-      </c>
-      <c r="S22" s="46">
+        <v>-3.6763871553387006E-2</v>
+      </c>
+      <c r="S22" s="45">
         <f t="shared" ref="S22" si="46">(S21/R21)-1</f>
-        <v>0.40383621432263261</v>
-      </c>
-      <c r="T22" s="46">
+        <v>0.27093886205677942</v>
+      </c>
+      <c r="T22" s="45">
         <f t="shared" ref="T22" si="47">(T21/S21)-1</f>
-        <v>0.28860707711188383</v>
-      </c>
-      <c r="U22" s="46">
+        <v>0.29201038094355369</v>
+      </c>
+      <c r="U22" s="45">
         <f t="shared" ref="U22" si="48">(U21/T21)-1</f>
-        <v>0.26565079365079369</v>
-      </c>
-      <c r="V22" s="46">
+        <v>0.3183399691524087</v>
+      </c>
+      <c r="V22" s="45">
         <f t="shared" ref="V22" si="49">(V21/U21)-1</f>
-        <v>0.16579713053075151</v>
+        <v>0.16101648800130608</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -4939,27 +4939,27 @@
       <c r="Q23" s="2">
         <v>0.21640000000000001</v>
       </c>
-      <c r="R23" s="47">
+      <c r="R23" s="46">
         <f>R21/R5</f>
-        <v>0.17447895791583165</v>
-      </c>
-      <c r="S23" s="47">
+        <v>0.16984624003361312</v>
+      </c>
+      <c r="S23" s="46">
         <f t="shared" ref="S23:V23" si="50">S21/S5</f>
-        <v>0.19324110671936759</v>
-      </c>
-      <c r="T23" s="47">
+        <v>0.1768688524590164</v>
+      </c>
+      <c r="T23" s="46">
         <f t="shared" si="50"/>
-        <v>0.2029639175257732</v>
-      </c>
-      <c r="U23" s="47">
+        <v>0.18824442943956787</v>
+      </c>
+      <c r="U23" s="46">
         <f t="shared" si="50"/>
-        <v>0.22716809116809117</v>
-      </c>
-      <c r="V23" s="47">
+        <v>0.22370054777845405</v>
+      </c>
+      <c r="V23" s="46">
         <f t="shared" si="50"/>
-        <v>0.23134892981582877</v>
-      </c>
-      <c r="X23" s="50" t="s">
+        <v>0.22843683083511776</v>
+      </c>
+      <c r="X23" s="49" t="s">
         <v>168</v>
       </c>
       <c r="Y23" s="23" t="s">
@@ -5023,15 +5023,15 @@
       </c>
       <c r="X24" s="25">
         <f>SUM(R31:V31)/5</f>
-        <v>0.17684719580658537</v>
-      </c>
-      <c r="Y24" s="36">
+        <v>0.16528486571546125</v>
+      </c>
+      <c r="Y24" s="86">
         <f>Q100/Y103</f>
         <v>0</v>
       </c>
-      <c r="Z24" s="37">
+      <c r="Z24" s="36">
         <f>R109/Y103</f>
-        <v>1.2872376036350467E-2</v>
+        <v>1.1709803954514805E-2</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5351,20 +5351,20 @@
       <c r="Q30" s="11">
         <v>12556000000</v>
       </c>
-      <c r="R30" s="44">
-        <v>12011000000</v>
-      </c>
-      <c r="S30" s="44">
-        <v>16370000000</v>
-      </c>
-      <c r="T30" s="44">
-        <v>21241000000</v>
-      </c>
-      <c r="U30" s="44">
-        <v>24988000000</v>
-      </c>
-      <c r="V30" s="44">
-        <v>27256000000</v>
+      <c r="R30" s="43">
+        <v>11156000000</v>
+      </c>
+      <c r="S30" s="43">
+        <v>14984000000</v>
+      </c>
+      <c r="T30" s="43">
+        <v>19400000000</v>
+      </c>
+      <c r="U30" s="43">
+        <v>23894000000</v>
+      </c>
+      <c r="V30" s="43">
+        <v>25529000000</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5432,25 +5432,25 @@
         <f t="shared" ref="Q31" si="62">(Q30/P30)-1</f>
         <v>1.2750498278673672</v>
       </c>
-      <c r="R31" s="46">
+      <c r="R31" s="45">
         <f t="shared" ref="R31" si="63">(R30/Q30)-1</f>
-        <v>-4.3405543166613603E-2</v>
-      </c>
-      <c r="S31" s="46">
+        <v>-0.11150047785919082</v>
+      </c>
+      <c r="S31" s="45">
         <f t="shared" ref="S31" si="64">(S30/R30)-1</f>
-        <v>0.36291732578469738</v>
-      </c>
-      <c r="T31" s="46">
+        <v>0.34313373969164584</v>
+      </c>
+      <c r="T31" s="45">
         <f t="shared" ref="T31" si="65">(T30/S30)-1</f>
-        <v>0.29755650580329873</v>
-      </c>
-      <c r="U31" s="46">
+        <v>0.29471436198611856</v>
+      </c>
+      <c r="U31" s="45">
         <f t="shared" ref="U31" si="66">(U30/T30)-1</f>
-        <v>0.17640412409961859</v>
-      </c>
-      <c r="V31" s="46">
+        <v>0.23164948453608258</v>
+      </c>
+      <c r="V31" s="45">
         <f>V30/U30-1</f>
-        <v>9.0763566511925742E-2</v>
+        <v>6.8427220222650131E-2</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5505,25 +5505,25 @@
       <c r="Q32" s="2">
         <v>0.15409999999999999</v>
       </c>
-      <c r="R32" s="48">
+      <c r="R32" s="47">
         <f>R30/R5</f>
-        <v>0.12035070140280561</v>
-      </c>
-      <c r="S32" s="48">
+        <v>0.11160352537489621</v>
+      </c>
+      <c r="S32" s="47">
         <f t="shared" ref="S32:V32" si="67">S30/S5</f>
-        <v>0.12940711462450594</v>
-      </c>
-      <c r="T32" s="48">
+        <v>0.12281967213114754</v>
+      </c>
+      <c r="T32" s="47">
         <f t="shared" si="67"/>
-        <v>0.13686211340206186</v>
-      </c>
-      <c r="U32" s="48">
+        <v>0.13099257258609048</v>
+      </c>
+      <c r="U32" s="47">
         <f t="shared" si="67"/>
-        <v>0.14238176638176639</v>
-      </c>
-      <c r="V32" s="48">
+        <v>0.14542909312233718</v>
+      </c>
+      <c r="V32" s="47">
         <f t="shared" si="67"/>
-        <v>0.13566948730711798</v>
+        <v>0.13666488222698073</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -5578,20 +5578,20 @@
       <c r="Q33" s="12">
         <v>4.24</v>
       </c>
-      <c r="R33" s="49">
-        <v>3.8</v>
-      </c>
-      <c r="S33" s="49">
-        <v>5.17</v>
-      </c>
-      <c r="T33" s="49">
-        <v>6.71</v>
-      </c>
-      <c r="U33" s="49">
-        <v>7.9</v>
-      </c>
-      <c r="V33" s="49">
-        <v>8.61</v>
+      <c r="R33" s="48">
+        <v>3.51</v>
+      </c>
+      <c r="S33" s="48">
+        <v>4.72</v>
+      </c>
+      <c r="T33" s="48">
+        <v>6.11</v>
+      </c>
+      <c r="U33" s="48">
+        <v>7.56</v>
+      </c>
+      <c r="V33" s="48">
+        <v>8.0399999999999991</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8390,16 +8390,16 @@
       <c r="Q85" s="1">
         <v>-6465000000</v>
       </c>
-      <c r="R85" s="51"/>
-      <c r="S85" s="51"/>
-      <c r="T85" s="51"/>
-      <c r="U85" s="51"/>
-      <c r="V85" s="51"/>
-      <c r="W85" s="51"/>
-      <c r="X85" s="83" t="s">
+      <c r="R85" s="50"/>
+      <c r="S85" s="50"/>
+      <c r="T85" s="50"/>
+      <c r="U85" s="50"/>
+      <c r="V85" s="50"/>
+      <c r="W85" s="50"/>
+      <c r="X85" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="Y85" s="84"/>
+      <c r="Y85" s="83"/>
     </row>
     <row r="86" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -8453,16 +8453,16 @@
       <c r="Q86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R86" s="51"/>
-      <c r="S86" s="51"/>
-      <c r="T86" s="51"/>
-      <c r="U86" s="51"/>
-      <c r="V86" s="51"/>
-      <c r="W86" s="51"/>
-      <c r="X86" s="85" t="s">
+      <c r="R86" s="50"/>
+      <c r="S86" s="50"/>
+      <c r="T86" s="50"/>
+      <c r="U86" s="50"/>
+      <c r="V86" s="50"/>
+      <c r="W86" s="50"/>
+      <c r="X86" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="Y86" s="85"/>
+      <c r="Y86" s="84"/>
     </row>
     <row r="87" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
@@ -8516,16 +8516,16 @@
       <c r="Q87" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R87" s="51"/>
-      <c r="S87" s="51"/>
-      <c r="T87" s="51"/>
-      <c r="U87" s="51"/>
-      <c r="V87" s="51"/>
-      <c r="W87" s="51"/>
-      <c r="X87" s="38" t="s">
+      <c r="R87" s="50"/>
+      <c r="S87" s="50"/>
+      <c r="T87" s="50"/>
+      <c r="U87" s="50"/>
+      <c r="V87" s="50"/>
+      <c r="W87" s="50"/>
+      <c r="X87" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="Y87" s="52">
+      <c r="Y87" s="51">
         <f>Q19</f>
         <v>191000000</v>
       </c>
@@ -8582,16 +8582,16 @@
       <c r="Q88" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R88" s="51"/>
-      <c r="S88" s="51"/>
-      <c r="T88" s="51"/>
-      <c r="U88" s="51"/>
-      <c r="V88" s="51"/>
-      <c r="W88" s="51"/>
-      <c r="X88" s="38" t="s">
+      <c r="R88" s="50"/>
+      <c r="S88" s="50"/>
+      <c r="T88" s="50"/>
+      <c r="U88" s="50"/>
+      <c r="V88" s="50"/>
+      <c r="W88" s="50"/>
+      <c r="X88" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="Y88" s="52">
+      <c r="Y88" s="51">
         <f>Q58</f>
         <v>1502000000</v>
       </c>
@@ -8648,16 +8648,16 @@
       <c r="Q89" s="10">
         <v>14724000000</v>
       </c>
-      <c r="R89" s="51"/>
-      <c r="S89" s="51"/>
-      <c r="T89" s="51"/>
-      <c r="U89" s="51"/>
-      <c r="V89" s="51"/>
-      <c r="W89" s="51"/>
-      <c r="X89" s="38" t="s">
+      <c r="R89" s="50"/>
+      <c r="S89" s="50"/>
+      <c r="T89" s="50"/>
+      <c r="U89" s="50"/>
+      <c r="V89" s="50"/>
+      <c r="W89" s="50"/>
+      <c r="X89" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="Y89" s="52">
+      <c r="Y89" s="51">
         <f>Q63</f>
         <v>1597000000</v>
       </c>
@@ -8714,16 +8714,16 @@
       <c r="Q90" s="1">
         <v>-7163000000</v>
       </c>
-      <c r="R90" s="51"/>
-      <c r="S90" s="51"/>
-      <c r="T90" s="51"/>
-      <c r="U90" s="51"/>
-      <c r="V90" s="51"/>
-      <c r="W90" s="51"/>
-      <c r="X90" s="39" t="s">
+      <c r="R90" s="50"/>
+      <c r="S90" s="50"/>
+      <c r="T90" s="50"/>
+      <c r="U90" s="50"/>
+      <c r="V90" s="50"/>
+      <c r="W90" s="50"/>
+      <c r="X90" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="Y90" s="53">
+      <c r="Y90" s="52">
         <f>Y87/(Y88+Y89)</f>
         <v>6.1632784769280413E-2</v>
       </c>
@@ -8796,16 +8796,16 @@
         <f t="shared" si="80"/>
         <v>8.7930568854189678E-2</v>
       </c>
-      <c r="R91" s="51"/>
-      <c r="S91" s="51"/>
-      <c r="T91" s="51"/>
-      <c r="U91" s="51"/>
-      <c r="V91" s="51"/>
-      <c r="W91" s="51"/>
-      <c r="X91" s="38" t="s">
+      <c r="R91" s="50"/>
+      <c r="S91" s="50"/>
+      <c r="T91" s="50"/>
+      <c r="U91" s="50"/>
+      <c r="V91" s="50"/>
+      <c r="W91" s="50"/>
+      <c r="X91" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="Y91" s="52">
+      <c r="Y91" s="51">
         <f>Q29</f>
         <v>1132000000</v>
       </c>
@@ -8862,16 +8862,16 @@
       <c r="Q92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R92" s="51"/>
-      <c r="S92" s="51"/>
-      <c r="T92" s="51"/>
-      <c r="U92" s="51"/>
-      <c r="V92" s="51"/>
-      <c r="W92" s="51"/>
-      <c r="X92" s="38" t="s">
+      <c r="R92" s="50"/>
+      <c r="S92" s="50"/>
+      <c r="T92" s="50"/>
+      <c r="U92" s="50"/>
+      <c r="V92" s="50"/>
+      <c r="W92" s="50"/>
+      <c r="X92" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Y92" s="52">
+      <c r="Y92" s="51">
         <f>Q27</f>
         <v>13719000000</v>
       </c>
@@ -8928,16 +8928,16 @@
       <c r="Q93" s="1">
         <v>-5835000000</v>
       </c>
-      <c r="R93" s="51"/>
-      <c r="S93" s="51"/>
-      <c r="T93" s="51"/>
-      <c r="U93" s="51"/>
-      <c r="V93" s="51"/>
-      <c r="W93" s="51"/>
-      <c r="X93" s="39" t="s">
+      <c r="R93" s="50"/>
+      <c r="S93" s="50"/>
+      <c r="T93" s="50"/>
+      <c r="U93" s="50"/>
+      <c r="V93" s="50"/>
+      <c r="W93" s="50"/>
+      <c r="X93" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="Y93" s="53">
+      <c r="Y93" s="52">
         <f>Y91/Y92</f>
         <v>8.2513302718857054E-2</v>
       </c>
@@ -8994,16 +8994,16 @@
       <c r="Q94" s="1">
         <v>22000000</v>
       </c>
-      <c r="R94" s="51"/>
-      <c r="S94" s="51"/>
-      <c r="T94" s="51"/>
-      <c r="U94" s="51"/>
-      <c r="V94" s="51"/>
-      <c r="W94" s="51"/>
-      <c r="X94" s="39" t="s">
+      <c r="R94" s="50"/>
+      <c r="S94" s="50"/>
+      <c r="T94" s="50"/>
+      <c r="U94" s="50"/>
+      <c r="V94" s="50"/>
+      <c r="W94" s="50"/>
+      <c r="X94" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="Y94" s="53">
+      <c r="Y94" s="52">
         <f>Y90*(1-Y93)</f>
         <v>5.6547260142206617E-2</v>
       </c>
@@ -9060,16 +9060,16 @@
       <c r="Q95" s="1">
         <v>1003000000</v>
       </c>
-      <c r="R95" s="51"/>
-      <c r="S95" s="51"/>
-      <c r="T95" s="51"/>
-      <c r="U95" s="51"/>
-      <c r="V95" s="51"/>
-      <c r="W95" s="51"/>
-      <c r="X95" s="85" t="s">
+      <c r="R95" s="50"/>
+      <c r="S95" s="50"/>
+      <c r="T95" s="50"/>
+      <c r="U95" s="50"/>
+      <c r="V95" s="50"/>
+      <c r="W95" s="50"/>
+      <c r="X95" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="Y95" s="85"/>
+      <c r="Y95" s="84"/>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
@@ -9123,18 +9123,18 @@
       <c r="Q96" s="10">
         <v>-11973000000</v>
       </c>
-      <c r="R96" s="51"/>
-      <c r="S96" s="51"/>
-      <c r="T96" s="51"/>
-      <c r="U96" s="51"/>
-      <c r="V96" s="51"/>
-      <c r="W96" s="51"/>
-      <c r="X96" s="38" t="s">
+      <c r="R96" s="50"/>
+      <c r="S96" s="50"/>
+      <c r="T96" s="50"/>
+      <c r="U96" s="50"/>
+      <c r="V96" s="50"/>
+      <c r="W96" s="50"/>
+      <c r="X96" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="Y96" s="77">
+      <c r="Y96" s="76">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9189,18 +9189,18 @@
       <c r="Q97" s="1">
         <v>-3866000000</v>
       </c>
-      <c r="R97" s="51"/>
-      <c r="S97" s="51"/>
-      <c r="T97" s="51"/>
-      <c r="U97" s="51"/>
-      <c r="V97" s="51"/>
-      <c r="W97" s="51"/>
-      <c r="X97" s="38" t="s">
+      <c r="R97" s="50"/>
+      <c r="S97" s="50"/>
+      <c r="T97" s="50"/>
+      <c r="U97" s="50"/>
+      <c r="V97" s="50"/>
+      <c r="W97" s="50"/>
+      <c r="X97" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="Y97" s="55" cm="1">
+      <c r="Y97" s="54" cm="1">
         <f t="array" ref="Y97">_FV(A1,"Beta")</f>
-        <v>2.2483</v>
+        <v>2.2572999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9255,16 +9255,16 @@
       <c r="Q98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R98" s="51"/>
-      <c r="S98" s="51"/>
-      <c r="T98" s="51"/>
-      <c r="U98" s="51"/>
-      <c r="V98" s="51"/>
-      <c r="W98" s="51"/>
-      <c r="X98" s="38" t="s">
+      <c r="R98" s="50"/>
+      <c r="S98" s="50"/>
+      <c r="T98" s="50"/>
+      <c r="U98" s="50"/>
+      <c r="V98" s="50"/>
+      <c r="W98" s="50"/>
+      <c r="X98" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="Y98" s="54">
+      <c r="Y98" s="53">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -9320,18 +9320,18 @@
       <c r="Q99" s="20">
         <v>0</v>
       </c>
-      <c r="R99" s="51"/>
-      <c r="S99" s="51"/>
-      <c r="T99" s="51"/>
-      <c r="U99" s="51"/>
-      <c r="V99" s="51"/>
-      <c r="W99" s="51"/>
-      <c r="X99" s="39" t="s">
+      <c r="R99" s="50"/>
+      <c r="S99" s="50"/>
+      <c r="T99" s="50"/>
+      <c r="U99" s="50"/>
+      <c r="V99" s="50"/>
+      <c r="W99" s="50"/>
+      <c r="X99" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="Y99" s="53">
+      <c r="Y99" s="52">
         <f>(Y96)+((Y97)*(Y98-Y96))</f>
-        <v>0.127665534</v>
+        <v>0.126899076</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -9386,16 +9386,16 @@
       <c r="Q100" s="20">
         <v>0</v>
       </c>
-      <c r="R100" s="51"/>
-      <c r="S100" s="51"/>
-      <c r="T100" s="51"/>
-      <c r="U100" s="51"/>
-      <c r="V100" s="51"/>
-      <c r="W100" s="51"/>
-      <c r="X100" s="85" t="s">
+      <c r="R100" s="50"/>
+      <c r="S100" s="50"/>
+      <c r="T100" s="50"/>
+      <c r="U100" s="50"/>
+      <c r="V100" s="50"/>
+      <c r="W100" s="50"/>
+      <c r="X100" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="Y100" s="85"/>
+      <c r="Y100" s="84"/>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
@@ -9449,16 +9449,15 @@
       <c r="Q101" s="1">
         <v>339000000</v>
       </c>
-      <c r="R101" s="51"/>
-      <c r="S101" s="51"/>
-      <c r="T101" s="51"/>
-      <c r="U101" s="51"/>
-      <c r="V101" s="51"/>
-      <c r="W101" s="51"/>
-      <c r="X101" s="38" t="s">
+      <c r="R101" s="50"/>
+      <c r="S101" s="50"/>
+      <c r="T101" s="50"/>
+      <c r="V101" s="50"/>
+      <c r="W101" s="50"/>
+      <c r="X101" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="Y101" s="52">
+      <c r="Y101" s="51">
         <f>Y88+Y89</f>
         <v>3099000000</v>
       </c>
@@ -9515,18 +9514,18 @@
       <c r="Q102" s="10">
         <v>-3527000000</v>
       </c>
-      <c r="R102" s="51"/>
-      <c r="S102" s="51"/>
-      <c r="T102" s="51"/>
-      <c r="U102" s="51"/>
-      <c r="V102" s="51"/>
-      <c r="W102" s="51"/>
-      <c r="X102" s="39" t="s">
+      <c r="R102" s="50"/>
+      <c r="S102" s="50"/>
+      <c r="T102" s="50"/>
+      <c r="U102" s="50"/>
+      <c r="V102" s="50"/>
+      <c r="W102" s="50"/>
+      <c r="X102" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="Y102" s="53">
+      <c r="Y102" s="52">
         <f>Y101/Y105</f>
-        <v>4.416248481018189E-3</v>
+        <v>4.5846315795756831E-3</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9581,18 +9580,18 @@
       <c r="Q103" s="1">
         <v>-444000000</v>
       </c>
-      <c r="R103" s="51"/>
-      <c r="S103" s="51"/>
-      <c r="T103" s="51"/>
-      <c r="U103" s="51"/>
-      <c r="V103" s="51"/>
-      <c r="W103" s="51"/>
-      <c r="X103" s="38" t="s">
+      <c r="R103" s="50"/>
+      <c r="S103" s="50"/>
+      <c r="T103" s="50"/>
+      <c r="U103" s="50"/>
+      <c r="V103" s="50"/>
+      <c r="W103" s="50"/>
+      <c r="X103" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="Y103" s="56" cm="1">
+      <c r="Y103" s="55" cm="1">
         <f t="array" ref="Y103">+_FV(A1,"Market cap",TRUE)</f>
-        <v>698627819340</v>
+        <v>672854988060</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9647,18 +9646,18 @@
       <c r="Q104" s="10">
         <v>-1220000000</v>
       </c>
-      <c r="R104" s="51"/>
-      <c r="S104" s="51"/>
-      <c r="T104" s="51"/>
-      <c r="U104" s="51"/>
-      <c r="V104" s="51"/>
-      <c r="W104" s="51"/>
-      <c r="X104" s="39" t="s">
+      <c r="R104" s="50"/>
+      <c r="S104" s="50"/>
+      <c r="T104" s="50"/>
+      <c r="U104" s="50"/>
+      <c r="V104" s="50"/>
+      <c r="W104" s="50"/>
+      <c r="X104" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="Y104" s="53">
+      <c r="Y104" s="52">
         <f>Y103/Y105</f>
-        <v>0.99558375151898182</v>
+        <v>0.99541536842042433</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -9713,18 +9712,18 @@
       <c r="Q105" s="1">
         <v>18144000000</v>
       </c>
-      <c r="R105" s="51"/>
-      <c r="S105" s="51"/>
-      <c r="T105" s="51"/>
-      <c r="U105" s="51"/>
-      <c r="V105" s="51"/>
-      <c r="W105" s="51"/>
-      <c r="X105" s="39" t="s">
+      <c r="R105" s="50"/>
+      <c r="S105" s="50"/>
+      <c r="T105" s="50"/>
+      <c r="U105" s="50"/>
+      <c r="V105" s="50"/>
+      <c r="W105" s="50"/>
+      <c r="X105" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="Y105" s="57">
+      <c r="Y105" s="56">
         <f>Y101+Y103</f>
-        <v>701726819340</v>
+        <v>675953988060</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9779,18 +9778,18 @@
       <c r="Q106" s="11">
         <v>16924000000</v>
       </c>
-      <c r="R106" s="86" t="s">
+      <c r="R106" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="S106" s="86"/>
-      <c r="T106" s="86"/>
-      <c r="U106" s="86"/>
-      <c r="V106" s="86"/>
-      <c r="W106" s="51"/>
-      <c r="X106" s="85" t="s">
+      <c r="S106" s="85"/>
+      <c r="T106" s="85"/>
+      <c r="U106" s="85"/>
+      <c r="V106" s="85"/>
+      <c r="W106" s="50"/>
+      <c r="X106" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="Y106" s="85"/>
+      <c r="Y106" s="84"/>
     </row>
     <row r="107" spans="1:25" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
@@ -9860,35 +9859,35 @@
         <f t="shared" si="81"/>
         <v>5943198338.0712891</v>
       </c>
-      <c r="R107" s="78">
+      <c r="R107" s="77">
         <f>R109/R5</f>
-        <v>9.0110220440881766E-2</v>
-      </c>
-      <c r="S107" s="78">
+        <v>7.8820740088634572E-2</v>
+      </c>
+      <c r="S107" s="77">
         <f>S109/S5</f>
-        <v>0.11794466403162056</v>
-      </c>
-      <c r="T107" s="78">
+        <v>9.9622950819672138E-2</v>
+      </c>
+      <c r="T107" s="77">
         <f>T109/T5</f>
-        <v>0.13400128865979383</v>
-      </c>
-      <c r="U107" s="78">
+        <v>0.11584740040513167</v>
+      </c>
+      <c r="U107" s="77">
         <f>U109/U5</f>
-        <v>0.1436011396011396</v>
-      </c>
-      <c r="V107" s="78">
+        <v>0.13561777236762021</v>
+      </c>
+      <c r="V107" s="77">
         <f>V109/V5</f>
-        <v>0.166854156296665</v>
-      </c>
-      <c r="W107" s="79" t="s">
+        <v>0.16153640256959315</v>
+      </c>
+      <c r="W107" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="X107" s="40" t="s">
+      <c r="X107" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="Y107" s="59">
+      <c r="Y107" s="58">
         <f>(Y102*Y94)+(Y104*Y99)</f>
-        <v>0.12735145803110287</v>
+        <v>0.12657653884333786</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9956,34 +9955,34 @@
         <f t="shared" si="82"/>
         <v>1.1708297444731555</v>
       </c>
-      <c r="R108" s="60">
+      <c r="R108" s="59">
         <f>(R109/Q109)-1</f>
-        <v>0.18939293744213725</v>
-      </c>
-      <c r="S108" s="60">
+        <v>4.2057928845390835E-2</v>
+      </c>
+      <c r="S108" s="59">
         <f>(S109/R109)-1</f>
-        <v>0.65906816412765479</v>
-      </c>
-      <c r="T108" s="60">
+        <v>0.54258154588145713</v>
+      </c>
+      <c r="T108" s="59">
         <f>(T109/S109)-1</f>
-        <v>0.39390080428954422</v>
-      </c>
-      <c r="U108" s="60">
+        <v>0.41163402994898801</v>
+      </c>
+      <c r="U108" s="59">
         <f>(U109/T109)-1</f>
-        <v>0.21180939558590173</v>
-      </c>
-      <c r="V108" s="60">
+        <v>0.29871189601911752</v>
+      </c>
+      <c r="V108" s="59">
         <f>(V109/U109)-1</f>
-        <v>0.33009284977382758</v>
-      </c>
-      <c r="W108" s="61">
+        <v>0.3542321156090118</v>
+      </c>
+      <c r="W108" s="60">
         <f>SUM(R108:V108)/5</f>
-        <v>0.35685283024381309</v>
-      </c>
-      <c r="X108" s="82" t="s">
+        <v>0.32984350326079304</v>
+      </c>
+      <c r="X108" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="Y108" s="82"/>
+      <c r="Y108" s="81"/>
     </row>
     <row r="109" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="35" t="s">
@@ -10037,229 +10036,229 @@
       <c r="Q109" s="1">
         <v>7561000000</v>
       </c>
-      <c r="R109" s="62">
-        <v>8993000000</v>
-      </c>
-      <c r="S109" s="62">
-        <v>14920000000</v>
-      </c>
-      <c r="T109" s="62">
-        <v>20797000000</v>
-      </c>
-      <c r="U109" s="62">
-        <v>25202000000</v>
-      </c>
-      <c r="V109" s="62">
-        <v>33521000000</v>
-      </c>
-      <c r="W109" s="58" t="s">
+      <c r="R109" s="61">
+        <v>7879000000</v>
+      </c>
+      <c r="S109" s="61">
+        <v>12154000000</v>
+      </c>
+      <c r="T109" s="61">
+        <v>17157000000</v>
+      </c>
+      <c r="U109" s="61">
+        <v>22282000000</v>
+      </c>
+      <c r="V109" s="61">
+        <v>30175000000</v>
+      </c>
+      <c r="W109" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="X109" s="63" t="s">
+      <c r="X109" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="Y109" s="41">
+      <c r="Y109" s="40">
         <f>(SUM(R6:V6)/5)</f>
-        <v>0.19901038980821659</v>
+        <v>0.18156561040979463</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.2">
-      <c r="R110" s="80"/>
-      <c r="S110" s="80"/>
-      <c r="T110" s="80"/>
-      <c r="U110" s="80"/>
-      <c r="V110" s="64">
+      <c r="R110" s="79"/>
+      <c r="S110" s="79"/>
+      <c r="T110" s="79"/>
+      <c r="U110" s="79"/>
+      <c r="V110" s="63">
         <f>V109*(1+Y110)/(Y111-Y110)</f>
-        <v>335696487973.4187</v>
-      </c>
-      <c r="W110" s="65" t="s">
+        <v>304493294930.06812</v>
+      </c>
+      <c r="W110" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="X110" s="66" t="s">
+      <c r="X110" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="Y110" s="42">
+      <c r="Y110" s="41">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="19" x14ac:dyDescent="0.2">
-      <c r="R111" s="64">
+      <c r="R111" s="63">
         <f t="shared" ref="R111:U111" si="83">R110+R109</f>
-        <v>8993000000</v>
-      </c>
-      <c r="S111" s="64">
+        <v>7879000000</v>
+      </c>
+      <c r="S111" s="63">
         <f t="shared" si="83"/>
-        <v>14920000000</v>
-      </c>
-      <c r="T111" s="64">
+        <v>12154000000</v>
+      </c>
+      <c r="T111" s="63">
         <f t="shared" si="83"/>
-        <v>20797000000</v>
-      </c>
-      <c r="U111" s="64">
+        <v>17157000000</v>
+      </c>
+      <c r="U111" s="63">
         <f t="shared" si="83"/>
-        <v>25202000000</v>
-      </c>
-      <c r="V111" s="64">
+        <v>22282000000</v>
+      </c>
+      <c r="V111" s="63">
         <f>V110+V109</f>
-        <v>369217487973.4187</v>
-      </c>
-      <c r="W111" s="65" t="s">
+        <v>334668294930.06812</v>
+      </c>
+      <c r="W111" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="X111" s="67" t="s">
+      <c r="X111" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="Y111" s="41">
+      <c r="Y111" s="40">
         <f>Y107</f>
-        <v>0.12735145803110287</v>
+        <v>0.12657653884333786</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="19" x14ac:dyDescent="0.2">
-      <c r="R112" s="81" t="s">
+      <c r="R112" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="S112" s="81"/>
-      <c r="T112" s="51"/>
-      <c r="U112" s="51"/>
-      <c r="V112" s="51"/>
-      <c r="W112" s="51"/>
-      <c r="X112" s="51"/>
-      <c r="Y112" s="51"/>
+      <c r="S112" s="80"/>
+      <c r="T112" s="50"/>
+      <c r="U112" s="50"/>
+      <c r="V112" s="50"/>
+      <c r="W112" s="50"/>
+      <c r="X112" s="50"/>
+      <c r="Y112" s="50"/>
     </row>
     <row r="113" spans="18:25" ht="20" x14ac:dyDescent="0.2">
-      <c r="R113" s="68" t="s">
+      <c r="R113" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="S113" s="56">
+      <c r="S113" s="55">
         <f>NPV(Y111,R111,S111,T111,U111,V111)</f>
-        <v>252595986932.85764</v>
-      </c>
-      <c r="T113" s="51"/>
-      <c r="U113" s="51"/>
-      <c r="V113" s="51"/>
-      <c r="W113" s="51"/>
-      <c r="X113" s="51"/>
-      <c r="Y113" s="51"/>
+        <v>226823579594.53391</v>
+      </c>
+      <c r="T113" s="50"/>
+      <c r="U113" s="50"/>
+      <c r="V113" s="50"/>
+      <c r="W113" s="50"/>
+      <c r="X113" s="50"/>
+      <c r="Y113" s="50"/>
     </row>
     <row r="114" spans="18:25" ht="20" x14ac:dyDescent="0.2">
-      <c r="R114" s="68" t="s">
+      <c r="R114" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="S114" s="56">
+      <c r="S114" s="55">
         <f>Q42</f>
         <v>22185000000</v>
       </c>
-      <c r="T114" s="51"/>
-      <c r="U114" s="51"/>
-      <c r="V114" s="51"/>
-      <c r="W114" s="51"/>
-      <c r="X114" s="51"/>
-      <c r="Y114" s="51"/>
+      <c r="T114" s="50"/>
+      <c r="U114" s="50"/>
+      <c r="V114" s="50"/>
+      <c r="W114" s="50"/>
+      <c r="X114" s="50"/>
+      <c r="Y114" s="50"/>
     </row>
     <row r="115" spans="18:25" ht="20" x14ac:dyDescent="0.2">
-      <c r="R115" s="68" t="s">
+      <c r="R115" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="S115" s="56">
+      <c r="S115" s="55">
         <f>Y101</f>
         <v>3099000000</v>
       </c>
-      <c r="T115" s="51"/>
-      <c r="U115" s="51"/>
-      <c r="V115" s="51"/>
-      <c r="W115" s="51"/>
-      <c r="X115" s="51"/>
-      <c r="Y115" s="51"/>
+      <c r="T115" s="50"/>
+      <c r="U115" s="50"/>
+      <c r="V115" s="50"/>
+      <c r="W115" s="50"/>
+      <c r="X115" s="50"/>
+      <c r="Y115" s="50"/>
     </row>
     <row r="116" spans="18:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R116" s="68" t="s">
+      <c r="R116" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="S116" s="56">
+      <c r="S116" s="55">
         <f>S113+S114-S115</f>
-        <v>271681986932.85764</v>
-      </c>
-      <c r="T116" s="51"/>
-      <c r="U116" s="51"/>
-      <c r="V116" s="51"/>
-      <c r="W116" s="51"/>
-      <c r="X116" s="51"/>
-      <c r="Y116" s="51"/>
+        <v>245909579594.53391</v>
+      </c>
+      <c r="T116" s="50"/>
+      <c r="U116" s="50"/>
+      <c r="V116" s="50"/>
+      <c r="W116" s="50"/>
+      <c r="X116" s="50"/>
+      <c r="Y116" s="50"/>
     </row>
     <row r="117" spans="18:25" ht="20" x14ac:dyDescent="0.2">
-      <c r="R117" s="68" t="s">
+      <c r="R117" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="S117" s="68" cm="1">
-        <f t="array" ref="S117">_FV(A1,"Shares outstanding",TRUE)*(1+(0*5))</f>
-        <v>3173994000</v>
-      </c>
-      <c r="T117" s="51"/>
-      <c r="U117" s="51"/>
-      <c r="V117" s="51"/>
-      <c r="W117" s="51"/>
-      <c r="X117" s="51"/>
-      <c r="Y117" s="51"/>
+      <c r="S117" s="67">
+        <f>R36*(1+(5*W18))</f>
+        <v>3922641167.9385085</v>
+      </c>
+      <c r="T117" s="50"/>
+      <c r="U117" s="50"/>
+      <c r="V117" s="50"/>
+      <c r="W117" s="50"/>
+      <c r="X117" s="50"/>
+      <c r="Y117" s="50"/>
     </row>
     <row r="118" spans="18:25" ht="20" x14ac:dyDescent="0.2">
-      <c r="R118" s="69" t="s">
+      <c r="R118" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="S118" s="70">
+      <c r="S118" s="69">
         <f>S116/S117</f>
-        <v>85.596250948444649</v>
-      </c>
-      <c r="T118" s="51"/>
-      <c r="U118" s="51"/>
-      <c r="V118" s="51"/>
-      <c r="W118" s="51"/>
-      <c r="X118" s="51"/>
-      <c r="Y118" s="51"/>
+        <v>62.689797273444817</v>
+      </c>
+      <c r="T118" s="50"/>
+      <c r="U118" s="50"/>
+      <c r="V118" s="50"/>
+      <c r="W118" s="50"/>
+      <c r="X118" s="50"/>
+      <c r="Y118" s="50"/>
     </row>
     <row r="119" spans="18:25" ht="20" x14ac:dyDescent="0.2">
-      <c r="R119" s="68" t="s">
+      <c r="R119" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="S119" s="71" cm="1">
+      <c r="S119" s="70" cm="1">
         <f t="array" ref="S119">_FV(A1,"Price",TRUE)</f>
-        <v>220.11</v>
-      </c>
-      <c r="T119" s="51"/>
-      <c r="U119" s="51"/>
-      <c r="V119" s="51"/>
-      <c r="W119" s="51"/>
-      <c r="X119" s="51"/>
-      <c r="Y119" s="51"/>
+        <v>211.99</v>
+      </c>
+      <c r="T119" s="50"/>
+      <c r="U119" s="50"/>
+      <c r="V119" s="50"/>
+      <c r="W119" s="50"/>
+      <c r="X119" s="50"/>
+      <c r="Y119" s="50"/>
     </row>
     <row r="120" spans="18:25" ht="20" x14ac:dyDescent="0.2">
-      <c r="R120" s="69" t="s">
+      <c r="R120" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="S120" s="72">
+      <c r="S120" s="71">
         <f>S118/S119-1</f>
-        <v>-0.61112057176664103</v>
-      </c>
-      <c r="T120" s="51"/>
-      <c r="U120" s="51"/>
-      <c r="V120" s="51"/>
-      <c r="W120" s="51"/>
-      <c r="X120" s="51"/>
-      <c r="Y120" s="51"/>
+        <v>-0.70427946000544916</v>
+      </c>
+      <c r="T120" s="50"/>
+      <c r="U120" s="50"/>
+      <c r="V120" s="50"/>
+      <c r="W120" s="50"/>
+      <c r="X120" s="50"/>
+      <c r="Y120" s="50"/>
     </row>
     <row r="121" spans="18:25" ht="20" x14ac:dyDescent="0.2">
-      <c r="R121" s="69" t="s">
+      <c r="R121" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="S121" s="73" t="str">
+      <c r="S121" s="72" t="str">
         <f>IF(S118&gt;S119,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
-      <c r="T121" s="51"/>
-      <c r="U121" s="51"/>
-      <c r="V121" s="51"/>
-      <c r="W121" s="51"/>
-      <c r="X121" s="51"/>
-      <c r="Y121" s="51"/>
+      <c r="T121" s="50"/>
+      <c r="U121" s="50"/>
+      <c r="V121" s="50"/>
+      <c r="W121" s="50"/>
+      <c r="X121" s="50"/>
+      <c r="Y121" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Technology/Hardware/Tesla.xlsx
+++ b/Technology/Hardware/Tesla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8935A2A-7FDA-0840-BDB9-486C11570772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5052AD8-BDDC-BD4E-AD4F-9C2808581C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="171">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>Shares Outstanding</t>
+  </si>
+  <si>
+    <t>Weighted Average Cost of Capital</t>
   </si>
 </sst>
 </file>
@@ -1092,6 +1095,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1109,9 +1115,6 @@
     </xf>
     <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2564,16 +2567,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="Growth"/>
+      <sheetName val="Value"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2586,14 +2588,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2602,7 +2604,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2730,11 +2731,11 @@
     <v>Powered by Refinitiv</v>
     <v>299.29000000000002</v>
     <v>101.81</v>
-    <v>2.2572999999999999</v>
-    <v>-8.1199999999999992</v>
-    <v>-3.6891E-2</v>
-    <v>0.76049999999999995</v>
-    <v>3.5870000000000003E-3</v>
+    <v>2.2814000000000001</v>
+    <v>1.54</v>
+    <v>7.4839999999999993E-3</v>
+    <v>0.38</v>
+    <v>1.833E-3</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
     <v>127855</v>
@@ -2742,25 +2743,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>218.86060000000001</v>
+    <v>212.41</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45219.999991226563</v>
+    <v>45226.999990253906</v>
     <v>0</v>
-    <v>210.42</v>
-    <v>672854988060</v>
+    <v>205.77</v>
+    <v>658990400000</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>217.01</v>
-    <v>70.914199999999994</v>
-    <v>220.11</v>
-    <v>211.99</v>
-    <v>212.75049999999999</v>
-    <v>3173994000</v>
+    <v>210.6</v>
+    <v>66.799400000000006</v>
+    <v>205.76</v>
+    <v>207.3</v>
+    <v>207.68</v>
+    <v>3178921000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>138010095</v>
-    <v>116419318</v>
+    <v>94881173</v>
+    <v>118327178</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -3348,10 +3349,10 @@
   <dimension ref="A1:Z121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S124" sqref="S124"/>
+      <selection pane="bottomRight" activeCell="U92" sqref="U92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4584,19 +4585,19 @@
       </c>
       <c r="W18" s="21">
         <f>SUM(N37:R37)/5</f>
-        <v>4.7173823765168356E-2</v>
+        <v>4.7464759696671154E-2</v>
       </c>
       <c r="X18" s="32">
         <f>Y103/Q5</f>
-        <v>8.2597405914414086</v>
+        <v>8.0895435908767279</v>
       </c>
       <c r="Y18" s="32">
         <f>Y103/Q30</f>
-        <v>53.588323356164381</v>
+        <v>52.484103217585215</v>
       </c>
       <c r="Z18" s="33">
         <f>Y103/Q109</f>
-        <v>88.990211355640781</v>
+        <v>87.156513688665527</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4790,15 +4791,15 @@
       </c>
       <c r="X21" s="32">
         <f>Y103/R5</f>
-        <v>6.7311750388651577</v>
+        <v>6.5924750652754573</v>
       </c>
       <c r="Y21" s="34">
         <f>Y103/R30</f>
-        <v>60.313283261025454</v>
+        <v>59.070491215489426</v>
       </c>
       <c r="Z21" s="33">
         <f>Y103/R109</f>
-        <v>85.398526216524942</v>
+        <v>83.638837415915731</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5025,13 +5026,13 @@
         <f>SUM(R31:V31)/5</f>
         <v>0.16528486571546125</v>
       </c>
-      <c r="Y24" s="86">
+      <c r="Y24" s="80">
         <f>Q100/Y103</f>
         <v>0</v>
       </c>
       <c r="Z24" s="36">
         <f>R109/Y103</f>
-        <v>1.1709803954514805E-2</v>
+        <v>1.1956168101993596E-2</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5701,7 +5702,7 @@
       </c>
       <c r="R35" s="1" cm="1">
         <f t="array" ref="R35">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>3173994000</v>
+        <v>3178921000</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -5758,7 +5759,7 @@
       </c>
       <c r="R36" s="1" cm="1">
         <f t="array" ref="R36">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>3173994000</v>
+        <v>3178921000</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -5828,7 +5829,7 @@
       </c>
       <c r="R37" s="22">
         <f t="shared" si="78"/>
-        <v>-6.2889282550930029E-2</v>
+        <v>-6.1434602893416006E-2</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -8396,10 +8397,10 @@
       <c r="U85" s="50"/>
       <c r="V85" s="50"/>
       <c r="W85" s="50"/>
-      <c r="X85" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y85" s="83"/>
+      <c r="X85" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y85" s="84"/>
     </row>
     <row r="86" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -8459,10 +8460,10 @@
       <c r="U86" s="50"/>
       <c r="V86" s="50"/>
       <c r="W86" s="50"/>
-      <c r="X86" s="84" t="s">
+      <c r="X86" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="Y86" s="84"/>
+      <c r="Y86" s="85"/>
     </row>
     <row r="87" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
@@ -9066,10 +9067,10 @@
       <c r="U95" s="50"/>
       <c r="V95" s="50"/>
       <c r="W95" s="50"/>
-      <c r="X95" s="84" t="s">
+      <c r="X95" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="Y95" s="84"/>
+      <c r="Y95" s="85"/>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
@@ -9134,7 +9135,7 @@
       </c>
       <c r="Y96" s="76">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9200,7 +9201,7 @@
       </c>
       <c r="Y97" s="54" cm="1">
         <f t="array" ref="Y97">_FV(A1,"Beta")</f>
-        <v>2.2572999999999999</v>
+        <v>2.2814000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9331,7 +9332,7 @@
       </c>
       <c r="Y99" s="52">
         <f>(Y96)+((Y97)*(Y98-Y96))</f>
-        <v>0.126899076</v>
+        <v>0.12955377000000001</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -9392,10 +9393,10 @@
       <c r="U100" s="50"/>
       <c r="V100" s="50"/>
       <c r="W100" s="50"/>
-      <c r="X100" s="84" t="s">
+      <c r="X100" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="Y100" s="84"/>
+      <c r="Y100" s="85"/>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
@@ -9525,7 +9526,7 @@
       </c>
       <c r="Y102" s="52">
         <f>Y101/Y105</f>
-        <v>4.5846315795756831E-3</v>
+        <v>4.6806367840959238E-3</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9591,7 +9592,7 @@
       </c>
       <c r="Y103" s="55" cm="1">
         <f t="array" ref="Y103">+_FV(A1,"Market cap",TRUE)</f>
-        <v>672854988060</v>
+        <v>658990400000</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9657,7 +9658,7 @@
       </c>
       <c r="Y104" s="52">
         <f>Y103/Y105</f>
-        <v>0.99541536842042433</v>
+        <v>0.99531936321590408</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -9723,7 +9724,7 @@
       </c>
       <c r="Y105" s="56">
         <f>Y101+Y103</f>
-        <v>675953988060</v>
+        <v>662089400000</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9778,18 +9779,18 @@
       <c r="Q106" s="11">
         <v>16924000000</v>
       </c>
-      <c r="R106" s="85" t="s">
+      <c r="R106" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="S106" s="85"/>
-      <c r="T106" s="85"/>
-      <c r="U106" s="85"/>
-      <c r="V106" s="85"/>
+      <c r="S106" s="86"/>
+      <c r="T106" s="86"/>
+      <c r="U106" s="86"/>
+      <c r="V106" s="86"/>
       <c r="W106" s="50"/>
-      <c r="X106" s="84" t="s">
+      <c r="X106" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="Y106" s="84"/>
+      <c r="Y106" s="85"/>
     </row>
     <row r="107" spans="1:25" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
@@ -9887,7 +9888,7 @@
       </c>
       <c r="Y107" s="58">
         <f>(Y102*Y94)+(Y104*Y99)</f>
-        <v>0.12657653884333786</v>
+        <v>0.12921205304448116</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9979,10 +9980,10 @@
         <f>SUM(R108:V108)/5</f>
         <v>0.32984350326079304</v>
       </c>
-      <c r="X108" s="81" t="s">
+      <c r="X108" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="Y108" s="81"/>
+      <c r="Y108" s="82"/>
     </row>
     <row r="109" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="35" t="s">
@@ -10069,7 +10070,7 @@
       <c r="U110" s="79"/>
       <c r="V110" s="63">
         <f>V109*(1+Y110)/(Y111-Y110)</f>
-        <v>304493294930.06812</v>
+        <v>296792684688.76929</v>
       </c>
       <c r="W110" s="64" t="s">
         <v>142</v>
@@ -10100,7 +10101,7 @@
       </c>
       <c r="V111" s="63">
         <f>V110+V109</f>
-        <v>334668294930.06812</v>
+        <v>326967684688.76929</v>
       </c>
       <c r="W111" s="64" t="s">
         <v>133</v>
@@ -10110,14 +10111,14 @@
       </c>
       <c r="Y111" s="40">
         <f>Y107</f>
-        <v>0.12657653884333786</v>
+        <v>0.12921205304448116</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="19" x14ac:dyDescent="0.2">
-      <c r="R112" s="80" t="s">
+      <c r="R112" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="S112" s="80"/>
+      <c r="S112" s="81"/>
       <c r="T112" s="50"/>
       <c r="U112" s="50"/>
       <c r="V112" s="50"/>
@@ -10131,7 +10132,7 @@
       </c>
       <c r="S113" s="55">
         <f>NPV(Y111,R111,S111,T111,U111,V111)</f>
-        <v>226823579594.53391</v>
+        <v>220213792527.97318</v>
       </c>
       <c r="T113" s="50"/>
       <c r="U113" s="50"/>
@@ -10176,7 +10177,7 @@
       </c>
       <c r="S116" s="55">
         <f>S113+S114-S115</f>
-        <v>245909579594.53391</v>
+        <v>239299792527.97318</v>
       </c>
       <c r="T116" s="50"/>
       <c r="U116" s="50"/>
@@ -10191,7 +10192,7 @@
       </c>
       <c r="S117" s="67">
         <f>R36*(1+(5*W18))</f>
-        <v>3922641167.9385085</v>
+        <v>3933354606.7985082</v>
       </c>
       <c r="T117" s="50"/>
       <c r="U117" s="50"/>
@@ -10206,7 +10207,7 @@
       </c>
       <c r="S118" s="69">
         <f>S116/S117</f>
-        <v>62.689797273444817</v>
+        <v>60.838601257654588</v>
       </c>
       <c r="T118" s="50"/>
       <c r="U118" s="50"/>
@@ -10221,7 +10222,7 @@
       </c>
       <c r="S119" s="70" cm="1">
         <f t="array" ref="S119">_FV(A1,"Price",TRUE)</f>
-        <v>211.99</v>
+        <v>207.3</v>
       </c>
       <c r="T119" s="50"/>
       <c r="U119" s="50"/>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="S120" s="71">
         <f>S118/S119-1</f>
-        <v>-0.70427946000544916</v>
+        <v>-0.70651904844353797</v>
       </c>
       <c r="T120" s="50"/>
       <c r="U120" s="50"/>

--- a/Technology/Hardware/Tesla.xlsx
+++ b/Technology/Hardware/Tesla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5729A01-180A-0E47-8EC7-2E673CABC31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDE2EC5-8191-1341-B198-03C5C0AFFC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="255">
   <si>
     <t>2010 Y</t>
   </si>
@@ -832,13 +832,13 @@
     <t>Growth</t>
   </si>
   <si>
-    <t>Margin</t>
-  </si>
-  <si>
     <t>Vehicle Deliveries</t>
   </si>
   <si>
     <t>Deliveries YoY</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1079,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1222,15 +1222,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -1330,7 +1321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1515,9 +1506,6 @@
     <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="10" fontId="14" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1551,85 +1539,73 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="12" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="12" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="23" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1667,6 +1643,37 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="9" fontId="12" fillId="12" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="12" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="12" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="12" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1720,7 +1727,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6689999999999995E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1859,11 +1866,11 @@
     <v>Powered by Refinitiv</v>
     <v>299.29000000000002</v>
     <v>101.81</v>
-    <v>2.2770999999999999</v>
-    <v>1.45</v>
-    <v>6.6359999999999995E-3</v>
-    <v>0.14000000000000001</v>
-    <v>6.3650000000000002E-4</v>
+    <v>2.2755000000000001</v>
+    <v>-12.13</v>
+    <v>-5.4612999999999995E-2</v>
+    <v>-1.4</v>
+    <v>-6.6669999999999993E-3</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
     <v>127855</v>
@@ -1871,25 +1878,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>226.37010000000001</v>
+    <v>220.8</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45233.999984015623</v>
+    <v>45239.972654767967</v>
     <v>0</v>
-    <v>218.4</v>
-    <v>699235600000</v>
+    <v>206.68</v>
+    <v>667509831580</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>221.15</v>
-    <v>70.411699999999996</v>
-    <v>218.51</v>
-    <v>219.96</v>
-    <v>220.1</v>
+    <v>219.75</v>
+    <v>71.571700000000007</v>
+    <v>222.11</v>
+    <v>209.98</v>
+    <v>208.58</v>
     <v>3178921000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>119534790</v>
-    <v>118696640</v>
+    <v>141754315</v>
+    <v>117749263</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -2054,9 +2061,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -14009,7 +14016,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14017,48 +14024,48 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="119" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="e" vm="1">
+    <row r="1" spans="1:16" s="114" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="113" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-    </row>
-    <row r="2" spans="1:16" s="119" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+    </row>
+    <row r="2" spans="1:16" s="114" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>699235600000</v>
+        <v>667509831580</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>201</v>
@@ -14086,7 +14093,7 @@
       </c>
       <c r="I3" s="36">
         <f>J17*(1+I7)/(I6-I7)</f>
-        <v>339443719745.7724</v>
+        <v>335738363863.80359</v>
       </c>
       <c r="J3" s="32" t="s">
         <v>205</v>
@@ -14099,10 +14106,10 @@
         <v>206</v>
       </c>
       <c r="M3" s="38"/>
-      <c r="N3" s="120" t="s">
+      <c r="N3" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="O3" s="121"/>
+      <c r="O3" s="116"/>
       <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -14136,23 +14143,23 @@
       </c>
       <c r="I4" s="45">
         <f>NPV(I6,F17,G17,H17,I17,(J17+I3))</f>
-        <v>244523779370.27521</v>
+        <v>241365039853.70773</v>
       </c>
       <c r="J4" s="42" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="46" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>6.6359999999999995E-3</v>
+        <v>-5.4612999999999995E-2</v>
       </c>
       <c r="L4" s="44" t="s">
         <v>213</v>
       </c>
       <c r="M4" s="38"/>
-      <c r="N4" s="122" t="s">
+      <c r="N4" s="117" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="123"/>
+      <c r="O4" s="118"/>
       <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -14186,14 +14193,14 @@
       </c>
       <c r="I5" s="45">
         <f>I4+G5-G6</f>
-        <v>273046779370.27521</v>
+        <v>269888039853.70773</v>
       </c>
       <c r="J5" s="42" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="48" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>219.96</v>
+        <v>209.98</v>
       </c>
       <c r="L5" s="40" t="s">
         <v>220</v>
@@ -14211,7 +14218,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="51">
         <f>O20/F10</f>
-        <v>7.1991145704637178</v>
+        <v>6.8724758213903305</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>222</v>
@@ -14239,14 +14246,14 @@
       </c>
       <c r="I6" s="46">
         <f>N25</f>
-        <v>0.13139724024662797</v>
+        <v>0.13257148686961151</v>
       </c>
       <c r="J6" s="44" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="53">
         <f>I5/G4</f>
-        <v>71.009489161974543</v>
+        <v>70.188016445890881</v>
       </c>
       <c r="L6" s="54" t="s">
         <v>226</v>
@@ -14264,14 +14271,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="57">
         <f>O20/F14</f>
-        <v>63.566872727272724</v>
+        <v>60.682711961818178</v>
       </c>
       <c r="B7" s="58" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="59">
         <f>F17/A3</f>
-        <v>1.1155038444838906E-2</v>
+        <v>1.1685221147286101E-2</v>
       </c>
       <c r="D7" s="60" t="s">
         <v>229</v>
@@ -14298,7 +14305,7 @@
       </c>
       <c r="K7" s="66">
         <f>K6/K5-1</f>
-        <v>-0.67717089851802803</v>
+        <v>-0.6657395159258459</v>
       </c>
       <c r="L7" s="67" t="s">
         <v>232</v>
@@ -14337,32 +14344,32 @@
       <c r="P8" s="38"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
-      <c r="B9" s="95">
+      <c r="A9" s="93"/>
+      <c r="B9" s="127">
         <v>2019</v>
       </c>
-      <c r="C9" s="95">
+      <c r="C9" s="89">
         <v>2020</v>
       </c>
-      <c r="D9" s="95">
+      <c r="D9" s="89">
         <v>2021</v>
       </c>
-      <c r="E9" s="95">
+      <c r="E9" s="89">
         <v>2022</v>
       </c>
-      <c r="F9" s="96">
+      <c r="F9" s="90">
         <v>2023</v>
       </c>
-      <c r="G9" s="97">
+      <c r="G9" s="91">
         <v>2024</v>
       </c>
-      <c r="H9" s="97">
+      <c r="H9" s="91">
         <v>2025</v>
       </c>
-      <c r="I9" s="97">
+      <c r="I9" s="91">
         <v>2026</v>
       </c>
-      <c r="J9" s="98">
+      <c r="J9" s="92">
         <v>2027</v>
       </c>
       <c r="K9" s="71"/>
@@ -14378,37 +14385,37 @@
       <c r="P9" s="38"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="92">
+      <c r="B10" s="86">
         <v>24578000000</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="86">
         <v>31536000000</v>
       </c>
-      <c r="D10" s="92">
+      <c r="D10" s="86">
         <v>53823000000</v>
       </c>
-      <c r="E10" s="92">
+      <c r="E10" s="86">
         <v>81462000000</v>
       </c>
-      <c r="F10" s="94">
+      <c r="F10" s="88">
         <v>97128000000</v>
       </c>
-      <c r="G10" s="92">
+      <c r="G10" s="86">
         <v>118800000000</v>
       </c>
-      <c r="H10" s="92">
+      <c r="H10" s="86">
         <v>146000000000</v>
       </c>
-      <c r="I10" s="92">
+      <c r="I10" s="86">
         <v>164500000000</v>
       </c>
-      <c r="J10" s="92">
+      <c r="J10" s="86">
         <v>187600000000</v>
       </c>
-      <c r="K10" s="107" t="s">
+      <c r="K10" s="100" t="s">
         <v>236</v>
       </c>
       <c r="L10" s="72"/>
@@ -14422,43 +14429,41 @@
       <c r="P10" s="38"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="89" t="s">
-        <v>251</v>
-      </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73">
+      <c r="A11" s="128"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.28309870615998056</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="124">
         <f t="shared" si="0"/>
         <v>0.70671613394216126</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="124">
         <f t="shared" si="0"/>
         <v>0.51351652639206291</v>
       </c>
-      <c r="F11" s="74">
+      <c r="F11" s="125">
         <f t="shared" si="0"/>
         <v>0.19231052515283209</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11" s="124">
         <f t="shared" si="0"/>
         <v>0.223128243143069</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="124">
         <f t="shared" si="0"/>
         <v>0.22895622895622902</v>
       </c>
-      <c r="I11" s="73">
+      <c r="I11" s="124">
         <f t="shared" si="0"/>
         <v>0.12671232876712324</v>
       </c>
-      <c r="J11" s="73">
+      <c r="J11" s="124">
         <f t="shared" si="0"/>
         <v>0.14042553191489371</v>
       </c>
-      <c r="K11" s="101">
+      <c r="K11" s="126">
         <f>SUM(F11:J11)/5</f>
         <v>0.18230657158682942</v>
       </c>
@@ -14467,58 +14472,58 @@
       <c r="N11" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="O11" s="75">
+      <c r="O11" s="74">
         <f>O9/O10</f>
         <v>8.7226714585205145E-2</v>
       </c>
       <c r="P11" s="38"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="89" t="s">
-        <v>253</v>
-      </c>
-      <c r="B12" s="87">
+      <c r="A12" s="128" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="129">
         <v>367200</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="129">
         <v>499000</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D12" s="129">
         <v>935900</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="130">
         <v>1313000</v>
       </c>
-      <c r="F12" s="87">
+      <c r="F12" s="129">
         <v>1800000</v>
       </c>
-      <c r="G12" s="87">
+      <c r="G12" s="129">
         <v>2100000</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="129">
         <v>2400000</v>
       </c>
-      <c r="I12" s="87">
+      <c r="I12" s="129">
         <v>2600000</v>
       </c>
-      <c r="J12" s="87">
+      <c r="J12" s="129">
         <v>2900000</v>
       </c>
-      <c r="K12" s="102"/>
+      <c r="K12" s="131"/>
       <c r="L12" s="72"/>
       <c r="M12" s="72"/>
-      <c r="N12" s="76" t="s">
+      <c r="N12" s="75" t="s">
         <v>240</v>
       </c>
-      <c r="O12" s="77">
+      <c r="O12" s="76">
         <f>O8*(1-O11)</f>
         <v>5.5995958736300158E-2</v>
       </c>
       <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="108" t="s">
-        <v>254</v>
+      <c r="A13" s="107" t="s">
+        <v>253</v>
       </c>
       <c r="B13" s="73"/>
       <c r="C13" s="73">
@@ -14533,70 +14538,70 @@
         <f t="shared" ref="E13:F13" si="3">(E12/D12)-1</f>
         <v>0.40292766321188167</v>
       </c>
-      <c r="F13" s="111">
+      <c r="F13" s="103">
         <f t="shared" si="3"/>
         <v>0.37090632140137081</v>
       </c>
-      <c r="G13" s="90">
+      <c r="G13" s="85">
         <f t="shared" ref="G13" si="4">(G12/F12)-1</f>
         <v>0.16666666666666674</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="85">
         <f t="shared" ref="H13" si="5">(H12/G12)-1</f>
         <v>0.14285714285714279</v>
       </c>
-      <c r="I13" s="90">
+      <c r="I13" s="85">
         <f t="shared" ref="I13" si="6">(I12/H12)-1</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="J13" s="90">
+      <c r="J13" s="85">
         <f t="shared" ref="J13" si="7">(J12/I12)-1</f>
         <v>0.11538461538461542</v>
       </c>
-      <c r="K13" s="101">
+      <c r="K13" s="95">
         <f>SUM(F13:J13)/5</f>
         <v>0.17582961592862581</v>
       </c>
       <c r="L13" s="72"/>
       <c r="M13" s="72"/>
-      <c r="N13" s="122" t="s">
+      <c r="N13" s="117" t="s">
         <v>241</v>
       </c>
-      <c r="O13" s="123"/>
+      <c r="O13" s="118"/>
       <c r="P13" s="38"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="92">
+      <c r="B14" s="86">
         <v>-862000000</v>
       </c>
-      <c r="C14" s="92">
+      <c r="C14" s="86">
         <v>690000000</v>
       </c>
-      <c r="D14" s="92">
+      <c r="D14" s="86">
         <v>5519000000</v>
       </c>
-      <c r="E14" s="93">
+      <c r="E14" s="87">
         <v>12583000000</v>
       </c>
-      <c r="F14" s="94">
+      <c r="F14" s="88">
         <v>11000000000</v>
       </c>
-      <c r="G14" s="92">
+      <c r="G14" s="86">
         <v>14045000000</v>
       </c>
-      <c r="H14" s="92">
+      <c r="H14" s="86">
         <v>17583000000</v>
       </c>
-      <c r="I14" s="92">
+      <c r="I14" s="86">
         <v>24634000000</v>
       </c>
-      <c r="J14" s="93">
+      <c r="J14" s="87">
         <v>27045000000</v>
       </c>
-      <c r="K14" s="107" t="s">
+      <c r="K14" s="100" t="s">
         <v>239</v>
       </c>
       <c r="L14" s="72"/>
@@ -14604,50 +14609,48 @@
       <c r="N14" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="O14" s="75">
+      <c r="O14" s="74">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6689999999999995E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
       <c r="P14" s="38"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="86" t="s">
-        <v>251</v>
-      </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73">
+      <c r="A15" s="123"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124">
         <f t="shared" ref="C15:J15" si="8">(C14/B14)-1</f>
         <v>-1.8004640371229699</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="124">
         <f t="shared" si="8"/>
         <v>6.9985507246376812</v>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="124">
         <f t="shared" si="8"/>
         <v>1.2799420184816088</v>
       </c>
-      <c r="F15" s="74">
+      <c r="F15" s="125">
         <f t="shared" si="8"/>
         <v>-0.12580465707700861</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="124">
         <f t="shared" si="8"/>
         <v>0.27681818181818185</v>
       </c>
-      <c r="H15" s="73">
+      <c r="H15" s="124">
         <f t="shared" si="8"/>
         <v>0.25190459238163054</v>
       </c>
-      <c r="I15" s="73">
+      <c r="I15" s="124">
         <f t="shared" si="8"/>
         <v>0.40101234146618903</v>
       </c>
-      <c r="J15" s="73">
+      <c r="J15" s="124">
         <f t="shared" si="8"/>
         <v>9.7872858650645433E-2</v>
       </c>
-      <c r="K15" s="101">
+      <c r="K15" s="126">
         <f>SUM(F15:J15)/5</f>
         <v>0.18036066344792764</v>
       </c>
@@ -14656,276 +14659,276 @@
       <c r="N15" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="O15" s="78" cm="1">
+      <c r="O15" s="77" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>2.2770999999999999</v>
+        <v>2.2755000000000001</v>
       </c>
       <c r="P15" s="38"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="86" t="s">
-        <v>252</v>
-      </c>
-      <c r="B16" s="109">
+      <c r="A16" s="121" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="122">
         <f>B14/B10</f>
         <v>-3.5072015623728539E-2</v>
       </c>
-      <c r="C16" s="109">
+      <c r="C16" s="122">
         <f t="shared" ref="C16:J16" si="9">C14/C10</f>
         <v>2.1879756468797563E-2</v>
       </c>
-      <c r="D16" s="109">
+      <c r="D16" s="122">
         <f t="shared" si="9"/>
         <v>0.10253980640246735</v>
       </c>
-      <c r="E16" s="109">
+      <c r="E16" s="122">
         <f t="shared" si="9"/>
         <v>0.15446465836831896</v>
       </c>
-      <c r="F16" s="110">
+      <c r="F16" s="102">
         <f t="shared" si="9"/>
         <v>0.11325261510583971</v>
       </c>
-      <c r="G16" s="109">
+      <c r="G16" s="122">
         <f t="shared" si="9"/>
         <v>0.11822390572390572</v>
       </c>
-      <c r="H16" s="109">
+      <c r="H16" s="122">
         <f t="shared" si="9"/>
         <v>0.12043150684931507</v>
       </c>
-      <c r="I16" s="109">
+      <c r="I16" s="122">
         <f t="shared" si="9"/>
         <v>0.14975075987841946</v>
       </c>
-      <c r="J16" s="109">
+      <c r="J16" s="122">
         <f t="shared" si="9"/>
         <v>0.14416311300639659</v>
       </c>
-      <c r="K16" s="102"/>
+      <c r="K16" s="106"/>
       <c r="L16" s="72"/>
       <c r="M16" s="72"/>
       <c r="N16" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="O16" s="75">
+      <c r="O16" s="74">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="38"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="92">
+      <c r="B17" s="86">
         <v>2295000000</v>
       </c>
-      <c r="C17" s="92">
+      <c r="C17" s="86">
         <v>3259731369</v>
       </c>
-      <c r="D17" s="92">
+      <c r="D17" s="86">
         <v>3813115718</v>
       </c>
-      <c r="E17" s="92">
+      <c r="E17" s="86">
         <v>7727239959</v>
       </c>
-      <c r="F17" s="94">
+      <c r="F17" s="88">
         <v>7800000000</v>
       </c>
-      <c r="G17" s="92">
+      <c r="G17" s="86">
         <v>10745000000</v>
       </c>
-      <c r="H17" s="92">
+      <c r="H17" s="86">
         <v>16925000000</v>
       </c>
-      <c r="I17" s="92">
+      <c r="I17" s="86">
         <v>25301000000</v>
       </c>
-      <c r="J17" s="92">
+      <c r="J17" s="86">
         <v>35235000000</v>
       </c>
-      <c r="K17" s="107" t="s">
+      <c r="K17" s="100" t="s">
         <v>242</v>
       </c>
       <c r="L17" s="72"/>
       <c r="M17" s="72"/>
-      <c r="N17" s="79" t="s">
+      <c r="N17" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="O17" s="80">
+      <c r="O17" s="79">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.13164860100000003</v>
+        <v>0.13283889500000001</v>
       </c>
       <c r="P17" s="38"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="123" t="s">
         <v>251</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73">
+      <c r="B18" s="124"/>
+      <c r="C18" s="124">
         <f t="shared" ref="C18:J18" si="10">(C17/B17)-1</f>
         <v>0.42036225228758162</v>
       </c>
-      <c r="D18" s="73">
+      <c r="D18" s="124">
         <f t="shared" si="10"/>
         <v>0.16976378920750257</v>
       </c>
-      <c r="E18" s="73">
+      <c r="E18" s="124">
         <f t="shared" si="10"/>
         <v>1.0264897607285257</v>
       </c>
-      <c r="F18" s="74">
+      <c r="F18" s="125">
         <f t="shared" si="10"/>
         <v>9.4160452355638302E-3</v>
       </c>
-      <c r="G18" s="73">
+      <c r="G18" s="124">
         <f t="shared" si="10"/>
         <v>0.37756410256410255</v>
       </c>
-      <c r="H18" s="73">
+      <c r="H18" s="124">
         <f t="shared" si="10"/>
         <v>0.57515123313168925</v>
       </c>
-      <c r="I18" s="73">
+      <c r="I18" s="124">
         <f t="shared" si="10"/>
         <v>0.49488921713441658</v>
       </c>
-      <c r="J18" s="73">
+      <c r="J18" s="124">
         <f t="shared" si="10"/>
         <v>0.39263270226473268</v>
       </c>
-      <c r="K18" s="101">
+      <c r="K18" s="126">
         <f>SUM(F18:J18)/5</f>
         <v>0.36993066006610098</v>
       </c>
       <c r="L18" s="72"/>
       <c r="M18" s="72"/>
-      <c r="N18" s="122" t="s">
+      <c r="N18" s="117" t="s">
         <v>246</v>
       </c>
-      <c r="O18" s="123"/>
+      <c r="O18" s="118"/>
       <c r="P18" s="38"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="86" t="s">
-        <v>252</v>
-      </c>
-      <c r="B19" s="109">
+      <c r="A19" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="101">
         <f>B17/B10</f>
         <v>9.3376190088697214E-2</v>
       </c>
-      <c r="C19" s="109">
+      <c r="C19" s="101">
         <f t="shared" ref="C19:J19" si="11">C17/C10</f>
         <v>0.10336540363394216</v>
       </c>
-      <c r="D19" s="109">
+      <c r="D19" s="101">
         <f t="shared" si="11"/>
         <v>7.0845469743418238E-2</v>
       </c>
-      <c r="E19" s="109">
+      <c r="E19" s="101">
         <f t="shared" si="11"/>
         <v>9.4856988031229286E-2</v>
       </c>
-      <c r="F19" s="110">
+      <c r="F19" s="102">
         <f t="shared" si="11"/>
         <v>8.0306399802322709E-2</v>
       </c>
-      <c r="G19" s="109">
+      <c r="G19" s="101">
         <f t="shared" si="11"/>
         <v>9.0446127946127941E-2</v>
       </c>
-      <c r="H19" s="109">
+      <c r="H19" s="101">
         <f t="shared" si="11"/>
         <v>0.11592465753424658</v>
       </c>
-      <c r="I19" s="109">
+      <c r="I19" s="101">
         <f t="shared" si="11"/>
         <v>0.15380547112462006</v>
       </c>
-      <c r="J19" s="109">
+      <c r="J19" s="101">
         <f t="shared" si="11"/>
         <v>0.18781982942430703</v>
       </c>
-      <c r="K19" s="102"/>
+      <c r="K19" s="106"/>
       <c r="L19" s="72"/>
       <c r="M19" s="72"/>
       <c r="N19" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="O19" s="82">
+      <c r="O19" s="81">
         <f>O6+O7</f>
         <v>2331000000</v>
       </c>
       <c r="P19" s="38"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="94" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="104">
+      <c r="B20" s="97">
         <v>2.7869385480050165E-3</v>
       </c>
-      <c r="C20" s="104">
+      <c r="C20" s="97">
         <v>4.222429273250889E-2</v>
       </c>
-      <c r="D20" s="104">
+      <c r="D20" s="97">
         <v>0.12681885623552072</v>
       </c>
-      <c r="E20" s="104">
+      <c r="E20" s="97">
         <v>0.21172724860705758</v>
       </c>
-      <c r="F20" s="105"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="103"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="96"/>
       <c r="L20" s="72"/>
       <c r="M20" s="72"/>
       <c r="N20" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="82" cm="1">
+      <c r="O20" s="81" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>699235600000</v>
+        <v>667509831580</v>
       </c>
       <c r="P20" s="38"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="112"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
       <c r="M21" s="72"/>
       <c r="N21" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="O21" s="82">
+      <c r="O21" s="81">
         <f>O19+O20</f>
-        <v>701566600000</v>
+        <v>669840831580</v>
       </c>
       <c r="P21" s="38"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="124" t="str" cm="1">
+      <c r="A22" s="119" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Industry")</f>
         <v>Automobiles &amp; Auto Parts</v>
       </c>
-      <c r="B22" s="124"/>
-      <c r="C22" s="125" cm="1">
+      <c r="B22" s="119"/>
+      <c r="C22" s="120" cm="1">
         <f t="array" ref="C22">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2003</v>
       </c>
-      <c r="D22" s="125"/>
-      <c r="E22" s="81"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="72"/>
       <c r="G22" s="72"/>
       <c r="H22" s="72"/>
@@ -14937,21 +14940,21 @@
       <c r="N22" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="O22" s="83">
+      <c r="O22" s="82">
         <f>(O19/O21)</f>
-        <v>3.322564101540752E-3</v>
+        <v>3.4799311867891192E-3</v>
       </c>
       <c r="P22" s="38"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="124" t="str" cm="1">
+      <c r="A23" s="119" t="str" cm="1">
         <f t="array" ref="A23">_FV(A1,"Description")</f>
         <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
       </c>
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
       <c r="F23" s="72"/>
       <c r="G23" s="72"/>
       <c r="H23" s="72"/>
@@ -14960,21 +14963,21 @@
       <c r="K23" s="72"/>
       <c r="L23" s="72"/>
       <c r="M23" s="72"/>
-      <c r="N23" s="79" t="s">
+      <c r="N23" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="O23" s="84">
+      <c r="O23" s="83">
         <f>O20/O21</f>
-        <v>0.99667743589845925</v>
+        <v>0.99652006881321087</v>
       </c>
       <c r="P23" s="38"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="124"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
       <c r="F24" s="72"/>
       <c r="G24" s="72"/>
       <c r="H24" s="72"/>
@@ -14983,18 +14986,18 @@
       <c r="K24" s="72"/>
       <c r="L24" s="72"/>
       <c r="M24" s="72"/>
-      <c r="N24" s="114" t="s">
+      <c r="N24" s="109" t="s">
         <v>250</v>
       </c>
-      <c r="O24" s="115"/>
+      <c r="O24" s="110"/>
       <c r="P24" s="38"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="124"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
       <c r="F25" s="72"/>
       <c r="G25" s="72"/>
       <c r="H25" s="72"/>
@@ -15003,19 +15006,19 @@
       <c r="K25" s="72"/>
       <c r="L25" s="72"/>
       <c r="M25" s="72"/>
-      <c r="N25" s="116">
+      <c r="N25" s="111">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.13139724024662797</v>
-      </c>
-      <c r="O25" s="117"/>
+        <v>0.13257148686961151</v>
+      </c>
+      <c r="O25" s="112"/>
       <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="124"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="72"/>
       <c r="G26" s="72"/>
       <c r="H26" s="72"/>
@@ -15029,11 +15032,11 @@
       <c r="P26" s="38"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="124"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
       <c r="F27" s="72"/>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
@@ -15047,11 +15050,11 @@
       <c r="P27" s="38"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="124"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
       <c r="F28" s="72"/>
       <c r="G28" s="72"/>
       <c r="H28" s="72"/>
@@ -15065,11 +15068,11 @@
       <c r="P28" s="38"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="124"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
       <c r="F29" s="72"/>
       <c r="G29" s="72"/>
       <c r="H29" s="72"/>
@@ -15083,11 +15086,11 @@
       <c r="P29" s="38"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
       <c r="F30" s="72"/>
       <c r="G30" s="72"/>
       <c r="H30" s="72"/>
@@ -15101,11 +15104,11 @@
       <c r="P30" s="38"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="85"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>

--- a/Technology/Hardware/Tesla.xlsx
+++ b/Technology/Hardware/Tesla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDE2EC5-8191-1341-B198-03C5C0AFFC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2835611C-E3BA-7845-9211-AD72AB89C53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="256">
   <si>
     <t>2010 Y</t>
   </si>
@@ -835,10 +835,13 @@
     <t>Vehicle Deliveries</t>
   </si>
   <si>
-    <t>Deliveries YoY</t>
-  </si>
-  <si>
     <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Deliveries Growth</t>
+  </si>
+  <si>
+    <t>Deliveries CAGR</t>
   </si>
 </sst>
 </file>
@@ -851,7 +854,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -990,6 +993,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -1079,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1117,94 +1126,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1316,12 +1237,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1379,123 +1351,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1506,174 +1370,263 @@
     <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="12" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="12" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="23" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="23" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="12" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="12" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="12" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="12" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="12" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="12" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="12" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="12" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1710,6 +1663,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1727,7 +1681,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1739,6 +1693,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1866,11 +1821,11 @@
     <v>Powered by Refinitiv</v>
     <v>299.29000000000002</v>
     <v>101.81</v>
-    <v>2.2755000000000001</v>
-    <v>-12.13</v>
-    <v>-5.4612999999999995E-2</v>
-    <v>-1.4</v>
-    <v>-6.6669999999999993E-3</v>
+    <v>2.3370000000000002</v>
+    <v>-1.25</v>
+    <v>-5.2070000000000007E-3</v>
+    <v>0.52</v>
+    <v>2.1770000000000001E-3</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
     <v>127855</v>
@@ -1878,25 +1833,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>220.8</v>
+    <v>240.19</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45239.972654767967</v>
+    <v>45262.04166538125</v>
     <v>0</v>
-    <v>206.68</v>
-    <v>667509831580</v>
+    <v>231.9</v>
+    <v>759221702430</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>219.75</v>
-    <v>71.571700000000007</v>
-    <v>222.11</v>
-    <v>209.98</v>
-    <v>208.58</v>
+    <v>233.14</v>
+    <v>77.362300000000005</v>
+    <v>240.08</v>
+    <v>238.83</v>
+    <v>239.35</v>
     <v>3178921000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>141754315</v>
-    <v>117749263</v>
+    <v>121331709</v>
+    <v>124660833</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -2061,9 +2016,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2508,9 +2463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O196" sqref="O196"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P126" sqref="P126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10159,7 +10114,10 @@
         <f>(O128/N128)-1</f>
         <v>3.160556257901348E-3</v>
       </c>
-      <c r="P129" s="19"/>
+      <c r="P129" s="19">
+        <f>(P128/O128)-1</f>
+        <v>-5.04095778197855E-3</v>
+      </c>
       <c r="Q129" s="19">
         <f>(Q128/P128)-1</f>
         <v>1.8999366687777464E-3</v>
@@ -14016,7 +13974,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14024,1838 +13982,1840 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="114" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="e" vm="1">
+    <row r="1" spans="1:16" s="118" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-    </row>
-    <row r="2" spans="1:16" s="114" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+    </row>
+    <row r="2" spans="1:16" s="118" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" cm="1">
+      <c r="A3" s="67" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>667509831580</v>
-      </c>
-      <c r="B3" s="32" t="s">
+        <v>759221702430</v>
+      </c>
+      <c r="B3" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="89">
         <f>Financials!O8*0.01</f>
         <v>0.21489999999999998</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="89">
         <f>SUM(C11:E11)/3</f>
         <v>0.50111045549806821</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="35">
-        <f>AVERAGE(Financials!K129:O129)</f>
-        <v>4.1919530131270123E-2</v>
-      </c>
-      <c r="H3" s="34" t="s">
+      <c r="G3" s="86">
+        <f>AVERAGE(Financials!N129:S129)</f>
+        <v>4.0253509949303252E-3</v>
+      </c>
+      <c r="H3" s="83" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="67">
         <f>J17*(1+I7)/(I6-I7)</f>
-        <v>335738363863.80359</v>
-      </c>
-      <c r="J3" s="32" t="s">
+        <v>269855104262.272</v>
+      </c>
+      <c r="J3" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="76">
         <f>(Financials!O172*-1)/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="115" t="s">
+      <c r="M3" s="31"/>
+      <c r="N3" s="119" t="s">
         <v>207</v>
       </c>
-      <c r="O3" s="116"/>
-      <c r="P3" s="38"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="31"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39">
+      <c r="A4" s="69">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>28523000000</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="33">
         <f>Financials!O17*0.01</f>
         <v>0.13489999999999999</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="33">
         <f>SUM(C15:E15)/3</f>
         <v>2.1593429019987735</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="32">
         <f>A5*(1+(5*G3))</f>
-        <v>3845215373.2221365</v>
-      </c>
-      <c r="H4" s="44" t="s">
+        <v>3242902364.0507741</v>
+      </c>
+      <c r="H4" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="32">
         <f>NPV(I6,F17,G17,H17,I17,(J17+I3))</f>
-        <v>241365039853.70773</v>
-      </c>
-      <c r="J4" s="42" t="s">
+        <v>196842858131.80707</v>
+      </c>
+      <c r="J4" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="K4" s="46" cm="1">
+      <c r="K4" s="77" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-5.4612999999999995E-2</v>
-      </c>
-      <c r="L4" s="44" t="s">
+        <v>-5.2070000000000007E-3</v>
+      </c>
+      <c r="L4" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="117" t="s">
+      <c r="M4" s="31"/>
+      <c r="N4" s="121" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="118"/>
-      <c r="P4" s="38"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="31"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" cm="1">
+      <c r="A5" s="69" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>3178921000</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="47">
-        <f>Financials!O34*0.01</f>
-        <v>0.12970000000000001</v>
-      </c>
-      <c r="D5" s="40" t="s">
+      <c r="C5" s="33">
+        <f>F16</f>
+        <v>0.11324328776148905</v>
+      </c>
+      <c r="D5" s="103" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="33">
         <f>SUM(C18:E18)/3</f>
         <v>0.5388719340745366</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="32">
         <f>Financials!O56</f>
         <v>30854000000</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="32">
         <f>I4+G5-G6</f>
-        <v>269888039853.70773</v>
-      </c>
-      <c r="J5" s="42" t="s">
+        <v>225365858131.80707</v>
+      </c>
+      <c r="J5" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="K5" s="48" cm="1">
+      <c r="K5" s="78" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>209.98</v>
-      </c>
-      <c r="L5" s="40" t="s">
+        <v>238.83</v>
+      </c>
+      <c r="L5" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="49" t="s">
+      <c r="M5" s="31"/>
+      <c r="N5" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="O5" s="50">
+      <c r="O5" s="93">
         <f>Financials!O21</f>
         <v>143000000</v>
       </c>
-      <c r="P5" s="38"/>
+      <c r="P5" s="31"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51">
-        <f>O20/F10</f>
-        <v>6.8724758213903305</v>
-      </c>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="72">
+        <f>A3/F10</f>
+        <v>7.8160692475498275</v>
+      </c>
+      <c r="B6" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="41">
-        <f>Financials!O190</f>
-        <v>8.8957827242948914E-2</v>
-      </c>
-      <c r="D6" s="52" t="s">
+      <c r="C6" s="33">
+        <f>F19</f>
+        <v>7.7211332564651625E-2</v>
+      </c>
+      <c r="D6" s="103" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="33">
         <f>Financials!O33/Financials!O126</f>
         <v>0.23370127630217316</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="32">
         <f>Financials!O96+Financials!O105</f>
         <v>2331000000</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="77">
         <f>N25</f>
-        <v>0.13257148686961151</v>
-      </c>
-      <c r="J6" s="44" t="s">
+        <v>0.1389500402783343</v>
+      </c>
+      <c r="J6" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="79">
         <f>I5/G4</f>
-        <v>70.188016445890881</v>
-      </c>
-      <c r="L6" s="54" t="s">
+        <v>69.495110500427799</v>
+      </c>
+      <c r="L6" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="55" t="s">
+      <c r="M6" s="31"/>
+      <c r="N6" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="O6" s="56">
+      <c r="O6" s="93">
         <f>Financials!O96</f>
         <v>1459000000</v>
       </c>
-      <c r="P6" s="38"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57">
-        <f>O20/F14</f>
-        <v>60.682711961818178</v>
-      </c>
-      <c r="B7" s="58" t="s">
+      <c r="A7" s="74">
+        <f>A3/F14</f>
+        <v>69.020154766363632</v>
+      </c>
+      <c r="B7" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="91">
         <f>F17/A3</f>
-        <v>1.1685221147286101E-2</v>
-      </c>
-      <c r="D7" s="60" t="s">
+        <v>9.8785374232521986E-3</v>
+      </c>
+      <c r="D7" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="90">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.174536349127731</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="87">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>4.4670576060710593E-2</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="85" t="s">
         <v>230</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="84">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="80">
         <f>K6/K5-1</f>
-        <v>-0.6657395159258459</v>
-      </c>
-      <c r="L7" s="67" t="s">
+        <v>-0.7090185047924138</v>
+      </c>
+      <c r="L7" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="55" t="s">
+      <c r="M7" s="31"/>
+      <c r="N7" s="92" t="s">
         <v>233</v>
       </c>
-      <c r="O7" s="56">
+      <c r="O7" s="93">
         <f>Financials!O105</f>
         <v>872000000</v>
       </c>
-      <c r="P7" s="38"/>
+      <c r="P7" s="31"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="69" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="94" t="s">
         <v>214</v>
       </c>
-      <c r="O8" s="70">
+      <c r="O8" s="95">
         <f>O5/(O6+O7)</f>
         <v>6.1347061347061346E-2</v>
       </c>
-      <c r="P8" s="38"/>
+      <c r="P8" s="31"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
-      <c r="B9" s="127">
+      <c r="A9" s="46"/>
+      <c r="B9" s="65">
         <v>2019</v>
       </c>
-      <c r="C9" s="89">
+      <c r="C9" s="42">
         <v>2020</v>
       </c>
-      <c r="D9" s="89">
+      <c r="D9" s="42">
         <v>2021</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="42">
         <v>2022</v>
       </c>
-      <c r="F9" s="90">
+      <c r="F9" s="43">
         <v>2023</v>
       </c>
-      <c r="G9" s="91">
+      <c r="G9" s="44">
         <v>2024</v>
       </c>
-      <c r="H9" s="91">
+      <c r="H9" s="44">
         <v>2025</v>
       </c>
-      <c r="I9" s="91">
+      <c r="I9" s="44">
         <v>2026</v>
       </c>
-      <c r="J9" s="92">
+      <c r="J9" s="45">
         <v>2027</v>
       </c>
-      <c r="K9" s="71"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="55" t="s">
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="O9" s="56">
+      <c r="O9" s="93">
         <f>Financials!O25</f>
         <v>1165000000</v>
       </c>
-      <c r="P9" s="38"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="86">
+      <c r="B10" s="39">
         <v>24578000000</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="39">
         <v>31536000000</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="39">
         <v>53823000000</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="39">
         <v>81462000000</v>
       </c>
-      <c r="F10" s="88">
-        <v>97128000000</v>
-      </c>
-      <c r="G10" s="86">
-        <v>118800000000</v>
-      </c>
-      <c r="H10" s="86">
+      <c r="F10" s="41">
+        <v>97136000000</v>
+      </c>
+      <c r="G10" s="39">
+        <v>118600000000</v>
+      </c>
+      <c r="H10" s="39">
         <v>146000000000</v>
       </c>
-      <c r="I10" s="86">
-        <v>164500000000</v>
-      </c>
-      <c r="J10" s="86">
-        <v>187600000000</v>
-      </c>
-      <c r="K10" s="100" t="s">
+      <c r="I10" s="39">
+        <v>168000000000</v>
+      </c>
+      <c r="J10" s="39">
+        <v>186800000000</v>
+      </c>
+      <c r="K10" s="106" t="s">
         <v>236</v>
       </c>
-      <c r="L10" s="72"/>
-      <c r="N10" s="55" t="s">
+      <c r="L10" s="36"/>
+      <c r="N10" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="O10" s="56">
+      <c r="O10" s="93">
         <f>Financials!O24</f>
         <v>13356000000</v>
       </c>
-      <c r="P10" s="38"/>
+      <c r="P10" s="31"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="128"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124">
+      <c r="A11" s="66"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.28309870615998056</v>
       </c>
-      <c r="D11" s="124">
+      <c r="D11" s="63">
         <f t="shared" si="0"/>
         <v>0.70671613394216126</v>
       </c>
-      <c r="E11" s="124">
+      <c r="E11" s="63">
         <f t="shared" si="0"/>
         <v>0.51351652639206291</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F11" s="64">
         <f t="shared" si="0"/>
-        <v>0.19231052515283209</v>
-      </c>
-      <c r="G11" s="124">
+        <v>0.19240873045100781</v>
+      </c>
+      <c r="G11" s="63">
         <f t="shared" si="0"/>
-        <v>0.223128243143069</v>
-      </c>
-      <c r="H11" s="124">
+        <v>0.22096853895569102</v>
+      </c>
+      <c r="H11" s="63">
         <f t="shared" si="0"/>
-        <v>0.22895622895622902</v>
-      </c>
-      <c r="I11" s="124">
+        <v>0.2310286677908937</v>
+      </c>
+      <c r="I11" s="63">
         <f t="shared" si="0"/>
-        <v>0.12671232876712324</v>
-      </c>
-      <c r="J11" s="124">
+        <v>0.15068493150684925</v>
+      </c>
+      <c r="J11" s="63">
         <f t="shared" si="0"/>
-        <v>0.14042553191489371</v>
-      </c>
-      <c r="K11" s="126">
+        <v>0.11190476190476195</v>
+      </c>
+      <c r="K11" s="107">
         <f>SUM(F11:J11)/5</f>
-        <v>0.18230657158682942</v>
-      </c>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="55" t="s">
+        <v>0.18139912612184075</v>
+      </c>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="92" t="s">
         <v>238</v>
       </c>
-      <c r="O11" s="74">
+      <c r="O11" s="96">
         <f>O9/O10</f>
         <v>8.7226714585205145E-2</v>
       </c>
-      <c r="P11" s="38"/>
+      <c r="P11" s="31"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="112" t="s">
         <v>252</v>
       </c>
-      <c r="B12" s="129">
+      <c r="B12" s="104">
         <v>367200</v>
       </c>
-      <c r="C12" s="129">
+      <c r="C12" s="104">
         <v>499000</v>
       </c>
-      <c r="D12" s="129">
+      <c r="D12" s="104">
         <v>935900</v>
       </c>
-      <c r="E12" s="130">
+      <c r="E12" s="105">
         <v>1313000</v>
       </c>
-      <c r="F12" s="129">
+      <c r="F12" s="104">
         <v>1800000</v>
       </c>
-      <c r="G12" s="129">
+      <c r="G12" s="104">
         <v>2100000</v>
       </c>
-      <c r="H12" s="129">
+      <c r="H12" s="104">
         <v>2400000</v>
       </c>
-      <c r="I12" s="129">
+      <c r="I12" s="104">
         <v>2600000</v>
       </c>
-      <c r="J12" s="129">
+      <c r="J12" s="104">
         <v>2900000</v>
       </c>
-      <c r="K12" s="131"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="75" t="s">
+      <c r="K12" s="106" t="s">
+        <v>255</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="O12" s="76">
+      <c r="O12" s="96">
         <f>O8*(1-O11)</f>
         <v>5.5995958736300158E-2</v>
       </c>
-      <c r="P12" s="38"/>
+      <c r="P12" s="31"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73">
+      <c r="A13" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="108">
         <f t="shared" ref="C13" si="1">(C12/B12)-1</f>
         <v>0.35893246187363825</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="108">
         <f t="shared" ref="D13" si="2">(D12/C12)-1</f>
         <v>0.8755511022044089</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="108">
         <f t="shared" ref="E13:F13" si="3">(E12/D12)-1</f>
         <v>0.40292766321188167</v>
       </c>
-      <c r="F13" s="103">
+      <c r="F13" s="109">
         <f t="shared" si="3"/>
         <v>0.37090632140137081</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="110">
         <f t="shared" ref="G13" si="4">(G12/F12)-1</f>
         <v>0.16666666666666674</v>
       </c>
-      <c r="H13" s="85">
+      <c r="H13" s="110">
         <f t="shared" ref="H13" si="5">(H12/G12)-1</f>
         <v>0.14285714285714279</v>
       </c>
-      <c r="I13" s="85">
+      <c r="I13" s="110">
         <f t="shared" ref="I13" si="6">(I12/H12)-1</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="J13" s="85">
+      <c r="J13" s="110">
         <f t="shared" ref="J13" si="7">(J12/I12)-1</f>
         <v>0.11538461538461542</v>
       </c>
-      <c r="K13" s="95">
+      <c r="K13" s="111">
         <f>SUM(F13:J13)/5</f>
         <v>0.17582961592862581</v>
       </c>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="117" t="s">
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="O13" s="118"/>
-      <c r="P13" s="38"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="31"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="86">
+      <c r="B14" s="39">
         <v>-862000000</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C14" s="39">
         <v>690000000</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="39">
         <v>5519000000</v>
       </c>
-      <c r="E14" s="87">
+      <c r="E14" s="40">
         <v>12583000000</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F14" s="41">
         <v>11000000000</v>
       </c>
-      <c r="G14" s="86">
-        <v>14045000000</v>
-      </c>
-      <c r="H14" s="86">
+      <c r="G14" s="39">
+        <v>13807000000</v>
+      </c>
+      <c r="H14" s="39">
         <v>17583000000</v>
       </c>
-      <c r="I14" s="86">
-        <v>24634000000</v>
-      </c>
-      <c r="J14" s="87">
-        <v>27045000000</v>
-      </c>
-      <c r="K14" s="100" t="s">
+      <c r="I14" s="39">
+        <v>28124000000</v>
+      </c>
+      <c r="J14" s="40">
+        <v>28700000000</v>
+      </c>
+      <c r="K14" s="106" t="s">
         <v>239</v>
       </c>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="55" t="s">
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="92" t="s">
         <v>243</v>
       </c>
-      <c r="O14" s="74">
+      <c r="O14" s="96">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="38"/>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="31"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="123"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124">
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63">
         <f t="shared" ref="C15:J15" si="8">(C14/B14)-1</f>
         <v>-1.8004640371229699</v>
       </c>
-      <c r="D15" s="124">
+      <c r="D15" s="63">
         <f t="shared" si="8"/>
         <v>6.9985507246376812</v>
       </c>
-      <c r="E15" s="124">
+      <c r="E15" s="63">
         <f t="shared" si="8"/>
         <v>1.2799420184816088</v>
       </c>
-      <c r="F15" s="125">
+      <c r="F15" s="64">
         <f t="shared" si="8"/>
         <v>-0.12580465707700861</v>
       </c>
-      <c r="G15" s="124">
+      <c r="G15" s="63">
         <f t="shared" si="8"/>
-        <v>0.27681818181818185</v>
-      </c>
-      <c r="H15" s="124">
+        <v>0.25518181818181818</v>
+      </c>
+      <c r="H15" s="63">
         <f t="shared" si="8"/>
-        <v>0.25190459238163054</v>
-      </c>
-      <c r="I15" s="124">
+        <v>0.27348446440211482</v>
+      </c>
+      <c r="I15" s="63">
         <f t="shared" si="8"/>
-        <v>0.40101234146618903</v>
-      </c>
-      <c r="J15" s="124">
+        <v>0.5994995165785133</v>
+      </c>
+      <c r="J15" s="63">
         <f t="shared" si="8"/>
-        <v>9.7872858650645433E-2</v>
-      </c>
-      <c r="K15" s="126">
+        <v>2.0480728203669418E-2</v>
+      </c>
+      <c r="K15" s="107">
         <f>SUM(F15:J15)/5</f>
-        <v>0.18036066344792764</v>
-      </c>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="55" t="s">
+        <v>0.20456837405782141</v>
+      </c>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="92" t="s">
         <v>244</v>
       </c>
-      <c r="O15" s="77" cm="1">
+      <c r="O15" s="97" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>2.2755000000000001</v>
-      </c>
-      <c r="P15" s="38"/>
+        <v>2.3370000000000002</v>
+      </c>
+      <c r="P15" s="31"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="121" t="s">
-        <v>254</v>
-      </c>
-      <c r="B16" s="122">
+      <c r="A16" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="61">
         <f>B14/B10</f>
         <v>-3.5072015623728539E-2</v>
       </c>
-      <c r="C16" s="122">
+      <c r="C16" s="61">
         <f t="shared" ref="C16:J16" si="9">C14/C10</f>
         <v>2.1879756468797563E-2</v>
       </c>
-      <c r="D16" s="122">
+      <c r="D16" s="61">
         <f t="shared" si="9"/>
         <v>0.10253980640246735</v>
       </c>
-      <c r="E16" s="122">
+      <c r="E16" s="61">
         <f t="shared" si="9"/>
         <v>0.15446465836831896</v>
       </c>
-      <c r="F16" s="102">
+      <c r="F16" s="53">
         <f t="shared" si="9"/>
-        <v>0.11325261510583971</v>
-      </c>
-      <c r="G16" s="122">
+        <v>0.11324328776148905</v>
+      </c>
+      <c r="G16" s="61">
         <f t="shared" si="9"/>
-        <v>0.11822390572390572</v>
-      </c>
-      <c r="H16" s="122">
+        <v>0.11641652613827994</v>
+      </c>
+      <c r="H16" s="61">
         <f t="shared" si="9"/>
         <v>0.12043150684931507</v>
       </c>
-      <c r="I16" s="122">
+      <c r="I16" s="61">
         <f t="shared" si="9"/>
-        <v>0.14975075987841946</v>
-      </c>
-      <c r="J16" s="122">
+        <v>0.16740476190476192</v>
+      </c>
+      <c r="J16" s="61">
         <f t="shared" si="9"/>
-        <v>0.14416311300639659</v>
-      </c>
-      <c r="K16" s="106"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="55" t="s">
+        <v>0.15364025695931477</v>
+      </c>
+      <c r="K16" s="56"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="O16" s="74">
+      <c r="O16" s="96">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="P16" s="38"/>
+      <c r="P16" s="31"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="86">
+      <c r="B17" s="39">
         <v>2295000000</v>
       </c>
-      <c r="C17" s="86">
+      <c r="C17" s="39">
         <v>3259731369</v>
       </c>
-      <c r="D17" s="86">
+      <c r="D17" s="39">
         <v>3813115718</v>
       </c>
-      <c r="E17" s="86">
+      <c r="E17" s="39">
         <v>7727239959</v>
       </c>
-      <c r="F17" s="88">
-        <v>7800000000</v>
-      </c>
-      <c r="G17" s="86">
-        <v>10745000000</v>
-      </c>
-      <c r="H17" s="86">
-        <v>16925000000</v>
-      </c>
-      <c r="I17" s="86">
-        <v>25301000000</v>
-      </c>
-      <c r="J17" s="86">
-        <v>35235000000</v>
-      </c>
-      <c r="K17" s="100" t="s">
+      <c r="F17" s="41">
+        <v>7500000000</v>
+      </c>
+      <c r="G17" s="39">
+        <v>10401000000</v>
+      </c>
+      <c r="H17" s="39">
+        <v>16000000000</v>
+      </c>
+      <c r="I17" s="39">
+        <v>25167000000</v>
+      </c>
+      <c r="J17" s="39">
+        <v>30000000000</v>
+      </c>
+      <c r="K17" s="106" t="s">
         <v>242</v>
       </c>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="78" t="s">
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="98" t="s">
         <v>241</v>
       </c>
-      <c r="O17" s="79">
+      <c r="O17" s="99">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.13283889500000001</v>
-      </c>
-      <c r="P17" s="38"/>
+        <v>0.13920473000000003</v>
+      </c>
+      <c r="P17" s="31"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="B18" s="124"/>
-      <c r="C18" s="124">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63">
         <f t="shared" ref="C18:J18" si="10">(C17/B17)-1</f>
         <v>0.42036225228758162</v>
       </c>
-      <c r="D18" s="124">
+      <c r="D18" s="63">
         <f t="shared" si="10"/>
         <v>0.16976378920750257</v>
       </c>
-      <c r="E18" s="124">
+      <c r="E18" s="63">
         <f t="shared" si="10"/>
         <v>1.0264897607285257</v>
       </c>
-      <c r="F18" s="125">
+      <c r="F18" s="64">
         <f t="shared" si="10"/>
-        <v>9.4160452355638302E-3</v>
-      </c>
-      <c r="G18" s="124">
+        <v>-2.9407648811957898E-2</v>
+      </c>
+      <c r="G18" s="63">
         <f t="shared" si="10"/>
-        <v>0.37756410256410255</v>
-      </c>
-      <c r="H18" s="124">
+        <v>0.38680000000000003</v>
+      </c>
+      <c r="H18" s="63">
         <f t="shared" si="10"/>
-        <v>0.57515123313168925</v>
-      </c>
-      <c r="I18" s="124">
+        <v>0.53831362369002989</v>
+      </c>
+      <c r="I18" s="63">
         <f t="shared" si="10"/>
-        <v>0.49488921713441658</v>
-      </c>
-      <c r="J18" s="124">
+        <v>0.5729375000000001</v>
+      </c>
+      <c r="J18" s="63">
         <f t="shared" si="10"/>
-        <v>0.39263270226473268</v>
-      </c>
-      <c r="K18" s="126">
+        <v>0.19203719156037669</v>
+      </c>
+      <c r="K18" s="107">
         <f>SUM(F18:J18)/5</f>
-        <v>0.36993066006610098</v>
-      </c>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="117" t="s">
+        <v>0.33213613328768976</v>
+      </c>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="121" t="s">
         <v>246</v>
       </c>
-      <c r="O18" s="118"/>
-      <c r="P18" s="38"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="31"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="B19" s="101">
+      <c r="B19" s="52">
         <f>B17/B10</f>
         <v>9.3376190088697214E-2</v>
       </c>
-      <c r="C19" s="101">
+      <c r="C19" s="52">
         <f t="shared" ref="C19:J19" si="11">C17/C10</f>
         <v>0.10336540363394216</v>
       </c>
-      <c r="D19" s="101">
+      <c r="D19" s="52">
         <f t="shared" si="11"/>
         <v>7.0845469743418238E-2</v>
       </c>
-      <c r="E19" s="101">
+      <c r="E19" s="52">
         <f t="shared" si="11"/>
         <v>9.4856988031229286E-2</v>
       </c>
-      <c r="F19" s="102">
+      <c r="F19" s="53">
         <f t="shared" si="11"/>
-        <v>8.0306399802322709E-2</v>
-      </c>
-      <c r="G19" s="101">
+        <v>7.7211332564651625E-2</v>
+      </c>
+      <c r="G19" s="52">
         <f t="shared" si="11"/>
-        <v>9.0446127946127941E-2</v>
-      </c>
-      <c r="H19" s="101">
+        <v>8.7698145025295104E-2</v>
+      </c>
+      <c r="H19" s="52">
         <f t="shared" si="11"/>
-        <v>0.11592465753424658</v>
-      </c>
-      <c r="I19" s="101">
+        <v>0.1095890410958904</v>
+      </c>
+      <c r="I19" s="52">
         <f t="shared" si="11"/>
-        <v>0.15380547112462006</v>
-      </c>
-      <c r="J19" s="101">
+        <v>0.14980357142857142</v>
+      </c>
+      <c r="J19" s="52">
         <f t="shared" si="11"/>
-        <v>0.18781982942430703</v>
-      </c>
-      <c r="K19" s="106"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="55" t="s">
+        <v>0.16059957173447537</v>
+      </c>
+      <c r="K19" s="56"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="O19" s="81">
+      <c r="O19" s="100">
         <f>O6+O7</f>
         <v>2331000000</v>
       </c>
-      <c r="P19" s="38"/>
+      <c r="P19" s="31"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="97">
+      <c r="B20" s="49">
         <v>2.7869385480050165E-3</v>
       </c>
-      <c r="C20" s="97">
+      <c r="C20" s="49">
         <v>4.222429273250889E-2</v>
       </c>
-      <c r="D20" s="97">
+      <c r="D20" s="49">
         <v>0.12681885623552072</v>
       </c>
-      <c r="E20" s="97">
+      <c r="E20" s="49">
         <v>0.21172724860705758</v>
       </c>
-      <c r="F20" s="98"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="55" t="s">
+      <c r="F20" s="50"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="81" cm="1">
+      <c r="O20" s="100" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>667509831580</v>
-      </c>
-      <c r="P20" s="38"/>
+        <v>759221702430</v>
+      </c>
+      <c r="P20" s="31"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="55" t="s">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="O21" s="81">
+      <c r="O21" s="100">
         <f>O19+O20</f>
-        <v>669840831580</v>
-      </c>
-      <c r="P21" s="38"/>
+        <v>761552702430</v>
+      </c>
+      <c r="P21" s="31"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="119" t="str" cm="1">
+      <c r="A22" s="123" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Industry")</f>
         <v>Automobiles &amp; Auto Parts</v>
       </c>
-      <c r="B22" s="119"/>
-      <c r="C22" s="120" cm="1">
+      <c r="B22" s="123"/>
+      <c r="C22" s="124" cm="1">
         <f t="array" ref="C22">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2003</v>
       </c>
-      <c r="D22" s="120"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="69" t="s">
+      <c r="D22" s="124"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="94" t="s">
         <v>248</v>
       </c>
-      <c r="O22" s="82">
+      <c r="O22" s="101">
         <f>(O19/O21)</f>
-        <v>3.4799311867891192E-3</v>
-      </c>
-      <c r="P22" s="38"/>
+        <v>3.0608518524878579E-3</v>
+      </c>
+      <c r="P22" s="31"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="119" t="str" cm="1">
+      <c r="A23" s="123" t="str" cm="1">
         <f t="array" ref="A23">_FV(A1,"Description")</f>
         <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
       </c>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="78" t="s">
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="O23" s="83">
+      <c r="O23" s="102">
         <f>O20/O21</f>
-        <v>0.99652006881321087</v>
-      </c>
-      <c r="P23" s="38"/>
+        <v>0.99693914814751217</v>
+      </c>
+      <c r="P23" s="31"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="119"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="109" t="s">
+      <c r="A24" s="123"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="113" t="s">
         <v>250</v>
       </c>
-      <c r="O24" s="110"/>
-      <c r="P24" s="38"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="31"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="119"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="111">
+      <c r="A25" s="123"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.13257148686961151</v>
-      </c>
-      <c r="O25" s="112"/>
-      <c r="P25" s="38"/>
+        <v>0.1389500402783343</v>
+      </c>
+      <c r="O25" s="116"/>
+      <c r="P25" s="31"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="119"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="119"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="119"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="119"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
+      <c r="A29" s="123"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="119"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="84"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="72"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="72"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="72"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="72"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="72"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="72"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="72"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="72"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="72"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="72"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="72"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="72"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="72"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="72"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="72"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="72"/>
-      <c r="N47" s="72"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="72"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="72"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="72"/>
-      <c r="O48" s="72"/>
-      <c r="P48" s="72"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="72"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="72"/>
-      <c r="M49" s="72"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="72"/>
-      <c r="P49" s="72"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="72"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="72"/>
-      <c r="O50" s="72"/>
-      <c r="P50" s="72"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="72"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="72"/>
-      <c r="P51" s="72"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="72"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="72"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="72"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
-      <c r="N53" s="72"/>
-      <c r="O53" s="72"/>
-      <c r="P53" s="72"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="72"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
-      <c r="N54" s="72"/>
-      <c r="O54" s="72"/>
-      <c r="P54" s="72"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="72"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
-      <c r="O55" s="72"/>
-      <c r="P55" s="72"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="72"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="72"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="72"/>
-      <c r="O56" s="72"/>
-      <c r="P56" s="72"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="72"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="72"/>
-      <c r="N57" s="72"/>
-      <c r="O57" s="72"/>
-      <c r="P57" s="72"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="72"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="72"/>
-      <c r="J58" s="72"/>
-      <c r="K58" s="72"/>
-      <c r="L58" s="72"/>
-      <c r="M58" s="72"/>
-      <c r="N58" s="72"/>
-      <c r="O58" s="72"/>
-      <c r="P58" s="72"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="72"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
-      <c r="J59" s="72"/>
-      <c r="K59" s="72"/>
-      <c r="L59" s="72"/>
-      <c r="M59" s="72"/>
-      <c r="N59" s="72"/>
-      <c r="O59" s="72"/>
-      <c r="P59" s="72"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="72"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="72"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="72"/>
-      <c r="N60" s="72"/>
-      <c r="O60" s="72"/>
-      <c r="P60" s="72"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="72"/>
-      <c r="B61" s="72"/>
-      <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="72"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="72"/>
-      <c r="P61" s="72"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="38"/>
-      <c r="P64" s="38"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="31"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="31"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="31"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
+      <c r="O72" s="31"/>
+      <c r="P72" s="31"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
+      <c r="O73" s="31"/>
+      <c r="P73" s="31"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="38"/>
-      <c r="P74" s="38"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="31"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="38"/>
-      <c r="P75" s="38"/>
+      <c r="O75" s="31"/>
+      <c r="P75" s="31"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="38"/>
-      <c r="P76" s="38"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="31"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="38"/>
-      <c r="P77" s="38"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="31"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="38"/>
-      <c r="P78" s="38"/>
+      <c r="O78" s="31"/>
+      <c r="P78" s="31"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="38"/>
-      <c r="P79" s="38"/>
+      <c r="O79" s="31"/>
+      <c r="P79" s="31"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="38"/>
-      <c r="P80" s="38"/>
+      <c r="O80" s="31"/>
+      <c r="P80" s="31"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="38"/>
-      <c r="P81" s="38"/>
+      <c r="O81" s="31"/>
+      <c r="P81" s="31"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="38"/>
-      <c r="P82" s="38"/>
+      <c r="O82" s="31"/>
+      <c r="P82" s="31"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="38"/>
-      <c r="P83" s="38"/>
+      <c r="O83" s="31"/>
+      <c r="P83" s="31"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="38"/>
-      <c r="P84" s="38"/>
+      <c r="O84" s="31"/>
+      <c r="P84" s="31"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="38"/>
-      <c r="P85" s="38"/>
+      <c r="O85" s="31"/>
+      <c r="P85" s="31"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="38"/>
-      <c r="P86" s="38"/>
+      <c r="O86" s="31"/>
+      <c r="P86" s="31"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="38"/>
-      <c r="P87" s="38"/>
+      <c r="O87" s="31"/>
+      <c r="P87" s="31"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="38"/>
-      <c r="P88" s="38"/>
+      <c r="O88" s="31"/>
+      <c r="P88" s="31"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="38"/>
-      <c r="P89" s="38"/>
+      <c r="O89" s="31"/>
+      <c r="P89" s="31"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="38"/>
-      <c r="P90" s="38"/>
+      <c r="O90" s="31"/>
+      <c r="P90" s="31"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="38"/>
-      <c r="P91" s="38"/>
+      <c r="O91" s="31"/>
+      <c r="P91" s="31"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="38"/>
-      <c r="P92" s="38"/>
+      <c r="O92" s="31"/>
+      <c r="P92" s="31"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="38"/>
-      <c r="P93" s="38"/>
+      <c r="O93" s="31"/>
+      <c r="P93" s="31"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="38"/>
-      <c r="P94" s="38"/>
+      <c r="O94" s="31"/>
+      <c r="P94" s="31"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="38"/>
-      <c r="P95" s="38"/>
+      <c r="O95" s="31"/>
+      <c r="P95" s="31"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="38"/>
-      <c r="P96" s="38"/>
+      <c r="O96" s="31"/>
+      <c r="P96" s="31"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="38"/>
-      <c r="P97" s="38"/>
+      <c r="O97" s="31"/>
+      <c r="P97" s="31"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="38"/>
-      <c r="P98" s="38"/>
+      <c r="O98" s="31"/>
+      <c r="P98" s="31"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="38"/>
-      <c r="P99" s="38"/>
+      <c r="O99" s="31"/>
+      <c r="P99" s="31"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="38"/>
-      <c r="P100" s="38"/>
+      <c r="O100" s="31"/>
+      <c r="P100" s="31"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="38"/>
-      <c r="P101" s="38"/>
+      <c r="O101" s="31"/>
+      <c r="P101" s="31"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="38"/>
-      <c r="P102" s="38"/>
+      <c r="O102" s="31"/>
+      <c r="P102" s="31"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="38"/>
-      <c r="P103" s="38"/>
+      <c r="O103" s="31"/>
+      <c r="P103" s="31"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="38"/>
-      <c r="P104" s="38"/>
+      <c r="O104" s="31"/>
+      <c r="P104" s="31"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="38"/>
-      <c r="P105" s="38"/>
+      <c r="O105" s="31"/>
+      <c r="P105" s="31"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="38"/>
-      <c r="P106" s="38"/>
+      <c r="O106" s="31"/>
+      <c r="P106" s="31"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="38"/>
-      <c r="P107" s="38"/>
+      <c r="O107" s="31"/>
+      <c r="P107" s="31"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="38"/>
-      <c r="P108" s="38"/>
+      <c r="O108" s="31"/>
+      <c r="P108" s="31"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="38"/>
-      <c r="P109" s="38"/>
+      <c r="O109" s="31"/>
+      <c r="P109" s="31"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="38"/>
-      <c r="P110" s="38"/>
+      <c r="O110" s="31"/>
+      <c r="P110" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Technology/Hardware/Tesla.xlsx
+++ b/Technology/Hardware/Tesla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2835611C-E3BA-7845-9211-AD72AB89C53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A394C3F0-9BDC-B244-8ABB-2ECA65881EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1293,7 +1293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1621,11 +1621,14 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1662,6 +1665,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1681,7 +1686,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1694,6 +1699,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1821,11 +1828,11 @@
     <v>Powered by Refinitiv</v>
     <v>299.29000000000002</v>
     <v>101.81</v>
-    <v>2.3370000000000002</v>
-    <v>-1.25</v>
-    <v>-5.2070000000000007E-3</v>
-    <v>0.52</v>
-    <v>2.1770000000000001E-3</v>
+    <v>2.3367</v>
+    <v>1.2</v>
+    <v>4.9459999999999999E-3</v>
+    <v>-0.53</v>
+    <v>-2.1740000000000002E-3</v>
     <v>USD</v>
     <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
     <v>127855</v>
@@ -1833,25 +1840,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>240.19</v>
+    <v>245.27</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45262.04166538125</v>
+    <v>45269.04165015</v>
     <v>0</v>
-    <v>231.9</v>
-    <v>759221702430</v>
+    <v>239.27010000000001</v>
+    <v>775148096640</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>233.14</v>
-    <v>77.362300000000005</v>
-    <v>240.08</v>
-    <v>238.83</v>
-    <v>239.35</v>
+    <v>240.27</v>
+    <v>78.187200000000004</v>
+    <v>242.64</v>
+    <v>243.84</v>
+    <v>243.31</v>
     <v>3178921000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>121331709</v>
-    <v>124660833</v>
+    <v>103126829</v>
+    <v>125093200</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -13974,7 +13981,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14023,7 +14030,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="67" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>759221702430</v>
+        <v>775148096640</v>
       </c>
       <c r="B3" s="81" t="s">
         <v>201</v>
@@ -14043,15 +14050,15 @@
         <v>203</v>
       </c>
       <c r="G3" s="86">
-        <f>AVERAGE(Financials!N129:S129)</f>
-        <v>4.0253509949303252E-3</v>
+        <f>AVERAGE(Financials!L129:S129)</f>
+        <v>2.0075439397710837E-2</v>
       </c>
       <c r="H3" s="83" t="s">
         <v>204</v>
       </c>
       <c r="I3" s="67">
         <f>J17*(1+I7)/(I6-I7)</f>
-        <v>269855104262.272</v>
+        <v>309422095921.26184</v>
       </c>
       <c r="J3" s="81" t="s">
         <v>205</v>
@@ -14094,21 +14101,21 @@
       </c>
       <c r="G4" s="32">
         <f>A5*(1+(5*G3))</f>
-        <v>3242902364.0507741</v>
+        <v>3498012179.4280519</v>
       </c>
       <c r="H4" s="70" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="32">
         <f>NPV(I6,F17,G17,H17,I17,(J17+I3))</f>
-        <v>196842858131.80707</v>
+        <v>219387469014.65866</v>
       </c>
       <c r="J4" s="70" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="77" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-5.2070000000000007E-3</v>
+        <v>4.9459999999999999E-3</v>
       </c>
       <c r="L4" s="70" t="s">
         <v>213</v>
@@ -14130,7 +14137,7 @@
       </c>
       <c r="C5" s="33">
         <f>F16</f>
-        <v>0.11324328776148905</v>
+        <v>0.11312906679845153</v>
       </c>
       <c r="D5" s="103" t="s">
         <v>216</v>
@@ -14151,14 +14158,14 @@
       </c>
       <c r="I5" s="32">
         <f>I4+G5-G6</f>
-        <v>225365858131.80707</v>
+        <v>247910469014.65866</v>
       </c>
       <c r="J5" s="70" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="78" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>238.83</v>
+        <v>243.84</v>
       </c>
       <c r="L5" s="71" t="s">
         <v>220</v>
@@ -14176,14 +14183,14 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="72">
         <f>A3/F10</f>
-        <v>7.8160692475498275</v>
+        <v>7.9806862762540156</v>
       </c>
       <c r="B6" s="71" t="s">
         <v>222</v>
       </c>
       <c r="C6" s="33">
         <f>F19</f>
-        <v>7.7211332564651625E-2</v>
+        <v>7.4643769047030725E-2</v>
       </c>
       <c r="D6" s="103" t="s">
         <v>200</v>
@@ -14204,14 +14211,14 @@
       </c>
       <c r="I6" s="77">
         <f>N25</f>
-        <v>0.1389500402783343</v>
+        <v>0.14094194620518974</v>
       </c>
       <c r="J6" s="70" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="79">
         <f>I5/G4</f>
-        <v>69.495110500427799</v>
+        <v>70.871814132789453</v>
       </c>
       <c r="L6" s="73" t="s">
         <v>226</v>
@@ -14229,14 +14236,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="74">
         <f>A3/F14</f>
-        <v>69.020154766363632</v>
+        <v>70.544966931197663</v>
       </c>
       <c r="B7" s="88" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="91">
         <f>F17/A3</f>
-        <v>9.8785374232521986E-3</v>
+        <v>9.3530514122736712E-3</v>
       </c>
       <c r="D7" s="88" t="s">
         <v>229</v>
@@ -14263,7 +14270,7 @@
       </c>
       <c r="K7" s="80">
         <f>K6/K5-1</f>
-        <v>-0.7090185047924138</v>
+        <v>-0.7093511559514869</v>
       </c>
       <c r="L7" s="75" t="s">
         <v>232</v>
@@ -14359,10 +14366,10 @@
         <v>81462000000</v>
       </c>
       <c r="F10" s="41">
-        <v>97136000000</v>
+        <v>97128000000</v>
       </c>
       <c r="G10" s="39">
-        <v>118600000000</v>
+        <v>118400000000</v>
       </c>
       <c r="H10" s="39">
         <v>146000000000</v>
@@ -14403,15 +14410,15 @@
       </c>
       <c r="F11" s="64">
         <f t="shared" si="0"/>
-        <v>0.19240873045100781</v>
+        <v>0.19231052515283209</v>
       </c>
       <c r="G11" s="63">
         <f t="shared" si="0"/>
-        <v>0.22096853895569102</v>
+        <v>0.21900996623012925</v>
       </c>
       <c r="H11" s="63">
         <f t="shared" si="0"/>
-        <v>0.2310286677908937</v>
+        <v>0.23310810810810811</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" si="0"/>
@@ -14423,7 +14430,7 @@
       </c>
       <c r="K11" s="107">
         <f>SUM(F11:J11)/5</f>
-        <v>0.18139912612184075</v>
+        <v>0.18140365858053614</v>
       </c>
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
@@ -14547,19 +14554,19 @@
         <v>12583000000</v>
       </c>
       <c r="F14" s="41">
-        <v>11000000000</v>
+        <v>10988000000</v>
       </c>
       <c r="G14" s="39">
-        <v>13807000000</v>
+        <v>13982000000</v>
       </c>
       <c r="H14" s="39">
-        <v>17583000000</v>
+        <v>17693000000</v>
       </c>
       <c r="I14" s="39">
         <v>28124000000</v>
       </c>
       <c r="J14" s="40">
-        <v>28700000000</v>
+        <v>29000000000</v>
       </c>
       <c r="K14" s="106" t="s">
         <v>239</v>
@@ -14571,7 +14578,7 @@
       </c>
       <c r="O14" s="96">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="31"/>
     </row>
@@ -14592,27 +14599,27 @@
       </c>
       <c r="F15" s="64">
         <f t="shared" si="8"/>
-        <v>-0.12580465707700861</v>
+        <v>-0.12675832472383375</v>
       </c>
       <c r="G15" s="63">
         <f t="shared" si="8"/>
-        <v>0.25518181818181818</v>
+        <v>0.27247906807426281</v>
       </c>
       <c r="H15" s="63">
         <f t="shared" si="8"/>
-        <v>0.27348446440211482</v>
+        <v>0.26541267343727659</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" si="8"/>
-        <v>0.5994995165785133</v>
+        <v>0.58955519131860057</v>
       </c>
       <c r="J15" s="63">
         <f t="shared" si="8"/>
-        <v>2.0480728203669418E-2</v>
+        <v>3.1147774143080564E-2</v>
       </c>
       <c r="K15" s="107">
         <f>SUM(F15:J15)/5</f>
-        <v>0.20456837405782141</v>
+        <v>0.20636727644987735</v>
       </c>
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
@@ -14621,7 +14628,7 @@
       </c>
       <c r="O15" s="97" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>2.3370000000000002</v>
+        <v>2.3367</v>
       </c>
       <c r="P15" s="31"/>
     </row>
@@ -14647,15 +14654,15 @@
       </c>
       <c r="F16" s="53">
         <f t="shared" si="9"/>
-        <v>0.11324328776148905</v>
+        <v>0.11312906679845153</v>
       </c>
       <c r="G16" s="61">
         <f t="shared" si="9"/>
-        <v>0.11641652613827994</v>
+        <v>0.11809121621621621</v>
       </c>
       <c r="H16" s="61">
         <f t="shared" si="9"/>
-        <v>0.12043150684931507</v>
+        <v>0.12118493150684931</v>
       </c>
       <c r="I16" s="61">
         <f t="shared" si="9"/>
@@ -14663,7 +14670,7 @@
       </c>
       <c r="J16" s="61">
         <f t="shared" si="9"/>
-        <v>0.15364025695931477</v>
+        <v>0.15524625267665954</v>
       </c>
       <c r="K16" s="56"/>
       <c r="L16" s="36"/>
@@ -14693,19 +14700,19 @@
         <v>7727239959</v>
       </c>
       <c r="F17" s="41">
-        <v>7500000000</v>
+        <v>7250000000</v>
       </c>
       <c r="G17" s="39">
-        <v>10401000000</v>
+        <v>11037000000</v>
       </c>
       <c r="H17" s="39">
-        <v>16000000000</v>
+        <v>17166000000</v>
       </c>
       <c r="I17" s="39">
         <v>25167000000</v>
       </c>
       <c r="J17" s="39">
-        <v>30000000000</v>
+        <v>35000000000</v>
       </c>
       <c r="K17" s="106" t="s">
         <v>242</v>
@@ -14717,7 +14724,7 @@
       </c>
       <c r="O17" s="99">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.13920473000000003</v>
+        <v>0.141197393</v>
       </c>
       <c r="P17" s="31"/>
     </row>
@@ -14740,27 +14747,27 @@
       </c>
       <c r="F18" s="64">
         <f t="shared" si="10"/>
-        <v>-2.9407648811957898E-2</v>
+        <v>-6.1760727184892672E-2</v>
       </c>
       <c r="G18" s="63">
         <f t="shared" si="10"/>
-        <v>0.38680000000000003</v>
+        <v>0.52234482758620682</v>
       </c>
       <c r="H18" s="63">
         <f t="shared" si="10"/>
-        <v>0.53831362369002989</v>
+        <v>0.55531394400652356</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" si="10"/>
-        <v>0.5729375000000001</v>
+        <v>0.46609577070954211</v>
       </c>
       <c r="J18" s="63">
         <f t="shared" si="10"/>
-        <v>0.19203719156037669</v>
+        <v>0.39071005682043936</v>
       </c>
       <c r="K18" s="107">
         <f>SUM(F18:J18)/5</f>
-        <v>0.33213613328768976</v>
+        <v>0.37454077438756384</v>
       </c>
       <c r="L18" s="36"/>
       <c r="M18" s="36"/>
@@ -14792,15 +14799,15 @@
       </c>
       <c r="F19" s="53">
         <f t="shared" si="11"/>
-        <v>7.7211332564651625E-2</v>
+        <v>7.4643769047030725E-2</v>
       </c>
       <c r="G19" s="52">
         <f t="shared" si="11"/>
-        <v>8.7698145025295104E-2</v>
+        <v>9.3217905405405407E-2</v>
       </c>
       <c r="H19" s="52">
         <f t="shared" si="11"/>
-        <v>0.1095890410958904</v>
+        <v>0.11757534246575342</v>
       </c>
       <c r="I19" s="52">
         <f t="shared" si="11"/>
@@ -14808,7 +14815,7 @@
       </c>
       <c r="J19" s="52">
         <f t="shared" si="11"/>
-        <v>0.16059957173447537</v>
+        <v>0.1873661670235546</v>
       </c>
       <c r="K19" s="56"/>
       <c r="L19" s="36"/>
@@ -14851,7 +14858,7 @@
       </c>
       <c r="O20" s="100" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>759221702430</v>
+        <v>775148096640</v>
       </c>
       <c r="P20" s="31"/>
     </row>
@@ -14873,7 +14880,7 @@
       </c>
       <c r="O21" s="100">
         <f>O19+O20</f>
-        <v>761552702430</v>
+        <v>777479096640</v>
       </c>
       <c r="P21" s="31"/>
     </row>
@@ -14902,19 +14909,19 @@
       </c>
       <c r="O22" s="101">
         <f>(O19/O21)</f>
-        <v>3.0608518524878579E-3</v>
+        <v>2.9981513458995726E-3</v>
       </c>
       <c r="P22" s="31"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="123" t="str" cm="1">
+      <c r="A23" s="125" t="str" cm="1">
         <f t="array" ref="A23">_FV(A1,"Description")</f>
         <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
       </c>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
@@ -14928,16 +14935,16 @@
       </c>
       <c r="O23" s="102">
         <f>O20/O21</f>
-        <v>0.99693914814751217</v>
+        <v>0.99700184865410046</v>
       </c>
       <c r="P23" s="31"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="123"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
+      <c r="A24" s="125"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
@@ -14953,11 +14960,11 @@
       <c r="P24" s="31"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="123"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
+      <c r="A25" s="125"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
@@ -14968,17 +14975,17 @@
       <c r="M25" s="36"/>
       <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.1389500402783343</v>
+        <v>0.14094194620518974</v>
       </c>
       <c r="O25" s="116"/>
       <c r="P25" s="31"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="123"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
@@ -14992,11 +14999,11 @@
       <c r="P26" s="31"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="123"/>
-      <c r="B27" s="123"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
+      <c r="A27" s="125"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
       <c r="F27" s="36"/>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
@@ -15010,11 +15017,11 @@
       <c r="P27" s="31"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="123"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
+      <c r="A28" s="125"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
@@ -15028,11 +15035,11 @@
       <c r="P28" s="31"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="123"/>
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
+      <c r="A29" s="125"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
       <c r="F29" s="36"/>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
@@ -15046,11 +15053,11 @@
       <c r="P29" s="31"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="123"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
